--- a/backend/static/Amazon_Unsorted.xlsx
+++ b/backend/static/Amazon_Unsorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,47 +513,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Solimo Basic Case for Apple iPhone 7 (Silicone_Transparent)</t>
+          <t>iPhone 16 (128 GB) - Black</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>179</v>
+        <v>2874.1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Flexible-Transparent/dp/B08QNQDJ9M/ref=sr_1_1?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-1</t>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2F0ZjozMDAzMzQzMTM0MDI3MzI6OjA6Og&amp;url=%2FApple-iPhone-16-128-GB%2Fdp%2FB0DGK2GQY9%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-1-spons%26aref%3DYDhzrNvK2W%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=YDhzrNvK2W&amp;sp_cr=DUB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,47 +568,47 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LIRAMARK Silicone Soft Back Cover Case for Apple iPhone SE 2020/2022 / iPhone 7 / iPhone 8 (Silicone Black)</t>
+          <t>iPhone 16 Plus (256 GB) - Ultramarine</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>159</v>
+        <v>3599</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Silicone-Cover-Apple-iPhone/dp/B0BBVQJY4V/ref=sr_1_2?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-2</t>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2F0ZjozMDAzMzQzMTM0MDEyMzI6OjA6Og&amp;url=%2FApple-iPhone-Plus-256-Ultramarine%2Fdp%2FB0DGJRF5JB%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-2-spons%26aref%3D4gJHHjxekk%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=4gJHHjxekk&amp;sp_cr=DUB</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -623,47 +623,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ambrane USB To Lightning 3A Fast Charging Braided Lightning Cable Compatible For iPhone 14,13, 12,11, X, 8, 7, 6, 5, Ipad, Macbook, Imac, Airpods, 480Mbps Data Sync, 1.5Meter Long (RCL -15, Black)</t>
+          <t>iPhone 14 Plus (512 GB) - Yellow</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>129</v>
+        <v>3039</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ambrane-Lightning-Charging-Compatible-Black/dp/B0CZRQCF29/ref=sr_1_3?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-3</t>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2F0ZjoyMDEyODg5NjA0Mzg5ODo6MDo6&amp;url=%2FApple-iPhone-14-Plus-512%2Fdp%2FB0BXQPYSYP%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-3-spons%26aref%3DwxGY7yuiQt%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=wxGY7yuiQt&amp;sp_cr=DUB</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,47 +678,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Amazon Basics Basic Case for Apple iPhone 7 (Silicone_Red)</t>
+          <t>iPhone 17 256 GB: 6.3-inch Display with ProMotion, A19 Chip, Center Stage Front Camera for Smarter Group Selfies, Improved Scratch Resistance, All-Day Battery Life; Sage</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>399</v>
+        <v>3799</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Basics-Basic-iPhone-Silicone_Red/dp/B0D1MLL4MK/ref=sr_1_4?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-4</t>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2F0ZjozMDA3Mjc4MDAwNzY1MzI6OjA6Og&amp;url=%2FApple-iPhone-256-ProMotion-Resistance%2Fdp%2FB0FQFJ25NM%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-4-spons%26aref%3DmL0mI89i1A%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=mL0mI89i1A&amp;sp_cr=DUB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -733,47 +733,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Rubber Puffer Case Camera Protection Soft Back Cover for Apple iPhone 7|iPhone 8|iPhone Se 2020|iPhone Se 2022-Black</t>
+          <t>iPhone 16 (128 GB) - White</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>199</v>
+        <v>2699</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Puffer-Protection/dp/B0CV55BF5J/ref=sr_1_5?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-5</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-16-128-GB/dp/B0DGJVQ21W/ref=sr_1_5?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -788,47 +788,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>LIRAMARK Silicone Soft Back Cover Case for Apple iPhone SE 2020/2022 / iPhone 7 / iPhone 8 (Silicone Pink)</t>
+          <t>iPhone 16 Plus (128 GB) - Ultramarine</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>159</v>
+        <v>2999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Silicone-Cover-Apple-iPhone/dp/B0BBVC8MG8/ref=sr_1_6?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-6</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Plus-128-Ultramarine/dp/B0DGJPGXKV/ref=sr_1_6?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -843,47 +843,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LIRAMARK Silicone Soft Back Cover Case for Apple iPhone SE 2020/2022 / iPhone 7 / iPhone 8 (Silicone Blue)</t>
+          <t>iPhone 16 (128 GB) - Black</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>159</v>
+        <v>2874.1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Silicone-Cover-Apple-iPhone/dp/B0BBVH3TT3/ref=sr_1_7?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-7</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-16-128-GB/dp/B0DGK2GQY9/ref=sr_1_7?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -898,47 +898,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jkobi Back Cover Case for Apple iPhone 7 | iPhone 8 (Textured Grip Design | Camera Protection | Slim and Light Weight | Soft Touch and Feel | Black)</t>
+          <t>iPhone 16 (128 GB) - Teal</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>229</v>
+        <v>2699</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Textured-Protection/dp/B0D177545G/ref=sr_1_8?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-8</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-16-128-GB/dp/B0DGJM8GYG/ref=sr_1_8?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -953,47 +953,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Solimo Basic Case for Apple iPhone 7 Plus (Silicone Transparent)</t>
+          <t>iPhone 16 Plus (128 GB) - Teal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>179</v>
+        <v>3409</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Flexible-Transparent/dp/B08QNNHFQL/ref=sr_1_9?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-9</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-16-Plus-128/dp/B0DGJLGN8K/ref=sr_1_9?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1008,47 +1008,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Solimo Thermoplastic Polyurethane, Plastic Transparent Black Bumper Case Hard Back &amp; Soft Bumper Cover for Apple iPhone 7 - Black</t>
+          <t>iPhone 16 Plus (256 GB) - Ultramarine</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>189</v>
+        <v>3599</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Transparent-Bumper/dp/B095SMF12M/ref=sr_1_10?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-10</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Plus-256-Ultramarine/dp/B0DGJRF5JB/ref=sr_1_10?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1063,47 +1063,47 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>POPIO Tempered Glass for Apple iPhone 6 / iPhone 6S / iPhone 7 / iPhone 8 (Transparent)-Full Screen Coverage (Except Edges) with easy installation kit</t>
+          <t>Apple iPhone 16 Pro Max (256 GB) - Desert Titanium (Renewed)</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>189</v>
+        <v>4279</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/POPIO-Glass-iPhone-Transparent-installation/dp/B07PZWQSY8/ref=sr_1_11?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-11</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Pro-Max-256/dp/B0FSKXDS55/ref=sr_1_13?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1118,47 +1118,47 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Tempered Glass Full Screen Protector For Apple iPhone 6 / iPhone 6S / iPhone 7 / iPhone 8 (Transparent)-Full Screen Coverage (Except Edges) With Easy Installation Kit</t>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 128GB - Deep Purple</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>149</v>
+        <v>2359</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Protector-Transparent-Installation/dp/B0DQ44FSJ4/ref=sr_1_12?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-12</t>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-128GB/dp/B0CQ2TT6ZF/ref=sr_1_14?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1173,47 +1173,47 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Durcord USB to Lightning Cable-20W Original [MFi Certified] Fast Charger Cable Power Charging Cord Compatible with iPhone 14/13/12/11/X/8/7/6/iPad Series (White)</t>
+          <t>Apple iPhone 16 Pro Max (256 GB) - Natural Titanium (Renewed)</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>249</v>
+        <v>4299</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Durcord-Lightning-Cable-20W-Certified-Compatible/dp/B0FHBZWN7P/ref=sr_1_13?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-13</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Pro-Max-256/dp/B0FSKX81RY/ref=sr_1_15?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1228,47 +1228,47 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LIRAMARK Silicone Soft Back Cover Case for Apple iPhone 7 Plus/iPhone 8 Plus (Silicone Black)</t>
+          <t>Apple (Refurbished) iPhone 15 Pro (256 GB) - Natural Titanium</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>159</v>
+        <v>2942.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Silicone-Cover-Apple-iPhone/dp/B0BBVG8Z21/ref=sr_1_14?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-14</t>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256/dp/B0DWLSFBJV/ref=sr_1_16?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1283,47 +1283,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jkobi Back Cover Case for Apple iPhone 7 Plus | iPhone 8 Plus (Textured Grip Design | Micro-Fiber Cloth Inside | Slim and Light Weight | Soft Touch and Feel | Black)</t>
+          <t>iPhone 17 Pro 512 GB: 6.3-inch Display with ProMotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>230</v>
+        <v>5999</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-11-22 14:55:23</t>
+          <t>2025-11-22 15:26:34</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Plus-Micro-Fiber/dp/B0FC6V53PP/ref=sr_1_15?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-15</t>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Pro-512-Breakthrough/dp/B0FQF34ZHL/ref=sr_1_17?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>iphone 7</t>
+          <t>Iphone 16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1338,35 +1338,1960 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Amazon (amazon.in)</t>
+          <t>Amazon (amazon.sa)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AILKIN 27W Fast Charging Nylon Braided Cable [Apple MFi Certified] Lightning to USB Cable for iPhone Charger Cord Compatible with iPhone 14/13/12/11 Pro Max XR/XS/X/8/7/6 Plus,iPad &amp; More</t>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 256GB - Gold</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>298</v>
+        <v>2409.98</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>₹</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256GB/dp/B0CQ2PHQFY/ref=sr_1_18?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Pro Max (256 GB) - White Titanium (Renewed)</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4285</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Pro-Max-256/dp/B0FSKY1CJ4/ref=sr_1_19?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 11 (128GB) - White</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>969</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-11-128GB/dp/B0CQ2V6RKP/ref=sr_1_20?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 13 Pro (256GB) - Sierra Blue</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1839</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256GB/dp/B0CVW234BP/ref=sr_1_21?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>iPhone 14 (128 GB) - Yellow</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2849</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2025-11-22 14:55:23</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/AILKIN-Charging-Certified-Lightning-Compatible/dp/B0F92NYCXH/ref=sr_1_16?dib=eyJ2IjoiMSJ9.WZLIMSrksXPlFov2mWheaHLtyaEEp_im734_Iee15pqps_aj5ptc_b9WqjI1K4JhKFbtfhrblAnj2mPSMqD-XBDd46TlHOIf5PvNRUGeA0He9hJY3LmGnqWGzH1jr4X1ieDb5KlwTEa9lBCc4BuDy3o0xoG0Oi8117GGZ_mTNHbNACiIq5h4L8Bu54_elzswElIi1yovfsy--9wbbV9BHwKLrXVUlt7053Uo5druWyM.PlUSBQpkPPVXBOn5Utld0Eo3b0p-gXNZgFmkjjqKidI&amp;dib_tag=se&amp;keywords=apple+iphone+7&amp;qid=1763803521&amp;sr=8-16</t>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-14-128-GB/dp/B0BXQP3M4G/ref=sr_1_22?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 256GB - Silver</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2499</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256GB/dp/B0CQ2N4196/ref=sr_1_23?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 128GB - Gold</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2394.94</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-128GB/dp/B0CQ2SRWWD/ref=sr_1_24?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro 5G 256GB - Gold</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2349</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256GB/dp/B0CQ2RP2Z6/ref=sr_1_26?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 256GB - Space Black</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2554.95</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256GB/dp/B0CQ2PW2N2/ref=sr_1_27?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max (128 GB) - Silver</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2349</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-Max/dp/B0F27ZTGJ8/ref=sr_1_28?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 128GB - Space Black</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2394.97</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-128GB/dp/B0CQ2RFY9C/ref=sr_1_29?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro 5G 256GB - Silver</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2468</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-256GB/dp/B0CQ2SM53N/ref=sr_1_30?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 512GB - Gold</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2699</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-512GB/dp/B0CQ2P37NB/ref=sr_1_31?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro, 5G 256GB, Space Black - Unlocked</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2468</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-256GB-Space/dp/B0CQ2NSGPV/ref=sr_1_32?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 512GB - Deep Purple</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2679.97</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-512GB/dp/B0CQ2QC61Z/ref=sr_1_35?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Apple (Refurbished) iPhone 14 Pro Max 5G 512GB - Space Black</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3050</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-Refurbished-iPhone-Pro-512GB/dp/B0CQ2QFX49/ref=sr_1_36?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>iPhone 16 Case Clear Cover, [MIL-Grade Protection], [Revolutionary iCrystal Tech], Anti-Scratch, Air-Guard Corners, Ultra Slim Transparent for iPhone 16 6.1 inch Women Men</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/UGREEN-Protection-Revolutionary-Anti-Scratch-Transparent/dp/B0D83KL948/ref=sr_1_41?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>iPhone 16 Silicone Case with MagSafe - Fuchsia ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>129</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Silicone-Case-MagSafe/dp/B0DGHM5N6V/ref=sr_1_42?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>iPhone 16 Pro Max Silicone Case with MagSafe - Black ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Silicone-Case-MagSafe/dp/B0DGHLFC4M/ref=sr_1_43?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>iPhone 16 Case MagSafe (MagU), Revolutionary iCrystal Tech Clear Cover, MIL-Grade Protection, Anti-Scratch, Camera Protective, Magnetic Ultra Slim for iPhone 16 6.1 inch Accessories</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>59</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/UGREEN-Revolutionary-Protection-Anti-Scratch-Accessories/dp/B0D83JY3LF/ref=sr_1_44?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>iPhone 16 Pro Silicone Case with MagSafe - Black ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>149</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Silicone-Case-MagSafe/dp/B0DGHKP48R/ref=sr_1_45?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>iPhone 16 Plus Silicone Case with MagSafe – Aquamarine ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>129</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Plus-Silicone-MagSafe/dp/B0DZ74X24H/ref=sr_1_46?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-46</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>iPhone 16 Plus Silicone Case with MagSafe - Plum ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>179</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Plus-Silicone-MagSafe/dp/B0DGHJ6JQC/ref=sr_1_47?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>iPhone 16 Plus Case Silicone Protective Cover, Ultra Slim Soft Silicone Gel TPU Cover, Anti-Scratch Anti-Fingerprint Case Compatible with Apple iPhone 16 Plus（6.7Inch) (2024) (Black）</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/INFOSUN-iPhone-Plus-Anti-Scratch-Anti-Fingerprint/dp/B0DG56X4BG/ref=sr_1_48?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>iPhone 16 Plus Case Clear Cover Ultra Thin Silicone Shockproof Hard Back Cases Transparent Protective Slim Phone Case for Apple iPhone 16 Plus - Black</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/INFOSUN-iPhone-Plus-Transparent-Apple/dp/B0DG57JGNL/ref=sr_1_49?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>iPhone 16 Pro/16 Pro Max Camera Lens Protector 2 Pack Ultimate Drop Defense HD Lossless Shooting Individual Lens Protector Easy to Install, Anti Fingerprint, Compatible with 99% Phone Cases</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/UGREEN-Protector-Individual-Fingerprint-Compatible/dp/B0D83CH5PT/ref=sr_1_50?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>iPhone 16 Plus Silicone Case with MagSafe - Fuchsia ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>179</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Plus-Silicone-MagSafe/dp/B0DGHK1GBQ/ref=sr_1_51?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>iPhone 16 Plus Silicone Case with MagSafe – Peony ​​​​​​​</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>149</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/Apple-iPhone-Plus-Silicone-MagSafe/dp/B0DZ74SMGC/ref=sr_1_52?dib=eyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ&amp;dib_tag=se&amp;keywords=Apple+Iphone+16&amp;qid=1763805393&amp;sr=8-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16e (128 GB) - White (Renewed)</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2085</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA4MjUwMzExMjIzMzI6OjA6Og&amp;url=%2FApple-iPhone-16e-128-GB%2Fdp%2FB0FSKZ7FS5%2Fref%3Dsr_1_53_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-53-spons%26aref%3D9qBgAhKZs0%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=9qBgAhKZs0&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Pro Max (256 GB) - Desert Titanium (Renewed)</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>4279</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA4MjUwMzExMjI4MzI6OjA6Og&amp;url=%2FApple-iPhone-Pro-Max-256%2Fdp%2FB0FSKXDS55%2Fref%3Dsr_1_54_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-54-spons%26aref%3DStdeDuGSbw%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=StdeDuGSbw&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Pro Max (256 GB) - White Titanium (Renewed)</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>4285</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA4MjUwMzExMjI2MzI6OjA6Og&amp;url=%2FApple-iPhone-Pro-Max-256%2Fdp%2FB0FSKY1CJ4%2Fref%3Dsr_1_55_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-55-spons%26aref%3DMmlkBLRltH%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=MmlkBLRltH&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Pro (256 GB) - White Titanium (Renewed)</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3685</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA4MjUwMzExMjMxMzI6OjA6Og&amp;url=%2FApple-iPhone-16-Pro-256%2Fdp%2FB0FM43BMG2%2Fref%3Dsr_1_56_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-56-spons%26aref%3DWVdpNyfAZZ%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=WVdpNyfAZZ&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Apple iPhone 16 Pro (256 GB) - Black Titanium (Renewed)</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3659</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA4MjUwMzExMjMwMzI6OjA6Og&amp;url=%2FApple-iPhone-16-Pro-256%2Fdp%2FB0FSKYTHW1%2Fref%3Dsr_1_57_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-57-spons%26aref%3DFz367sTsqP%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=Fz367sTsqP&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>for iPhone 16 Charging Station for Apple Watch and iPhone Multiple Devices Magsafe Charging Station Wireless Charger for iPhone Magsafe Stand Portable iPhone Apple Charging Station Light White</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>143.99</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA2Nzc1NTE2MTQwMzI6OjA6Og&amp;url=%2FLISEN-Charging-Multiple-Wireless-Portable%2Fdp%2FB0D5BSNXFP%2Fref%3Dsr_1_58_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-58-spons%26aref%3DcMRwvQkWcl%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=cMRwvQkWcl&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Slim Case for iPhone 16 6.1-Inch with Camera Lens Full Protection, Ultra-Thin Lightweight Matte Finish Minimalist Protective Phone Cover (Black)</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA1OTg1Njc3ODk1MzI6OjA6Og&amp;url=%2FJETech-Protection-Ultra-Thin-Lightweight-Minimalist%2Fdp%2FB0F48MXSWC%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-59-spons%26aref%3Do4BcEAia0E%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=o4BcEAia0E&amp;sp_cr=DUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iphone 16</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Amazon (amazon.sa)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>for iPhone 16 6.1-Inch Case, Phone case for iPhone 16 Magnetic Case [Compatible with Mag Safe] Translucent Matte Slim Shockproof Anti-Fingerprint Protective Cover for iPhone 16 6.1’’ (Wine Red)</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-11-22 15:26:34</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.sa/-/en/sspa/click?ie=UTF8&amp;spc=MTozNTMxMDYxNDI2MTg0MjoxNzYzODA1MzkzOnNwX2J0ZjozMDA2Mjg1Nzg0NjUyMzI6OjA6Og&amp;url=%2FZoye-Compatible-Translucent-Shockproof-Anti-Fingerprint%2Fdp%2FB0FFSW7GJV%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.be2eMi-0SIxZSAgYhzEUvdOUGFuIUPC3LrRq88goR-zhRTt4Fz9s1xRqFnWRgc4GqomMxmf0dMBHEUCK_g_tKVZaDmLtV2mkk4M-Ghxa7pKNhrGyq1O6uxW6pRBJao9D013iT07QpKHTMzTdQAtV7I7cSa4UV0D9Y6HnDt_GLnG54brNgjzKNhh0OIP7rG_c2_Lsq6T6CghpBSZea9Ozds7_QGux-rj0D9liVNops5Q_eus_qTnyH10ZU5LpXB8kPZ_CfAkDubxC3PgmkIklyXHhp1GBrn2ZFs6YHt4s6Mg.nErRlUM_WOkJ2_WsG14CeZGd3HXCPBK1rcjSWXQkorQ%26dib_tag%3Dse%26keywords%3DApple%2BIphone%2B16%26qid%3D1763805393%26sr%3D8-60-spons%26aref%3DUhfuSATB2V%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1&amp;aref=UhfuSATB2V&amp;sp_cr=DUB</t>
         </is>
       </c>
     </row>

--- a/backend/static/Amazon_Unsorted.xlsx
+++ b/backend/static/Amazon_Unsorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -543,11 +543,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>iPhone Air 256 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
+          <t>iPhone 17 Pro Max 512 GB: 17.42 cm (6.9″) Display with Promotion, A19 Pro Chip, Best Battery Life in Any iPhone Ever, Pro Fusion Camera System, Center Stage Front Camera; Deep Blue</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99000</v>
+        <v>169900</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -556,17 +556,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_3?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-3</t>
+          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-3</t>
         </is>
       </c>
     </row>
@@ -588,11 +588,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
+          <t>iPhone Air 256 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>134900</v>
+        <v>99000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -601,17 +601,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_4?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-4</t>
+          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_4?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-4</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
+          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>119000</v>
+        <v>134900</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -646,17 +646,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_5?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-5</t>
+          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_5?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-5</t>
         </is>
       </c>
     </row>
@@ -678,11 +678,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max 256 GB: 17.42 cm (6.9″) Display with Promotion, A19 Pro Chip, Best Battery Life in Any iPhone Ever, Pro Fusion Camera System, Center Stage Front Camera; Deep Blue</t>
+          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>149900</v>
+        <v>119000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -691,17 +691,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-Max-256-Promotion/dp/B0FQFV2XKS/ref=sr_1_6?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-6</t>
+          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_6?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-6</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_8?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-8</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_7?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-7</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>64900</v>
+        <v>206899</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-14-256GB-Starlight/dp/B0BDJS3MRM/ref=sr_1_9?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-9</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_9?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-9</t>
         </is>
       </c>
     </row>
@@ -813,11 +813,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21499</v>
+        <v>246899</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -826,17 +826,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_10?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-10</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_10?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-10</t>
         </is>
       </c>
     </row>
@@ -858,11 +858,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>47998</v>
+        <v>166899</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -871,17 +871,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_11?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-11</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_11?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-11</t>
         </is>
       </c>
     </row>
@@ -903,11 +903,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>109999</v>
+        <v>151899</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -916,17 +916,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_12?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-12</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-256GB-AppleCare/dp/B0G6L7PR2C/ref=sr_1_12?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-12</t>
         </is>
       </c>
     </row>
@@ -948,11 +948,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>iQOO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>72998</v>
+        <v>191899</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -961,17 +961,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_13?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-13</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-1TB-AppleCare/dp/B0G6KKFKMK/ref=sr_1_13?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-13</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32499</v>
+        <v>47998</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_14?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-14</t>
+          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_14?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-14</t>
         </is>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7999</v>
+        <v>166899</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_15?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-15</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_15?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-15</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_16?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-16</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_16?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-16</t>
         </is>
       </c>
     </row>
@@ -1128,11 +1128,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>72999</v>
+        <v>64900</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_17?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-17</t>
+          <t>https://www.amazon.in/Apple-iPhone-14-256GB-Starlight/dp/B0BDJS3MRM/ref=sr_1_17?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>206899</v>
+        <v>109999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:03</t>
+          <t>2026-01-25 22:49:01</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_18?dib=eyJ2IjoiMSJ9.nnQk0RbRgywvOIZBam47G_l8mFq7ODynbGoyNng_JRQf4Gmsq3UtOb73RjAlvbBXnxTl3ogvzy7iMLixOJG1UVh0JLaXb7f0coCpvZn9ceuwAWeys_IFKi76-SguYlVLdHLzotxVvZWoS-QxgXWNAkoWoYO__HIYYPfN8e4Dn_ZX8A4l0g_L3iVr7qKEuhdYquRO15L_a_LEnJBhbv34Zu31YF_OvdhrDuxUnmitHvA.nP-V-UuLxGR7Ui9XaVRztXjetHdc6B7AIDA3ejZC5tw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340056&amp;sr=8-18</t>
+          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_18?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-18</t>
         </is>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>206899</v>
+        <v>174900</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1231,17 +1231,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KTX1YR/ref=sr_1_17?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-17</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_17?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>171899</v>
+        <v>186899</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_18?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-18</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_18?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-18</t>
         </is>
       </c>
     </row>
@@ -1308,11 +1308,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>299</v>
+        <v>171899</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFLB369/ref=sr_1_19?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-19</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_19?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-19</t>
         </is>
       </c>
     </row>
@@ -1353,11 +1353,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Type C (MFi-Certified) for iPhone 17/17 Air/17 Pro/17 Pro Max,16/16 Plus/Pro/Pro Max, 15/14/13/12/11 Series with PD 3.0 USB-C Fast Charging Adaptor</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>473</v>
+        <v>206899</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_20?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-20</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KTX1YR/ref=sr_1_20?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-20</t>
         </is>
       </c>
     </row>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iQOO</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>151899</v>
+        <v>72998</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-256GB-AppleCare/dp/B0G6L7PR2C/ref=sr_1_21?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-21</t>
+          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_21?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-21</t>
         </is>
       </c>
     </row>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>246899</v>
+        <v>32499</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_22?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-22</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_22?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-22</t>
         </is>
       </c>
     </row>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>191899</v>
+        <v>21499</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-1TB-AppleCare/dp/B0G6KKFKMK/ref=sr_1_23?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-23</t>
+          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_23?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-23</t>
         </is>
       </c>
     </row>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>166899</v>
+        <v>72999</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_24?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-24</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_24?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-24</t>
         </is>
       </c>
     </row>
@@ -1578,11 +1578,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>74999</v>
+        <v>7999</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_25?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-25</t>
+          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_25?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-25</t>
         </is>
       </c>
     </row>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>166899</v>
+        <v>299</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_26?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-26</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFMQMHY/ref=sr_1_26?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-26</t>
         </is>
       </c>
     </row>
@@ -1668,11 +1668,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>122999</v>
+        <v>246899</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_27?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-27</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KP56K2/ref=sr_1_27?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-27</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Desert Titanium</t>
+          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>174900</v>
+        <v>595</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1726,17 +1726,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJ1BY5T/ref=sr_1_28?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-28</t>
+          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_28?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-28</t>
         </is>
       </c>
     </row>
@@ -1758,11 +1758,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>iPhone Air 1 TB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Space Black</t>
+          <t>iPhone Charger Adapter 20W Type C (MFi-Certified) for iPhone 17/17 Air/17 Pro/17 Pro Max,16/16 Plus/Pro/Pro Max, 15/14/13/12/11 Series with PD 3.0 USB-C Fast Charging Adaptor</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>139000</v>
+        <v>473</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-TB-Thinnest-Promotion/dp/B0FQG8WM6R/ref=sr_1_29?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-29</t>
+          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_29?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-29</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>186899</v>
+        <v>166899</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_30?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-30</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KK31WB/ref=sr_1_30?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-30</t>
         </is>
       </c>
     </row>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
+          <t>MagPro case for Apple iPhone 17 | MagSafe Compatible Protective Cover with Strong Magnetic Adsorption, Shockproof Armor, Scratch Resistant Polycarbonate Hard Back | Translucent Matte Black</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>595</v>
+        <v>399</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_31?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-31</t>
+          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_31?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-31</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1893,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>iPhone 16 512 GB: 5G Mobile Phone with Camera Control, A18 Chip and a Big Boost in Battery Life. Works with AirPods; Ultramarine</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>99900</v>
+        <v>186899</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:09</t>
+          <t>2026-01-25 22:49:07</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-512-GB-Ultramarine/dp/B0DGJ6CMJK/ref=sr_1_32?dib=eyJ2IjoiMSJ9.fS3aixu_72CLxhP6BWr1vuBWlPLO23RsoMxaN5tnFUPa1Y2b1_dSTqndKyl3IuYBi312nEMdlK3sYG9wi_GIR5IQ41rDVT7ogm1khTNvX27fr-a46GCuot27os7hfMf4XhQHpN_ouaYc54oAiOGF19_2G798vzPQ0kmzoBQJero31OPS_dWjr63-hrHx-IV0cTy-meWCBk-l92WFVeEP5EwxDwzBJ-Vr5Xl2nTsw9QU.IaHc-pRxzbC9b0bbfeGg-vzGNBes6-vrkHOYnbZmZA4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340063&amp;sr=8-32</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KFSWC5/ref=sr_1_32?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-32</t>
         </is>
       </c>
     </row>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MagPro case for Apple iPhone 17 | MagSafe Compatible Protective Cover with Strong Magnetic Adsorption, Shockproof Armor, Scratch Resistant Polycarbonate Hard Back | Translucent Matte Black</t>
+          <t>Compatible Case Apple iPhone 17 | Back Cover Case | Stylish Frameless Matte Hard Back Skin | Soft TPU Shock Proof Bumper Back Cover Case for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>399</v>
+        <v>234.06</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_33?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-33</t>
+          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_33?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-33</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_34?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-34</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_34?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-34</t>
         </is>
       </c>
     </row>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>295</v>
+        <v>74999</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_35?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-35</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_35?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-35</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>699</v>
+        <v>1499</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2086,17 +2086,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_36?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-36</t>
+          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_36?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-36</t>
         </is>
       </c>
     </row>
@@ -2118,11 +2118,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1499</v>
+        <v>122999</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2131,17 +2131,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_37?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-37</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_37?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-37</t>
         </is>
       </c>
     </row>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>246899</v>
+        <v>699</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KP56K2/ref=sr_1_38?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-38</t>
+          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_38?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-38</t>
         </is>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>186899</v>
+        <v>295</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6LC33J2/ref=sr_1_39?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-39</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_40?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-40</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_40?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-40</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_41?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-41</t>
         </is>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>166899</v>
+        <v>151</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KK31WB/ref=sr_1_41?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-41</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_42?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-42</t>
         </is>
       </c>
     </row>
@@ -2343,11 +2343,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>186899</v>
+        <v>151</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KFSWC5/ref=sr_1_42?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-42</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_43?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-43</t>
         </is>
       </c>
     </row>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Compatible Case Apple iPhone 17 | Back Cover Case | Stylish Frameless Matte Hard Back Skin | Soft TPU Shock Proof Bumper Back Cover Case for Apple iPhone 17 (Black)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>234.06</v>
+        <v>151</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_43?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-43</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9V2NTW/ref=sr_1_44?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-44</t>
         </is>
       </c>
     </row>
@@ -2433,11 +2433,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Lava</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>151</v>
+        <v>8999</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2446,17 +2446,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9V2NTW/ref=sr_1_44?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-44</t>
+          <t>https://www.amazon.in/Lava-Storm-Lite-Dimensity-Processor/dp/B0FB42K578/ref=sr_1_45?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-45</t>
         </is>
       </c>
     </row>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_45?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-45</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_46?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-46</t>
         </is>
       </c>
     </row>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3216</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_46?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-46</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9RW7H9/ref=sr_1_47?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-47</t>
         </is>
       </c>
     </row>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Lava</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8999</v>
+        <v>151</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:13</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Lava-Storm-Lite-Dimensity-Processor/dp/B0FB42K578/ref=sr_1_47?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-47</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KHPMR/ref=sr_1_48?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-48</t>
         </is>
       </c>
     </row>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kratos</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>151</v>
+        <v>599</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2626,17 +2626,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:15</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_48?dib=eyJ2IjoiMSJ9.6LcFpSdvjrD7IvgE4R2q3NQiAZHXDHz4jRx_MH1jcVixiQTK-2RVJobPO5APtbY33-EDCX-cJURo8ztSJhSSDcmRoKS88aX8jRO5HLfiZlnYpMQboyNFJovZtVUAonWcr6tgwKV4ngTfPxvJbIn81TLR08V77hA6-a4DP8RlhgbNLkGf3YJra7ynDokrc_0IobfFJHm4nmShh8SY2r1-CjKg6vo4c5OE1S6LoUCAz_s.oJGAa9XPXW4QeXBTY9N_7t8ro-rybhul5bUqfYH5NTE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340070&amp;sr=8-48</t>
+          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_49?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-49</t>
         </is>
       </c>
     </row>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2671,17 +2671,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_49?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-49</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Transparent/dp/B0FT8RZZQH/ref=sr_1_50?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-50</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9S6SYL/ref=sr_1_50?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-50</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_51?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-51</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KHPMR/ref=sr_1_51?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-51</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9S6SYL/ref=sr_1_52?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-52</t>
         </is>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2806,17 +2806,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_52?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-52</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_53?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-53</t>
         </is>
       </c>
     </row>
@@ -2856,12 +2856,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_53?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-53</t>
+          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_54?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-54</t>
         </is>
       </c>
     </row>
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3216</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2152</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9RW7H9/ref=sr_1_54?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-54</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9M3Y6S/ref=sr_1_55?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-55</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Compatible-Apple-iPhone/dp/B0G6TMJ9PR/ref=sr_1_55?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-55</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Compatible-Apple-iPhone/dp/B0G6TMJ9PR/ref=sr_1_56?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-56</t>
         </is>
       </c>
     </row>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kratos</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3227</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>599</v>
+        <v>159</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_56?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-56</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9RT4VK/ref=sr_1_57?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-57</t>
         </is>
       </c>
     </row>
@@ -3018,11 +3018,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>295</v>
+        <v>799</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3031,17 +3031,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_57?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-57</t>
+          <t>https://www.amazon.in/Belkin-Charging-Unbreakable-Smartphone-Certified/dp/B085Y9QRHH/ref=sr_1_58?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-58</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 Pro (1 Year) (Email Delivery, No Physical Kit)</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3257</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16999</v>
+        <v>151</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNQPM9L/ref=sr_1_58?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-58</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9ZK8V8/ref=sr_1_59?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-59</t>
         </is>
       </c>
     </row>
@@ -3108,11 +3108,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2082</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_59?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-59</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZW237/ref=sr_1_60?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-60</t>
         </is>
       </c>
     </row>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9M3798/ref=sr_1_60?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-60</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_61?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-61</t>
         </is>
       </c>
     </row>
@@ -3198,11 +3198,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_61?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-61</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_62?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-62</t>
         </is>
       </c>
     </row>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_62?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-62</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_63?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-63</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:22</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Transparent/dp/B0FT8RZZQH/ref=sr_1_63?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-63</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PVB4TW/ref=sr_1_64?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-64</t>
         </is>
       </c>
     </row>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
+          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3346,17 +3346,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:24</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_64?dib=eyJ2IjoiMSJ9.tLRjDAGVCg3zUoJcTmincVFLeIylagnLgf4SQLiXiSWtC5ad2DsjZsV6WomUZQGSPwd6f-BAUmujx_1snplN1Bz3Y6cRIYBBvVlHZMXJxgnYlUt7Za8aAOSjzHNFWm6VUvX9tnu4Dip-_nuCoDy7TTWskLU9lwLt57m0u61KfomAGuigepLrKfJwMLHvrAdlMg0nnyQB27bpzMimSjCb0m_aSKq6gQBCI0Cu1wNJkCU.KOc8gJ9hW3YkG-PtNG2quj8XE3n0bb7-Sj69FrfXR88&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340076&amp;sr=8-64</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_65?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-65</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_65?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-65</t>
+          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WMMK9B/ref=sr_1_66?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-66</t>
         </is>
       </c>
     </row>
@@ -3423,11 +3423,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Dark Blue</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3165</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSBBBF3B/ref=sr_1_66?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-66</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9TLS14/ref=sr_1_67?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-67</t>
         </is>
       </c>
     </row>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year) (Email Delivery, No Physical Kit)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8499</v>
+        <v>151</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNT1PVP/ref=sr_1_67?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-67</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9M3798/ref=sr_1_68?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-68</t>
         </is>
       </c>
     </row>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Type c cable fast charging 65W Fast C type Charger Cable Compatible for iPhone 17,16 Pro,15 Pro Max, 17 Air,Plus,Apple CarPlay, Galaxy S25 Ultra Charge &amp; Sync Function for All Type C Devices</t>
+          <t>rts</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wayona-Cable-Braided-Charger-Smartphones/dp/B07GVGTSLN/ref=sr_1_68?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-68</t>
+          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_69?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-69</t>
         </is>
       </c>
     </row>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rts</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_69?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-69</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_70?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-70</t>
         </is>
       </c>
     </row>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3227</t>
+          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9RT4VK/ref=sr_1_70?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-70</t>
+          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_71?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-71</t>
         </is>
       </c>
     </row>
@@ -3648,11 +3648,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>iPhone 17 Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Dark Blue</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>799</v>
+        <v>269</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Charging-Unbreakable-Smartphone-Certified/dp/B085Y9QRHH/ref=sr_1_71?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-71</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSBBBF3B/ref=sr_1_72?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-72</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2082</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3711,12 +3711,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZW237/ref=sr_1_72?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-72</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9JBK3C/ref=sr_1_73?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-73</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3738,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3182</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>883</v>
+        <v>159</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-Liquid-Cover-Compatible-iPhone/dp/B0FD2JMYY8/ref=sr_1_73?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-73</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9V98HR/ref=sr_1_74?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-74</t>
         </is>
       </c>
     </row>
@@ -3783,11 +3783,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3257</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9ZK8V8/ref=sr_1_74?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-74</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9TCVRC/ref=sr_1_75?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-75</t>
         </is>
       </c>
     </row>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wayona</t>
+          <t>Silicone Designer Printed Back Case Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D0125</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_75?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-75</t>
+          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Shockproof/dp/B0FVFKDX5C/ref=sr_1_76?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-76</t>
         </is>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Wayona</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9ZMMFC/ref=sr_1_76?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-76</t>
+          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_77?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-77</t>
         </is>
       </c>
     </row>
@@ -3918,11 +3918,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 17 Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Lilac</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3931,17 +3931,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_77?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-77</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSPG6BRB/ref=sr_1_78?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-78</t>
         </is>
       </c>
     </row>
@@ -3963,11 +3963,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Verilux</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D0157</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1548</v>
+        <v>159</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_78?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-78</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9S283X/ref=sr_1_79?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-79</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4008,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1619</v>
+        <v>259</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4021,17 +4021,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:30</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UGREEN-Revodok-Powered-Adapter-Compatible/dp/B0BR3M8XHK/ref=sr_1_79?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-79</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_80?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-80</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:31</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_80?dib=eyJ2IjoiMSJ9.Hn2b5Wz0106ZTz14iNnqpTNMf7MU1c7FpTXoScZJkzra31e02gnMfNbRp0QCc5FxeUZLVVI3IdJSCS67y4jWErW584JxkBHCh4j4zV-pfX1g3DP7EeIlT--l2BjsTqfTm3CQLHIJkB__zRuk33zUTZ9dIwHFKFW7P3XSo31F5dYvl5GT8Jsy2zCRW0pZOdJ-GvI80n4iIJHk2YAskQFAhuaveh5XeXn3maCKRcCHg9U._tw93QROTHOsCN_gJQ9rCENEP-dy0ybCm5qiNo3j9_w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340085&amp;sr=8-80</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_81?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-81</t>
         </is>
       </c>
     </row>
@@ -4098,11 +4098,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>in-Ear True Wireless Earbuds for Apple iPhone 17 Pro Mobile Earbuds with Mic, 12.4mm Drivers, Playback:Upto 38hr case,4-Mic Design, IP55 Rating, TWS Ear Buds with mic (38 Hours Case, TR-2I,)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>285</v>
+        <v>699</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G491KN48/ref=sr_1_81?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-81</t>
+          <t>https://www.amazon.in/Wireless-Apple-iPhone-17-Pro/dp/B0GD7J1LKX/ref=sr_1_82?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-82</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3075</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9JBK3C/ref=sr_1_82?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-82</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9SWTJC/ref=sr_1_83?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-83</t>
         </is>
       </c>
     </row>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PQXRBC/ref=sr_1_83?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-83</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FRB1324Y/ref=sr_1_84?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-84</t>
         </is>
       </c>
     </row>
@@ -4233,11 +4233,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D0012</t>
+          <t>Verilux</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>159</v>
+        <v>1548</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4246,17 +4246,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRG7FWND/ref=sr_1_84?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-84</t>
+          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_85?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-85</t>
         </is>
       </c>
     </row>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3182</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9V98HR/ref=sr_1_85?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-85</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9ZMMFC/ref=sr_1_86?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-86</t>
         </is>
       </c>
     </row>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>UGREEN</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>159</v>
+        <v>1619</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9TCVRC/ref=sr_1_86?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-86</t>
+          <t>https://www.amazon.in/UGREEN-Revodok-Powered-Adapter-Compatible/dp/B0BR3M8XHK/ref=sr_1_87?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-87</t>
         </is>
       </c>
     </row>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Silicone Designer Printed Back Case Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D0125</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D3250</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Shockproof/dp/B0FVFKDX5C/ref=sr_1_87?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-87</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRG7G9Y2/ref=sr_1_88?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-88</t>
         </is>
       </c>
     </row>
@@ -4413,11 +4413,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4426,17 +4426,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_88?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-88</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGKLQ3V/ref=sr_1_89?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-89</t>
         </is>
       </c>
     </row>
@@ -4458,11 +4458,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4476,12 +4476,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDBRB2/ref=sr_1_89?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-89</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4BDF/ref=sr_1_90?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-90</t>
         </is>
       </c>
     </row>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Basesailor</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>699</v>
+        <v>159</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Basesailor-Certified-Charging-Devices-Durable-High-Speed/dp/B0DCC3MKCK/ref=sr_1_90?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-90</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H36SB/ref=sr_1_91?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-91</t>
         </is>
       </c>
     </row>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2149</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2279</v>
+        <v>159</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4561,17 +4561,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UGREEN-Splitter-Multiport-Extender-Compatible/dp/B0D9Q9WCLX/ref=sr_1_91?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-91</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZJZR8/ref=sr_1_92?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-92</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D0157</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9S283X/ref=sr_1_92?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-92</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9TDZW8/ref=sr_1_93?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-93</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2259</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FRB1324Y/ref=sr_1_93?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-93</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9TLS19/ref=sr_1_94?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-94</t>
         </is>
       </c>
     </row>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-212</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4696,17 +4696,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-Charger-Adapter-Budget-Friendly-Earbuds/dp/B0G2LCL12G/ref=sr_1_94?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-94</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZTYCYF2/ref=sr_1_95?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-95</t>
         </is>
       </c>
     </row>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>in-Ear True Wireless Earbuds for Apple iPhone 17 Pro Mobile Earbuds with Mic, 12.4mm Drivers, Playback:Upto 38hr case,4-Mic Design, IP55 Rating, TWS Ear Buds with mic (38 Hours Case, TR-2I,)</t>
+          <t>yuvu77 Back Screen Guard for Apple iPhone 17 Pro, Membrane with 360 Coverage</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>699</v>
+        <v>189</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:38</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wireless-Apple-iPhone-17-Pro/dp/B0GD7J1LKX/ref=sr_1_95?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-95</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Membrane-Coverage/dp/B0GFW92YBC/ref=sr_1_96?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-96</t>
         </is>
       </c>
     </row>
@@ -4773,11 +4773,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>yuvu77 Back Screen Guard for Apple iPhone 17 Pro, Membrane with 360 Coverage</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4786,17 +4786,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:42</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_96?dib=eyJ2IjoiMSJ9.IFhdoAUk_ZoREc-iWCOx6iI-4ZZwRgUABX-Le8VgwhFigESj0v_bvavefHdbMNjUbsMiWzURyJ4x-Ua95PbrZ94_PKmLcPhT_SSaIFf-5XhqIiJA3WKrSIpuv5xUZPsTwRSGxfdI042NclGlx9NRLKnnD6orMT1c8UZpOtJsPg5jfB0WXpcjZC-qX-kMYOsWHXgieR0WyAesJmS7dXqdErNQa9nooFRsYTvVSqWf2EY.IODxku1-cONcB5jVZX6O4uwJCGVgD76aYMQ_d5c81b4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340092&amp;sr=8-96</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Membrane-Coverage/dp/B0GFW92YBC/ref=sr_1_97?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-97</t>
         </is>
       </c>
     </row>
@@ -4818,11 +4818,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-100</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4831,17 +4831,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_97?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-97</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZV4C722/ref=sr_1_98?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-98</t>
         </is>
       </c>
     </row>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1110</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4881,12 +4881,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W94PDF/ref=sr_1_98?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-98</t>
+          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFLZ5VW/ref=sr_1_99?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-99</t>
         </is>
       </c>
     </row>
@@ -4908,11 +4908,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>AILKIN</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D1157</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1799</v>
+        <v>159</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4921,17 +4921,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/AILKIN-Retractable-Charger-Adapter-Android/dp/B0FQQTKVFR/ref=sr_1_99?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-99</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TYXBV/ref=sr_1_100?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-100</t>
         </is>
       </c>
     </row>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3075</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4971,12 +4971,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9SWTJC/ref=sr_1_100?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-100</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_101?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-101</t>
         </is>
       </c>
     </row>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Gold)</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6255</v>
+        <v>269</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5011,17 +5011,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ugreen-Nexode-Charger-4-Ports-Charger/dp/B0CC559K97/ref=sr_1_101?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-101</t>
+          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXH6YM3/ref=sr_1_102?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-102</t>
         </is>
       </c>
     </row>
@@ -5043,11 +5043,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4BDF/ref=sr_1_102?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-102</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_103?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-103</t>
         </is>
       </c>
     </row>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGKLQ3V/ref=sr_1_103?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-103</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDFB8C/ref=sr_1_104?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-104</t>
         </is>
       </c>
     </row>
@@ -5133,11 +5133,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Plus</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5151,12 +5151,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H36SB/ref=sr_1_104?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-104</t>
+          <t>https://www.amazon.in/Plus-Protection-Apple-iPhone-17/dp/B0FRN82PW9/ref=sr_1_105?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-105</t>
         </is>
       </c>
     </row>
@@ -5178,11 +5178,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>UGREEN</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>159</v>
+        <v>6255</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5191,17 +5191,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGH36WM/ref=sr_1_105?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-105</t>
+          <t>https://www.amazon.in/Ugreen-Nexode-Charger-4-Ports-Charger/dp/B0CC559K97/ref=sr_1_106?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-106</t>
         </is>
       </c>
     </row>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2259</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5236,17 +5236,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9TLS19/ref=sr_1_106?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-106</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PQNCSB/ref=sr_1_107?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-107</t>
         </is>
       </c>
     </row>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>yuvu77 Back Screen Guard for Apple iPhone 17 Pro, Membrane with 360 Coverage</t>
+          <t>Wireless Bluetooth for Apple iPhone 17 in-Ear Headphone with Mic 38Hrs Playtime Dual Device Pairing Wireless Neckband Type-C Charge Magnetic Buds &amp; IPX5 Water Resistant (Black, SE.AH)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>189</v>
+        <v>999</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Membrane-Coverage/dp/B0GFW92YBC/ref=sr_1_107?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-107</t>
+          <t>https://www.amazon.in/Bluetooth-Apple-iPhone-17-Headphone/dp/B0G3VRP1S1/ref=sr_1_108?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-108</t>
         </is>
       </c>
     </row>
@@ -5313,11 +5313,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5331,12 +5331,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_108?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-108</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDBRB2/ref=sr_1_109?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-109</t>
         </is>
       </c>
     </row>
@@ -5358,11 +5358,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Gold)</t>
+          <t>Charvi Cute Panda Phone Case for Apple iPhone 17 Air, 3D Cartoon Design with Chubby Panda Topper, Translucent Grey | Protective Cover with Camera Lens</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>269</v>
+        <v>469.06</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5376,12 +5376,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXH6YM3/ref=sr_1_109?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-109</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Air-Translucent/dp/B0G2Y2MBDK/ref=sr_1_110?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-110</t>
         </is>
       </c>
     </row>
@@ -5403,11 +5403,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-100</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5421,12 +5421,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZV4C722/ref=sr_1_110?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-110</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_111?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-111</t>
         </is>
       </c>
     </row>
@@ -5448,11 +5448,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ambrane</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>699</v>
+        <v>219</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5461,17 +5461,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:44</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ambrane-Charger-Technology-Charging-Compatible/dp/B0CYLJ72TX/ref=sr_1_111?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-111</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_112?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-112</t>
         </is>
       </c>
     </row>
@@ -5493,11 +5493,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5511,12 +5511,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:49</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_112?dib=eyJ2IjoiMSJ9.mvxbjjDOD13aJk0eLtkvjRtBs3zxituWnkQtarCL1V20CNDd1rUqtIUn9LbbhJuJ1LjFnVdNuZiO-tX10Zql4JklSCGrbX-96QvPu3aLJnSuzQOl-zvSTKbA-i662AbXcx8Sek-G0dV_HaNRLwcd5QrD34I7i6BxQJtL_pwSeuaX9fieKgyLashbJT3ikKYapNuGpBf5lKCyANNGhc53OMNXyUzQ4EP1kQO9g66lluM.YPvqqosXBVqLace-gYjLk39cp5xp-lcIres2yCw5D4c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340102&amp;sr=8-112</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGHGTKM/ref=sr_1_113?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-113</t>
         </is>
       </c>
     </row>
@@ -5538,11 +5538,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-212</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZTYCYF2/ref=sr_1_113?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-113</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G435WTDZ/ref=sr_1_114?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-114</t>
         </is>
       </c>
     </row>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Plus</t>
+          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1085</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Plus-Protection-Apple-iPhone-17/dp/B0FRN82PW9/ref=sr_1_114?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-114</t>
+          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNL99Q/ref=sr_1_115?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-115</t>
         </is>
       </c>
     </row>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_115?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-115</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FRB25PDD/ref=sr_1_116?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-116</t>
         </is>
       </c>
     </row>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>ymc77 Back Screen Guard for Apple iPhone 17 Pro Max, Membrane with 360 Coverage</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5691,12 +5691,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_116?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-116</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-Membrane/dp/B0GGC7TFYD/ref=sr_1_117?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-117</t>
         </is>
       </c>
     </row>
@@ -5718,11 +5718,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1216</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1779</v>
+        <v>159</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5731,17 +5731,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UGREEN-Adapter-Splitter-Extender-MacBook/dp/B0CR6JBJDH/ref=sr_1_117?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-117</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9M49WS/ref=sr_1_118?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-118</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3191</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRGMH96H/ref=sr_1_118?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-118</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VG8MK/ref=sr_1_119?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-119</t>
         </is>
       </c>
     </row>
@@ -5808,11 +5808,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-16</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5821,17 +5821,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDFB8C/ref=sr_1_119?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-119</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZV4CFDX/ref=sr_1_120?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-120</t>
         </is>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wireless Bluetooth for Apple iPhone 17 in-Ear Headphone with Mic 38Hrs Playtime Dual Device Pairing Wireless Neckband Type-C Charge Magnetic Buds &amp; IPX5 Water Resistant (Black, SE.AH)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>999</v>
+        <v>159</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Bluetooth-Apple-iPhone-17-Headphone/dp/B0G3VRP1S1/ref=sr_1_120?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-120</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9ZLTXX/ref=sr_1_121?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-121</t>
         </is>
       </c>
     </row>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Charvi Cute Panda Phone Case for Apple iPhone 17 Air, 3D Cartoon Design with Chubby Panda Topper, Translucent Grey | Protective Cover with Camera Lens</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>469.06</v>
+        <v>159</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5916,12 +5916,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Air-Translucent/dp/B0G2Y2MBDK/ref=sr_1_121?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-121</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XXNF7/ref=sr_1_122?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-122</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D3237</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H3KCF/ref=sr_1_122?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-122</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGH36WM/ref=sr_1_123?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-123</t>
         </is>
       </c>
     </row>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG61R3J/ref=sr_1_123?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-123</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG245VN/ref=sr_1_124?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-124</t>
         </is>
       </c>
     </row>
@@ -6051,12 +6051,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_124?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-124</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG7GM8K/ref=sr_1_125?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-125</t>
         </is>
       </c>
     </row>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1085</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNL99Q/ref=sr_1_125?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-125</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9H532N/ref=sr_1_126?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-126</t>
         </is>
       </c>
     </row>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1 Year Accident &amp; Liquid Damage Protection Insurance Plan for Apple iPhone 17 Price Rs.50001 to Rs.70000 (E Mail Delivery) iPhone 17</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>7399</v>
+        <v>149</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6136,17 +6136,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WeConnect-Care-Accident-Protection-Insurance/dp/B09H55RPLD/ref=sr_1_126?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-126</t>
+          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W64BSK/ref=sr_1_127?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-127</t>
         </is>
       </c>
     </row>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6181,17 +6181,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:49:51</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCWV3Y/ref=sr_1_127?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-127</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_128?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-128</t>
         </is>
       </c>
     </row>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ymc77 Back Screen Guard for Apple iPhone 17 Pro Max, Membrane with 360 Coverage</t>
+          <t>Back Cover Case for Apple iPhone 17 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 Transparent)</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6226,17 +6226,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-01-25 16:51:56</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-Membrane/dp/B0GGC7TFYD/ref=sr_1_128?dib=eyJ2IjoiMSJ9.x1kkTfYNCh0C_6vG_Hw4BeDP8ecCubIo-4CxR6QvxXuzGOJkAm7VoywQGIPp17eLDc0OxNoD-6qg60myAf39hHaLyixNSN51Ja21dz0Wn0DsBHmle2sMO_udL3KpKs4HfcNlRWz_x4E_4X-xGYAVwOcyawHK2gA3blO62IX1uDUZ5eA50SvR3ra9HWwoDz_7pPMYSpvTmJ8nILd7W0zzvLs05P1q7Yz6ryp_WFoqvuQ.IhTjKOB97m10Unpfo-jV1zMHjNwv7xUMbf8bqpciv80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340110&amp;sr=8-128</t>
+          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV96BLB/ref=sr_1_129?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-129</t>
         </is>
       </c>
     </row>
@@ -6258,11 +6258,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1085</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6276,12 +6276,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNL99Q/ref=sr_1_129?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-129</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KL563/ref=sr_1_130?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-130</t>
         </is>
       </c>
     </row>
@@ -6303,11 +6303,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ymc77 Back Screen Guard for Apple iPhone 17 Pro Max, Membrane with 360 Coverage</t>
+          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 - Clear</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6321,12 +6321,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-Membrane/dp/B0GGC7TFYD/ref=sr_1_130?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-130</t>
+          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCSZ76/ref=sr_1_131?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-131</t>
         </is>
       </c>
     </row>
@@ -6348,11 +6348,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6366,12 +6366,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12YJPK7/ref=sr_1_131?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-131</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4NRK/ref=sr_1_132?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-132</t>
         </is>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6406,17 +6406,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_132?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-132</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9ZLTXW/ref=sr_1_133?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-133</t>
         </is>
       </c>
     </row>
@@ -6438,11 +6438,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6456,12 +6456,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_133?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-133</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Polycarbonate/dp/B0FZBKNP5L/ref=sr_1_134?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-134</t>
         </is>
       </c>
     </row>
@@ -6483,11 +6483,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6496,17 +6496,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG7GM8K/ref=sr_1_134?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-134</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSL76135/ref=sr_1_135?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-135</t>
         </is>
       </c>
     </row>
@@ -6546,12 +6546,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG245VN/ref=sr_1_135?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-135</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR8XZSNP/ref=sr_1_136?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-136</t>
         </is>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 17 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 Transparent)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6586,17 +6586,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV96BLB/ref=sr_1_136?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-136</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_137?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-137</t>
         </is>
       </c>
     </row>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Pink)</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_137?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-137</t>
+          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXKW1TR/ref=sr_1_138?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-138</t>
         </is>
       </c>
     </row>
@@ -6663,11 +6663,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6676,17 +6676,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9ZLTXW/ref=sr_1_138?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-138</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_139?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-139</t>
         </is>
       </c>
     </row>
@@ -6708,11 +6708,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Back Cover for Apple iPhone 17 – Compatible TPU &amp; Hard Magnetic Case | Shockproof Hard Back Cover | Slim Fit Protective Case with Camera Guard – Yellow</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6726,12 +6726,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT8TQBNH/ref=sr_1_139?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-139</t>
+          <t>https://www.amazon.in/NUBRIX-Back-Cover-Apple-iPhone/dp/B0G2RXTVJ2/ref=sr_1_140?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-140</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZTWVL6R/ref=sr_1_140?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-140</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZTWVL6R/ref=sr_1_141?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-141</t>
         </is>
       </c>
     </row>
@@ -6798,11 +6798,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 - Clear</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3112</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6816,12 +6816,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCSZ76/ref=sr_1_141?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-141</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9M4RQW/ref=sr_1_142?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-142</t>
         </is>
       </c>
     </row>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6861,12 +6861,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84N/ref=sr_1_142?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-142</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TJ3K9/ref=sr_1_143?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-143</t>
         </is>
       </c>
     </row>
@@ -6888,11 +6888,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Back Cover Case Designer Flexible Soft Back Case Cover for Apple iPhone 17 Air -D0028</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6906,12 +6906,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:01</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_143?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-143</t>
+          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJM798S/ref=sr_1_144?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-144</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Back Cover Case Designer Flexible Soft Back Case Cover for Apple iPhone 17 Air -D0028</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6951,12 +6951,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:05</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TJ3K9/ref=sr_1_144?dib=eyJ2IjoiMSJ9.tJjL_bSnICww__eL27A-4Jm7I12E1htPaG3UdinwRnjn_OfZh4M9RQPg34BKmVfjJibb-FADSf2ny5jpUaJxDBgEuKbtIhVl3SUh6hI1idNFxNA7GfzSvevMOmsKlza754MobS2FzyMQI8oRFZ0NYEddaTlprRV3jA-16toYoV2upo29RXCGS1ABsQxR3Uh-WBMH_eNA75h1SRMRLnZJlpJ1S8SjwA6dndJ1eCxsD_M.kIj53R7Z4FgJotP1QR1gA-JaIXQI81HGBS9or4mYIHg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340117&amp;sr=8-144</t>
+          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJM798S/ref=sr_1_145?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-145</t>
         </is>
       </c>
     </row>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Back Cover for Apple iPhone 17 – Compatible TPU &amp; Hard Magnetic Case | Shockproof Hard Back Cover | Slim Fit Protective Case with Camera Guard – Yellow</t>
+          <t>PU Leather Protective Phone Case for Apple iPhone 17 | Camera Protection, Brown</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6996,12 +6996,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/NUBRIX-Back-Cover-Apple-iPhone/dp/B0G2RXTVJ2/ref=sr_1_145?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-145</t>
+          <t>https://www.amazon.in/Oncraves-Leather-Protective-iPhone-Protection/dp/B0FZW2PBZD/ref=sr_1_146?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-146</t>
         </is>
       </c>
     </row>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>iPhone 17 Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 – White</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7036,17 +7036,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSVZJB4/ref=sr_1_146?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-146</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9SQND2/ref=sr_1_147?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-147</t>
         </is>
       </c>
     </row>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 -D1110</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSL76135/ref=sr_1_147?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-147</t>
+          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-17/dp/B0FR9R747X/ref=sr_1_148?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-148</t>
         </is>
       </c>
     </row>
@@ -7113,11 +7113,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17air, Back Cover for Apple iPhone 17 Air -D0157</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7131,12 +7131,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_148?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-148</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGK6PYD/ref=sr_1_149?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-149</t>
         </is>
       </c>
     </row>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1006</t>
+          <t>Silicone Designer Printed Back Case Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1212</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7171,17 +7171,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V71H6/ref=sr_1_149?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-149</t>
+          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJP9DNH/ref=sr_1_150?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-150</t>
         </is>
       </c>
     </row>
@@ -7203,11 +7203,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1008</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7216,17 +7216,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Mobile-Flexible-iPhone/dp/B0FC2FPJC7/ref=sr_1_150?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-150</t>
+          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFLC9JX/ref=sr_1_151?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-151</t>
         </is>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-146</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7266,12 +7266,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZV895KT/ref=sr_1_151?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-151</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9RJ7WD/ref=sr_1_152?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-152</t>
         </is>
       </c>
     </row>
@@ -7293,11 +7293,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Air - Clear</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7311,12 +7311,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCVR6M/ref=sr_1_152?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-152</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_153?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-153</t>
         </is>
       </c>
     </row>
@@ -7338,11 +7338,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hupshy</t>
+          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-146</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Hupshy-Back-Cover-Apple-iPhone/dp/B0FZJJM7MS/ref=sr_1_153?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-153</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZV895KT/ref=sr_1_154?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-154</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3164</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR8XYP3Y/ref=sr_1_154?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-154</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9CC78S/ref=sr_1_155?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-155</t>
         </is>
       </c>
     </row>
@@ -7428,11 +7428,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>PU Leather Protective Phone Case for Apple iPhone 17 | Camera Protection, Black</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7446,12 +7446,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84Q/ref=sr_1_155?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-155</t>
+          <t>https://www.amazon.in/Oncraves-Leather-Protective-iPhone-Protection/dp/B0FZW6BTPZ/ref=sr_1_156?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-156</t>
         </is>
       </c>
     </row>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Silicone Designer Printed Back Case Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1212</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJP9DNH/ref=sr_1_156?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-156</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12YJPK7/ref=sr_1_157?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-157</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17air, Stylish Printed Back Cover for Apple iPhone 17 Air -D1169</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -7536,12 +7536,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGHGMR5/ref=sr_1_157?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-157</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG5ZK6D/ref=sr_1_158?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-158</t>
         </is>
       </c>
     </row>
@@ -7563,11 +7563,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Premium-Printed-iPhone/dp/B0FC2RTX9T/ref=sr_1_158?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-158</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9V492D/ref=sr_1_159?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-159</t>
         </is>
       </c>
     </row>
@@ -7608,11 +7608,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Back Cover for Apple iPhone 17 Air Designer, Printed,Transparent,Flexible, Silicon -D3165</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:14</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-Air-Transparent/dp/B0FWJTXSCW/ref=sr_1_159?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-159</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGKW628/ref=sr_1_160?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-160</t>
         </is>
       </c>
     </row>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ESR</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2198</v>
+        <v>204</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7666,17 +7666,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:12</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ESR-MagSafe-Adjustable-Magnetic-Leather/dp/B0CX4WCRVM/ref=sr_1_160?dib=eyJ2IjoiMSJ9.ydWGHUilroMgVk9r4y95zFHVss5frMKs9KpPjWzVIUpDfdoLp-pJAiqoAHe1diDoAuG_d_yeYfdz36H-sEB6XcDXcS8L-loKwG05EjkkkrlLrC0CzBv1EGGH4JRYaab7gClNhiEM1OxRMHvJdfF-zEOsQxC4VatiTMIbqZVSBVoooVcP8B9pbkDLNEKtE7Kq0TkCH0zf4PDsMxinc5wNbpy34LX2pjI8OA0t_bdWD1U.2f_hEg7XO_dwihft_BAJZo9DyKF5uk0t3Vf-Pc6qGGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340125&amp;sr=8-160</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_161?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-161</t>
         </is>
       </c>
     </row>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD2RP9/ref=sr_1_161?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-161</t>
+          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Air/dp/B0FTF9KLHG/ref=sr_1_162?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-162</t>
         </is>
       </c>
     </row>
@@ -7743,11 +7743,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ESR</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2198</v>
+        <v>159</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7756,17 +7756,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ESR-MagSafe-Adjustable-Magnetic-Leather/dp/B0CX4WCRVM/ref=sr_1_162?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-162</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGHGMSW/ref=sr_1_163?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-163</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPC9JBP1/ref=sr_1_163?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-163</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT8TQBNH/ref=sr_1_164?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-164</t>
         </is>
       </c>
     </row>
@@ -7851,12 +7851,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-Air-Transparent/dp/B0FWJTXSCW/ref=sr_1_164?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-164</t>
+          <t>https://www.amazon.in/LoudCase-Apple-iPhone-Air-Transparent/dp/B0FWJTXSCW/ref=sr_1_165?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-165</t>
         </is>
       </c>
     </row>
@@ -7878,11 +7878,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Pink]</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7891,17 +7891,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNHJ8G/ref=sr_1_165?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-165</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9V546Q/ref=sr_1_166?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-166</t>
         </is>
       </c>
     </row>
@@ -7923,11 +7923,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7936,17 +7936,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_166?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-166</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9SD2QC/ref=sr_1_167?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-167</t>
         </is>
       </c>
     </row>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7981,17 +7981,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4SCN/ref=sr_1_167?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-167</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCWV3Y/ref=sr_1_168?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-168</t>
         </is>
       </c>
     </row>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>30W Car Charger for Apple iPhone 17 Pro Single USB Port High Speed Turbo Charge QC 3.0 Smart with 1.2m 3-in-1 Multi Cable Micro USB Android iOS Type-C USB Cable (White, SZ.L)</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8031,12 +8031,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WP2G7R/ref=sr_1_168?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-168</t>
+          <t>https://www.amazon.in/Charger-Apple-iPhone-17-Pro/dp/B0GFDBPJYT/ref=sr_1_169?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-169</t>
         </is>
       </c>
     </row>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>30W Car Charger for Apple iPhone 17 Pro Single USB Port High Speed Turbo Charge QC 3.0 Smart with 1.2m 3-in-1 Multi Cable Micro USB Android iOS Type-C USB Cable (White, SZ.L)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8076,12 +8076,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Charger-Apple-iPhone-17-Pro/dp/B0GFDBPJYT/ref=sr_1_169?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-169</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9H3J8C/ref=sr_1_170?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-170</t>
         </is>
       </c>
     </row>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8121,12 +8121,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCGFWNN/ref=sr_1_170?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-170</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRG7FX2M/ref=sr_1_171?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-171</t>
         </is>
       </c>
     </row>
@@ -8148,11 +8148,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -8161,17 +8161,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4C2L/ref=sr_1_171?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-171</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9T7QHK/ref=sr_1_172?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-172</t>
         </is>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17air, Back Cover for Apple iPhone 17 Air -D1055</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9V4PPR/ref=sr_1_172?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-172</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGJXJJW/ref=sr_1_173?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-173</t>
         </is>
       </c>
     </row>
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT337S2R/ref=sr_1_173?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-173</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_174?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-174</t>
         </is>
       </c>
     </row>
@@ -8283,11 +8283,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicon_Clear/dp/B0FC2FG2PQ/ref=sr_1_174?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-174</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9H2JJ3/ref=sr_1_175?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-175</t>
         </is>
       </c>
     </row>
@@ -8328,11 +8328,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>285</v>
+        <v>399</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8341,17 +8341,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:22</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Pro/dp/B0FTFG64R9/ref=sr_1_175?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-175</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_176?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-176</t>
         </is>
       </c>
     </row>
@@ -8373,11 +8373,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Cellularline Ultra Strong MAG Case für Apple iPhone 17 Pro Clear</t>
+          <t>Back Case for iPhone 17, Print Silicone Stylish Back Cover Case for iPhone 17 -D0044</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>12671</v>
+        <v>199</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -8391,12 +8391,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:21</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Cellularline-Ultra-Strong-Apple-iPhone/dp/B0FQHLZZPM/ref=sr_1_176?dib=eyJ2IjoiMSJ9.UYSpTDh_rCJkWjm-sEagILTSi-Mp1Oxmi-uaS3X_DjHzHWb2X14odTVfwcfVqFkc66gk2Z_4hKAcNXyJTEOf6Yl5vmdhYz42uS0gkpLm6KgVh5F5AbO8aY7IzoNiZ66o9Fy7p6NTS6ABDq-kqnvca5BFiK_O7oNxbvKQfo-XayPfzexEXfnglmPzSui41j3mSQZbgExbaIo046UQ1sn3NomZxrPSfxYT6ae6kHR6MRo.1Z1QXoCJRup8d1S0sRjS5Jx2UCJ8xY3k5TCJi2f-2Q8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340133&amp;sr=8-176</t>
+          <t>https://www.amazon.in/LoudCase-iPhone-17-Silicone-Stylish/dp/B0FVFQHJDZ/ref=sr_1_177?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-177</t>
         </is>
       </c>
     </row>
@@ -8418,11 +8418,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Total Damage and Theft Protection Plan for iPhone 17(512 GB), Get iPhone Insurance Plan with Extended Warranty (Email Delivery) (1 Year)</t>
+          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>10299</v>
+        <v>199</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8431,17 +8431,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ORA-POLICY-Protection-Insurance-Extended/dp/B0FR1Z6G3S/ref=sr_1_177?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-177</t>
+          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCVR6M/ref=sr_1_178?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-178</t>
         </is>
       </c>
     </row>
@@ -8463,11 +8463,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Back Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8476,17 +8476,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Translucent-Shockproof-Adsorption/dp/B0FNWS9MTH/ref=sr_1_178?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-178</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGMVMS8/ref=sr_1_179?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-179</t>
         </is>
       </c>
     </row>
@@ -8508,11 +8508,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8526,12 +8526,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DHVFX/ref=sr_1_179?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-179</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VD6RS/ref=sr_1_180?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-180</t>
         </is>
       </c>
     </row>
@@ -8571,12 +8571,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG22BZT/ref=sr_1_180?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-180</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9RW7LH/ref=sr_1_181?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-181</t>
         </is>
       </c>
     </row>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3274</t>
+          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8611,17 +8611,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V9W8J/ref=sr_1_181?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-181</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_182?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-182</t>
         </is>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3148</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -8661,12 +8661,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGGZ94H/ref=sr_1_182?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-182</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9ZRCW6/ref=sr_1_183?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-183</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D1220</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -8706,12 +8706,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG243DQ/ref=sr_1_183?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-183</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGG7G2M/ref=sr_1_184?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-184</t>
         </is>
       </c>
     </row>
@@ -8733,11 +8733,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Clear Case Compatible with Apple iPhone 17 Air, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for Apple iPhone 17 Air - Clear</t>
+          <t>Back Cover for Apple iPhone 17 Air Designer, Printed,Transparent,Flexible, Silicon -D1239</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -8751,12 +8751,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FBX13HZY/ref=sr_1_184?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-184</t>
+          <t>https://www.amazon.in/LoudCase-Apple-iPhone-Air-Transparent/dp/B0FWJRPM28/ref=sr_1_185?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-185</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D2222</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D2149</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9SZSXL/ref=sr_1_185?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-185</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGZ5TX/ref=sr_1_186?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-186</t>
         </is>
       </c>
     </row>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8841,12 +8841,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGDB2JR/ref=sr_1_186?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-186</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_187?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-187</t>
         </is>
       </c>
     </row>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D0052</t>
+          <t>Transparent Shockproof Back Cover for Apple iPhone 17 Pro Max | Soft TPU Slim Fit Mobile Case | Camera Protection | Premium Clear Case</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8886,12 +8886,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRGJXD92/ref=sr_1_187?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-187</t>
+          <t>https://www.amazon.in/VRYHK-Transparent-Shockproof-Protection-Premium/dp/B0FWGCY4CT/ref=sr_1_188?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-188</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D1078</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -8931,12 +8931,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGMCVVV/ref=sr_1_188?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-188</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG22BZT/ref=sr_1_189?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-189</t>
         </is>
       </c>
     </row>
@@ -8958,11 +8958,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>MOVE SPEED</t>
+          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D2257</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17863.24</v>
+        <v>199</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8971,17 +8971,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOVE-SPEED-Drives-Push-Pull-Design/dp/B0F5Q4FSLW/ref=sr_1_189?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-189</t>
+          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNZ772/ref=sr_1_190?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-190</t>
         </is>
       </c>
     </row>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -9021,12 +9021,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DW2V1/ref=sr_1_190?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-190</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT3666XH/ref=sr_1_191?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-191</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D3174</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -9066,12 +9066,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:30</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H4R4V/ref=sr_1_191?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-191</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGKCM4S/ref=sr_1_192?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-192</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D0025</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -9111,12 +9111,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:31</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H38H4/ref=sr_1_192?dib=eyJ2IjoiMSJ9.VkzGZ5dPjVRGinhxe2EjD9twX1-RgmYcOwXVU1gUflLexFG6jNO94oTLFuIthPBSln54KmG7Lb42lf_MrD4N7KWhd_cBfY5mAyDM_0C66Fau0laTt8dt4VE0wEZ0HOTlkydOVN_b7ONu1g_Go3jmFdEjrcbzcpPvIC6Byrp1qjOtuEPapyW4FN5GwRcqnWmCkS-DAdpmVzWCh-JD_AHMueCxT13rn79eTcJRFnFqlP8.7oynOm_Ugt-JznPtMlCZyPsQYGW-Z7Gx0PCoVmzEZPA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340142&amp;sr=8-192</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGDB2JR/ref=sr_1_193?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-193</t>
         </is>
       </c>
     </row>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Pro/dp/B0FRGK9H9H/ref=sr_1_193?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-193</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGDY1RK/ref=sr_1_194?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-194</t>
         </is>
       </c>
     </row>
@@ -9183,11 +9183,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Pink]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -9201,12 +9201,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGK6PLD/ref=sr_1_194?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-194</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNHJ8G/ref=sr_1_195?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-195</t>
         </is>
       </c>
     </row>
@@ -9228,11 +9228,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9246,12 +9246,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Pro-Transparent/dp/B0FRGL5MS4/ref=sr_1_195?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-195</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_196?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-196</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D2006</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3097</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -9291,12 +9291,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGK74WY/ref=sr_1_196?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-196</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9H1B8D/ref=sr_1_197?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-197</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D2230</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRG7FGC9/ref=sr_1_197?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-197</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG7FGDJ/ref=sr_1_198?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-198</t>
         </is>
       </c>
     </row>
@@ -9363,11 +9363,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Mirror Finish Phone Case with Diamond Camera Frame for Apple iPhone 17, Grey, Reflective Design.</t>
+          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D2006</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -9381,12 +9381,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Oncraves-Mirror-Diamond-Reflective-Design/dp/B0GCR6FHDR/ref=sr_1_198?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-198</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGK74WY/ref=sr_1_199?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-199</t>
         </is>
       </c>
     </row>
@@ -9426,12 +9426,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGZZJB/ref=sr_1_199?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-199</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGZZJB/ref=sr_1_200?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-200</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17pro, Back Cover for Apple iPhone 17 Pro -D3269</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGL9P43/ref=sr_1_200?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-200</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Pro-Transparent/dp/B0FRGL5MS4/ref=sr_1_201?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-201</t>
         </is>
       </c>
     </row>
@@ -9498,11 +9498,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -9516,12 +9516,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G42ZJ34K/ref=sr_1_201?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-201</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H4R4V/ref=sr_1_202?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-202</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D0014</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -9561,12 +9561,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRG7GN21/ref=sr_1_202?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-202</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGHXJZK/ref=sr_1_203?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-203</t>
         </is>
       </c>
     </row>
@@ -9588,11 +9588,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9606,12 +9606,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GFZL1/ref=sr_1_203?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-203</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Pro/dp/B0FRGK9H9H/ref=sr_1_204?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-204</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D1230</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -9651,12 +9651,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CG8N6/ref=sr_1_204?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-204</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG5ZRKT/ref=sr_1_205?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-205</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-34</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D0025</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -9696,12 +9696,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZVBKXS7/ref=sr_1_205?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-205</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H38H4/ref=sr_1_206?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-206</t>
         </is>
       </c>
     </row>
@@ -9723,11 +9723,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D0125</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -9741,12 +9741,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGM8Z3H/ref=sr_1_206?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-206</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Premium-Printed-iPhone/dp/B0FC2PYC92/ref=sr_1_207?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-207</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D2250</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D0014</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -9786,12 +9786,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:38</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGKZTG9/ref=sr_1_207?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-207</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRG7GN21/ref=sr_1_208?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-208</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D0159</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D2230</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:38</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGQ2ZX/ref=sr_1_208?dib=eyJ2IjoiMSJ9._WQenJb6d0ceElLLhFbAZUcSbAw82OIfQ_9RKDVplAJcoQRKrC0ISIhrCRRYycet9s3jaR_iKCzplzB0gWFAUSN_QzMfGvuLa4mmjt9EZ-kB0Z_8bdM-1BUOO8eBdfcbf5PydYg5tN86AcM2WtOZjnU4QnM698S4kg8Q3bFLPWNchVsiYn3nKV8tKivwz6hKkrsHwluCaPFZzklEcUL5GoXoSogWNMgIpphp9-JhG2A.vhzbpDOrF6YTx1xVKP9OnoKFdxjLgCtUckmCoR6rRQ4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340152&amp;sr=8-208</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRG7FGC9/ref=sr_1_209?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-209</t>
         </is>
       </c>
     </row>
@@ -9858,11 +9858,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D3272</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9876,12 +9876,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2S8ZRV/ref=sr_1_209?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-209</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRGJFV7F/ref=sr_1_210?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-210</t>
         </is>
       </c>
     </row>
@@ -9903,11 +9903,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>462</v>
+        <v>299</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9921,12 +9921,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2KZ4J9/ref=sr_1_210?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-210</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0FSCYPVHK/ref=sr_1_211?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-211</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3212</t>
+          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D3222</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -9966,12 +9966,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CC75R/ref=sr_1_211?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-211</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGDWQGH/ref=sr_1_212?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-212</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D3230</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -10011,12 +10011,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRGJSVPF/ref=sr_1_212?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-212</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRGMS6WZ/ref=sr_1_213?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-213</t>
         </is>
       </c>
     </row>
@@ -10038,11 +10038,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D2250</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10051,17 +10051,17 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Pro/dp/B0FTFG64R9/ref=sr_1_213?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-213</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGKZTG9/ref=sr_1_214?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-214</t>
         </is>
       </c>
     </row>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D0159</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10101,12 +10101,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_214?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-214</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGQ2ZX/ref=sr_1_215?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-215</t>
         </is>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>458</v>
+        <v>159</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -10146,12 +10146,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2PQPDR/ref=sr_1_215?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-215</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG7F8P9/ref=sr_1_216?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-216</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2258</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D1230</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG2417Z/ref=sr_1_216?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-216</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CG8N6/ref=sr_1_217?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-217</t>
         </is>
       </c>
     </row>
@@ -10218,11 +10218,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-113</t>
+          <t>Mirror Finish Phone Case with Diamond Camera Frame for Apple iPhone 17, Grey, Reflective Design.</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -10236,12 +10236,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZTVJQ8W/ref=sr_1_217?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-217</t>
+          <t>https://www.amazon.in/Oncraves-Mirror-Diamond-Reflective-Design/dp/B0GCR6FHDR/ref=sr_1_218?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-218</t>
         </is>
       </c>
     </row>
@@ -10263,11 +10263,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 PRO Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 PRO-DP-47</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2154</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -10281,12 +10281,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-PRO/dp/B0FYXPTWZD/ref=sr_1_218?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-218</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TCVMY/ref=sr_1_219?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-219</t>
         </is>
       </c>
     </row>
@@ -10308,11 +10308,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Leather Mobile Back Case and Cover for Apple iPhone 17 Pro with MagSafe Compatible, Black Premium Leather Back Cover with Camera Protection</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2006</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>899</v>
+        <v>159</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10326,12 +10326,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Leather-MagSafe-Compatible-Premium-Protection/dp/B0GCDV1Q7G/ref=sr_1_219?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-219</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9H1K32/ref=sr_1_220?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-220</t>
         </is>
       </c>
     </row>
@@ -10353,11 +10353,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1087</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10371,12 +10371,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Pattern-Premium-Printed/dp/B0FC2PNPKV/ref=sr_1_220?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-220</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9T9LQY/ref=sr_1_221?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-221</t>
         </is>
       </c>
     </row>
@@ -10398,11 +10398,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Charvi Back Case Cover Compatible for Apple iPhone 17 Air | Panda Silicone Case | Camera Protection | Body Protection | Shock Proof | Color Black</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>449</v>
+        <v>159</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -10416,12 +10416,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Compatible-Apple-iPhone-17-Air/dp/B0G7HP3YGN/ref=sr_1_221?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-221</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGN37M9/ref=sr_1_222?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-222</t>
         </is>
       </c>
     </row>
@@ -10443,11 +10443,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2244</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -10461,12 +10461,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2MVQ4Y/ref=sr_1_222?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-222</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V6GGP/ref=sr_1_223?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-223</t>
         </is>
       </c>
     </row>
@@ -10488,11 +10488,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2267</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -10506,12 +10506,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:46</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2S2XSG/ref=sr_1_223?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-223</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9V4ZYD/ref=sr_1_224?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-224</t>
         </is>
       </c>
     </row>
@@ -10533,11 +10533,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2244</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -10551,12 +10551,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:44</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDMG87/ref=sr_1_224?dib=eyJ2IjoiMSJ9.8loBr-J465qArzhU_a_8t4cV1HXRfrefzP34xEZLgJ3DBvgZo3Iq7NCSzEJUPJIhvq5UKVQ00w7PAm1WLYnvX-fIAk8IoF40rjy_SgdASFH4Odlrtu6l6Nd2EdpQOrYcnD6bnbLeMwLzt7lBroxK9YEpzQw2z942GJtGLF3BC1U_6yna9cWa-Q3VbM8LLdzaDiYZ6DW36O9hgDiw6sIA4fwMqPOW1T8Mq4Mt_mJ8UtM.JKNuv7fzWsHp7DuvuJK4m-q4AncKlEubN0GTxDcm5hg&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340159&amp;sr=8-224</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V6GGP/ref=sr_1_225?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-225</t>
         </is>
       </c>
     </row>
@@ -10578,11 +10578,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2223</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -10596,12 +10596,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDMG87/ref=sr_1_225?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-225</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H2KCK/ref=sr_1_226?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-226</t>
         </is>
       </c>
     </row>
@@ -10623,11 +10623,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D1165</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>460</v>
+        <v>159</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Texture-Premium-Printed/dp/B0FC2N82XL/ref=sr_1_226?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-226</t>
+          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRGGZCP1/ref=sr_1_227?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-227</t>
         </is>
       </c>
     </row>
@@ -10668,11 +10668,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1225</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -10686,12 +10686,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Premium-Printed-iPhone/dp/B0FC2P4SZ2/ref=sr_1_227?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-227</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9RNL47/ref=sr_1_228?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-228</t>
         </is>
       </c>
     </row>
@@ -10713,11 +10713,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1219</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCCSKNZ/ref=sr_1_228?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-228</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9TJ3FS/ref=sr_1_229?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-229</t>
         </is>
       </c>
     </row>
@@ -10758,11 +10758,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3239</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -10776,12 +10776,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSCWRSG8/ref=sr_1_229?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-229</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9RJG4N/ref=sr_1_230?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-230</t>
         </is>
       </c>
     </row>
@@ -10803,11 +10803,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Back Cover for iPhone 17 Air | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Air (Black)</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17air, Back Cover for Apple iPhone 17 Air -D3257</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -10821,12 +10821,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Translucent-Shockproof-Adsorption/dp/B0FNWW245C/ref=sr_1_230?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-230</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGKFPW9/ref=sr_1_231?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-231</t>
         </is>
       </c>
     </row>
@@ -10848,11 +10848,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -10866,12 +10866,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Kickstand-Mobile-Rotating/dp/B0FPCBWCKQ/ref=sr_1_231?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-231</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRGJSVPF/ref=sr_1_232?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-232</t>
         </is>
       </c>
     </row>
@@ -10893,11 +10893,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -10911,12 +10911,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2MSNZF/ref=sr_1_232?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-232</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9H2ZDG/ref=sr_1_233?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-233</t>
         </is>
       </c>
     </row>
@@ -10938,11 +10938,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1156</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -10956,12 +10956,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2F7M1B/ref=sr_1_233?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-233</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H1G77/ref=sr_1_234?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-234</t>
         </is>
       </c>
     </row>
@@ -10983,11 +10983,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Designer Tempered Glass Back Case Cover Compatible with Apple iPhone 17 Air, Back Cover for Apple iPhone 17 Air - Tech Aesthetics Glass Case</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1231</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11001,12 +11001,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Hocopoco-Printed-Tempered-Compatible-iPhone/dp/B0FR4FKL3W/ref=sr_1_234?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-234</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9V98FY/ref=sr_1_235?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-235</t>
         </is>
       </c>
     </row>
@@ -11028,11 +11028,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2198</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11046,12 +11046,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G5Z57298/ref=sr_1_235?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-235</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9CCMKW/ref=sr_1_236?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-236</t>
         </is>
       </c>
     </row>
@@ -11073,11 +11073,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2258</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11091,12 +11091,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Zik-Zak-Pattern-Premium/dp/B0FC2NGVFR/ref=sr_1_236?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-236</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG2417Z/ref=sr_1_237?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-237</t>
         </is>
       </c>
     </row>
@@ -11118,11 +11118,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-113</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11136,12 +11136,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDLYF5/ref=sr_1_237?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-237</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZTVJQ8W/ref=sr_1_238?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-238</t>
         </is>
       </c>
     </row>
@@ -11163,11 +11163,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Designer Tempered Glass Back Case Cover Compatible with Apple iPhone 17 Pro Max, Back Cover for Apple iPhone 17 Pro Max - Tech Aesthetics Glass Case</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3276</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11181,12 +11181,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Hocopoco-Printed-Tempered-Compatible-iPhone/dp/B0FR4PNTF8/ref=sr_1_238?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-238</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZTWSB/ref=sr_1_239?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-239</t>
         </is>
       </c>
     </row>
@@ -11208,11 +11208,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3212</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11226,12 +11226,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:50:52</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFZ8S5/ref=sr_1_239?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-239</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CC75R/ref=sr_1_240?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-240</t>
         </is>
       </c>
     </row>
@@ -11253,11 +11253,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3260</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11271,12 +11271,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:51</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicone_Black/dp/B0FC2DZ3V2/ref=sr_1_240?dib=eyJ2IjoiMSJ9.DavipqGTn5UPxFBFdSXTrTOhogNHHP04fd58p-Cq4mQkJLWEwvfJHg3-ybdFDVaORyBzUGEfj0Atks5eqkoWw3MDe13ol-311EIunuPeTvzBOJAPm6f1QuDYcNWagQniiXwnDORpAyDddDHU6clQtcvQ4YSGM9tGuTT8MGgQZiHCwIvjoVSsp-3EWpj5EBWtmoPkF9O-TieG5pJ79tM7Y38k1xePvw14XrzfnhMLxSc.Ivrcgsf8NBGJVFJmjyo1SxTHjrlNb-HbnfD2HPPktto&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340165&amp;sr=8-240</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9M439Q/ref=sr_1_241?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-241</t>
         </is>
       </c>
     </row>
@@ -11298,11 +11298,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11316,12 +11316,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FFZ45/ref=sr_1_241?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-241</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H3151/ref=sr_1_242?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-242</t>
         </is>
       </c>
     </row>
@@ -11343,11 +11343,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2138</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>462</v>
+        <v>159</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11361,12 +11361,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Multicolor/dp/B0FC2PJCJG/ref=sr_1_242?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-242</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGNSNSW/ref=sr_1_243?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-243</t>
         </is>
       </c>
     </row>
@@ -11388,11 +11388,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D2262</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -11406,12 +11406,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCV1FD/ref=sr_1_243?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-243</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGHK88C/ref=sr_1_244?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-244</t>
         </is>
       </c>
     </row>
@@ -11433,11 +11433,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3236</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -11451,12 +11451,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GJ9Y2/ref=sr_1_244?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-244</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9T5Q43/ref=sr_1_245?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-245</t>
         </is>
       </c>
     </row>
@@ -11478,11 +11478,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3168</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -11496,12 +11496,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FHMBS/ref=sr_1_245?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-245</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9H2XH6/ref=sr_1_246?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-246</t>
         </is>
       </c>
     </row>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11541,12 +11541,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2HPNS2/ref=sr_1_246?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-246</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_247?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-247</t>
         </is>
       </c>
     </row>
@@ -11568,11 +11568,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -11586,12 +11586,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Purple/dp/B0FC2F1HY3/ref=sr_1_247?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-247</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGM7W6Y/ref=sr_1_248?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-248</t>
         </is>
       </c>
     </row>
@@ -11613,11 +11613,11 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -11631,12 +11631,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Blue/dp/B0FC2FPNSJ/ref=sr_1_248?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-248</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGHD66B/ref=sr_1_249?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-249</t>
         </is>
       </c>
     </row>
@@ -11658,11 +11658,11 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -11676,12 +11676,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-iPhone-Thermoplastic-Polyurethane_Black/dp/B0FC2DT8QH/ref=sr_1_249?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-249</t>
+          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-Pro/dp/B0G4WPRHQD/ref=sr_1_250?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-250</t>
         </is>
       </c>
     </row>
@@ -11703,11 +11703,11 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2265</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -11721,12 +11721,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-Pro/dp/B0G4WPRHQD/ref=sr_1_250?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-250</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9ZSMXK/ref=sr_1_251?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-251</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2154</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -11766,12 +11766,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4BDF/ref=sr_1_251?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-251</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TCVMY/ref=sr_1_252?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-252</t>
         </is>
       </c>
     </row>
@@ -11793,11 +11793,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D2257</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3210</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -11811,12 +11811,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNZ772/ref=sr_1_252?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-252</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9S4YB5/ref=sr_1_253?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-253</t>
         </is>
       </c>
     </row>
@@ -11838,11 +11838,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>MOVE SPEED</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1156</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34174.36</v>
+        <v>159</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -11851,17 +11851,17 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOVE-SPEED-External-Portable-MacBook/dp/B0CLP22P7L/ref=sr_1_253?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-253</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H1G77/ref=sr_1_254?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-254</t>
         </is>
       </c>
     </row>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1087</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -11901,12 +11901,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGKW628/ref=sr_1_254?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-254</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9T9LQY/ref=sr_1_255?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-255</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D3250</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -11946,12 +11946,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:01</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRG7G9Y2/ref=sr_1_255?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-255</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGMJ61S/ref=sr_1_256?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-256</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1136</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -11991,12 +11991,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-01-25 16:52:59</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG7FGDJ/ref=sr_1_256?dib=eyJ2IjoiMSJ9.IpxPg-m9d-YL7Nk3JRPLDfdhTwe30gB8xb4XKiJvBz8m5q-K3GvSPbeu_cqEZLq2MSgWCps_64gWx6zZw2aEHQhuUz6cl9wpjXMuGKgqaVfXqOZm1mHFs7EedHVSr7z0hYBtwUVXbF8zTTZMufje8oVvxwAm2dsHc3TdfXw3sE_y-VnLy6JGHFLMtQhnriKb0QKhhIlIu1UaWt5Tbp-cK8UJwKRXpoE6RHYzQrG6nJ4.55N1b4MR7Ub6EVCtGeUSQDanC9jCb_3NIcUZj1Ty6m0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340172&amp;sr=8-256</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZTWSC/ref=sr_1_257?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-257</t>
         </is>
       </c>
     </row>
@@ -12018,11 +12018,11 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D0014</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -12036,12 +12036,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCFWLBR/ref=sr_1_257?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-257</t>
+          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9R5DWY/ref=sr_1_258?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-258</t>
         </is>
       </c>
     </row>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3097</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -12081,12 +12081,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9H1B8D/ref=sr_1_258?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-258</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGH34SP/ref=sr_1_259?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-259</t>
         </is>
       </c>
     </row>
@@ -12108,11 +12108,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -12126,12 +12126,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VD6RS/ref=sr_1_259?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-259</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GFZL1/ref=sr_1_260?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-260</t>
         </is>
       </c>
     </row>
@@ -12153,11 +12153,11 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2152</t>
+          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3010</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -12171,12 +12171,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9M3Y6S/ref=sr_1_260?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-260</t>
+          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRGLRG3R/ref=sr_1_261?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-261</t>
         </is>
       </c>
     </row>
@@ -12198,11 +12198,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2246</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Pattern-Premium-Printed/dp/B0FC2NSZLZ/ref=sr_1_261?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-261</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGM8KC8/ref=sr_1_262?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-262</t>
         </is>
       </c>
     </row>
@@ -12243,11 +12243,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D0237</t>
+          <t>Mobile Skins Compatible with Apple iPhone 17 PRO Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 PRO-DP-47</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -12261,12 +12261,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGM8Z3K/ref=sr_1_262?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-262</t>
+          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-PRO/dp/B0FYXPTWZD/ref=sr_1_263?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-263</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D3222</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -12306,12 +12306,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGDWQGH/ref=sr_1_263?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-263</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRG7FR7Z/ref=sr_1_264?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-264</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2097</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -12351,12 +12351,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VG8MK/ref=sr_1_264?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-264</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TP6JP/ref=sr_1_265?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-265</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3236</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9T5Q43/ref=sr_1_265?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-265</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR8XZRLM/ref=sr_1_266?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-266</t>
         </is>
       </c>
     </row>
@@ -12423,7 +12423,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3168</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D1023</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -12441,12 +12441,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9H2XH6/ref=sr_1_266?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-266</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRGLQXHG/ref=sr_1_267?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-267</t>
         </is>
       </c>
     </row>
@@ -12468,11 +12468,11 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1023</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -12486,12 +12486,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Embroidery-Premium-Printed/dp/B0FC2N5SD5/ref=sr_1_267?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-267</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG5ZZDT/ref=sr_1_268?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-268</t>
         </is>
       </c>
     </row>
@@ -12513,11 +12513,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -12531,12 +12531,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Grayish-Printed-Silicon/dp/B0FC2LTGLY/ref=sr_1_268?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-268</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGNJWCC/ref=sr_1_269?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-269</t>
         </is>
       </c>
     </row>
@@ -12558,11 +12558,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Pink)</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3244</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -12571,17 +12571,17 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXKW1TR/ref=sr_1_269?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-269</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FRB17L69/ref=sr_1_270?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-270</t>
         </is>
       </c>
     </row>
@@ -12621,12 +12621,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGL7DSG/ref=sr_1_270?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-270</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M5KP7/ref=sr_1_271?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-271</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3283</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3256</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -12666,12 +12666,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:07</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRG5ZCP8/ref=sr_1_271?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-271</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9JK664/ref=sr_1_272?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-272</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1023</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -12711,12 +12711,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:08</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGMJ61S/ref=sr_1_272?dib=eyJ2IjoiMSJ9.ER0BYtRTU8NE0VWF8Jmt0NurbwlCkWKmSaK9AV82SeyofmmiyvTSmkLZ3j3h8F3CHp-jgIVv9bNyfPPwiYKkoH6yNGhFxXHlSoF_noeqjrI_tiAmC0Nfr-pGTmiSQYUNmfbsUvDZclXaOx9tzsqwSK8mgS5qYauXr9qBTeSQgid_xv2lm4ay1pi29FcguRprQmPPO08UaRvUpesmlzsIdikaE4oigYYGY2fSlGb_RGc.lIvN9sB68VLRerNp4vyg-sQmjAHWaw8k55JK9JQcp08&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340180&amp;sr=8-272</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG5ZZDT/ref=sr_1_273?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-273</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D0237</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -12756,12 +12756,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGM8Z3K/ref=sr_1_273?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-273</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGNJWCC/ref=sr_1_274?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-274</t>
         </is>
       </c>
     </row>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D1230</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3244</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -12801,12 +12801,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CG8N6/ref=sr_1_274?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-274</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FRB17L69/ref=sr_1_275?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-275</t>
         </is>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D3222</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -12846,12 +12846,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGDWQGH/ref=sr_1_275?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-275</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M5KP7/ref=sr_1_276?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-276</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3256</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VG8MK/ref=sr_1_276?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-276</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9JK664/ref=sr_1_277?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-277</t>
         </is>
       </c>
     </row>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3236</t>
+          <t>Soft Mobile Back Cover for Apple iPhone 17 (Silicone_Multicolor)</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -12936,12 +12936,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9T5Q43/ref=sr_1_277?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-277</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Silicone_Multicolor/dp/B0FR9H2MD1/ref=sr_1_278?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-278</t>
         </is>
       </c>
     </row>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3168</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3232</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -12981,12 +12981,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9H2XH6/ref=sr_1_278?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-278</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR8XXYNV/ref=sr_1_279?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-279</t>
         </is>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Mobile Back Cover for Apple iPhone 17 (Silicone_Multicolor)</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -13026,12 +13026,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG7F8P9/ref=sr_1_279?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-279</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Silicone_Multicolor/dp/B0FR8XWMHZ/ref=sr_1_280?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-280</t>
         </is>
       </c>
     </row>
@@ -13053,11 +13053,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D1169</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13071,12 +13071,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Embroidery-Premium-Printed/dp/B0FC2N5SD5/ref=sr_1_280?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-280</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGLKZQW/ref=sr_1_281?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-281</t>
         </is>
       </c>
     </row>
@@ -13098,11 +13098,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Grayish-Printed-Silicon/dp/B0FC2LTGLY/ref=sr_1_281?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-281</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9V546N/ref=sr_1_282?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-282</t>
         </is>
       </c>
     </row>
@@ -13143,11 +13143,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Pink)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13156,17 +13156,17 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXKW1TR/ref=sr_1_282?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-282</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M3XJ1/ref=sr_1_283?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-283</t>
         </is>
       </c>
     </row>
@@ -13206,12 +13206,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGL7DSG/ref=sr_1_283?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-283</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9H4XRR/ref=sr_1_284?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-284</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3283</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -13251,12 +13251,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRG5ZCP8/ref=sr_1_284?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-284</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR8XZ8PK/ref=sr_1_285?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-285</t>
         </is>
       </c>
     </row>
@@ -13278,11 +13278,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2236</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13296,12 +13296,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Berries-Printed-Silicon/dp/B0FC2GP38X/ref=sr_1_285?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-285</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V3V6F/ref=sr_1_286?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-286</t>
         </is>
       </c>
     </row>
@@ -13323,11 +13323,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -13341,12 +13341,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGGVHWX/ref=sr_1_286?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-286</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_287?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-287</t>
         </is>
       </c>
     </row>
@@ -13386,12 +13386,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:13</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGMJ61S/ref=sr_1_287?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-287</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGLDV1T/ref=sr_1_288?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-288</t>
         </is>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17pro, Back Cover for Apple iPhone 17 Pro -D3006</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D1169</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:16</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGNJBW5/ref=sr_1_288?dib=eyJ2IjoiMSJ9.__qLAHlD17jSMat3_vxX_bY-S7T3f-c3aQyJA7kiYMIFfMYois36WvdCjVVwXll6vj9G7eBjjgRSnCy5FCLAcUhj6AYW_8uf_-hKsXtdbGpEpj-SM6r2_Sg4q24klqX-Q-go_S7mquqokpHTuTA-SMDP_HShblQNu1U0y3qMczNUU1wb7P1IGexFNM6HRN0STNCTVdghjifzaljxnBANMmz-kGywdbdFUpelR32-2sI.go2AXqpyyYcgvcHxDEfeZkQZEEPVTkvse1VUw6HHGXo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340189&amp;sr=8-288</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGLKZQW/ref=sr_1_289?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-289</t>
         </is>
       </c>
     </row>
@@ -13476,12 +13476,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VD6RS/ref=sr_1_289?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-289</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9V546N/ref=sr_1_290?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-290</t>
         </is>
       </c>
     </row>
@@ -13503,11 +13503,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2152</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -13521,12 +13521,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9M3Y6S/ref=sr_1_290?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-290</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M3XJ1/ref=sr_1_291?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-291</t>
         </is>
       </c>
     </row>
@@ -13548,11 +13548,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -13566,12 +13566,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Pattern-Premium-Printed/dp/B0FC2NSZLZ/ref=sr_1_291?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-291</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9H4XRR/ref=sr_1_292?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-292</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D0237</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -13611,12 +13611,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGM8Z3K/ref=sr_1_292?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-292</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR8XZ8PK/ref=sr_1_293?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-293</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D3222</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2236</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -13656,12 +13656,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGDWQGH/ref=sr_1_293?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-293</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V3V6F/ref=sr_1_294?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-294</t>
         </is>
       </c>
     </row>
@@ -13683,11 +13683,11 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -13701,12 +13701,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VG8MK/ref=sr_1_294?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-294</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_295?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-295</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3236</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -13746,12 +13746,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9T5Q43/ref=sr_1_295?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-295</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGLDV1T/ref=sr_1_296?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-296</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3168</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -13791,12 +13791,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9H2XH6/ref=sr_1_296?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-296</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGGZBMP/ref=sr_1_297?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-297</t>
         </is>
       </c>
     </row>
@@ -13818,11 +13818,11 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Soft Back Cover Case Compatible for iPhone 17air, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 Air -D3158</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -13836,12 +13836,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Embroidery-Premium-Printed/dp/B0FC2N5SD5/ref=sr_1_297?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-297</t>
+          <t>https://www.amazon.in/LoudCase-iPhone-Transparent-Apple-Air/dp/B0FWJL1KNG/ref=sr_1_298?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-298</t>
         </is>
       </c>
     </row>
@@ -13863,11 +13863,11 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3214</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -13881,12 +13881,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Grayish-Printed-Silicon/dp/B0FC2LTGLY/ref=sr_1_298?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-298</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CFPYD/ref=sr_1_299?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-299</t>
         </is>
       </c>
     </row>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Pink)</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -13921,17 +13921,17 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXKW1TR/ref=sr_1_299?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-299</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRG627K3/ref=sr_1_300?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-300</t>
         </is>
       </c>
     </row>
@@ -13971,12 +13971,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGL7DSG/ref=sr_1_300?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-300</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9TK51P/ref=sr_1_301?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-301</t>
         </is>
       </c>
     </row>
@@ -13998,11 +13998,11 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -14016,12 +14016,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Hexagon-Texture-Premium/dp/B0FC2Q9SMQ/ref=sr_1_301?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-301</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9S26WG/ref=sr_1_302?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-302</t>
         </is>
       </c>
     </row>
@@ -14043,11 +14043,11 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -14061,12 +14061,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Premium-Printed-iPhone/dp/B0FC2Q93K5/ref=sr_1_302?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-302</t>
+          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCFWLBR/ref=sr_1_303?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-303</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3283</t>
+          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D1090</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -14106,12 +14106,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:20</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRG5ZCP8/ref=sr_1_303?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-303</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGG7V5L/ref=sr_1_304?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-304</t>
         </is>
       </c>
     </row>
@@ -14133,11 +14133,11 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -14151,12 +14151,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:23</t>
+          <t>2026-01-25 22:51:26</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Berries-Printed-Silicon/dp/B0FC2GP38X/ref=sr_1_304?dib=eyJ2IjoiMSJ9.4Y0-hvEFRAqNA7mhXoEA-f3VRY7G78NxZ219t4Qegehocgm6ViTexaQJa8qucDsd4eJVQtb2ki9One4CePhqvqOOFvrtBKS-vAMCUQCx5oKyERqC22VHljMvhcThmhv-w2sRryLa_q2s15yGeKmcGAvAkvxMUE69NPuiahM6NXaEcw7nZ2nKsUhHMaI3pnW9u-7LQEBWeZsUynooKgvNLn_gBRD3ULbtFbB7iXHUfQ0.x1LF_ZbhrRcmdaPP8EF32smYbDOSo7suAQa-ddwVpb4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340197&amp;sr=8-304</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TZSNJ/ref=sr_1_305?dib=eyJ2IjoiMSJ9.-RTqh8Kcd-59SRisLnfR-tMvp0MAF2fDtfsutG35OBY.AmJKHuPvrAvgtPb15wxFAqLnpGCe9hfsUUJYzaHCZxc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361681&amp;sr=8-305</t>
         </is>
       </c>
     </row>
@@ -14196,57 +14196,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-01-25 16:53:28</t>
+          <t>2026-01-25 22:51:26</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGL7DSG/ref=sr_1_305?dib=eyJ2IjoiMSJ9.cKtPdMR8Hx1naU_Wx5XL7aCSwIfMCJG5mX-DS0FuQSc.SzhKuszgsA0Y1EyRKRZOJWgcnBQNXIrPSZxT5czCQyc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340203&amp;sr=8-305</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>iphone 17</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Amazon (amazon.in)</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3283</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>159</v>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2026-01-25 16:53:28</t>
-        </is>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRG5ZCP8/ref=sr_1_306?dib=eyJ2IjoiMSJ9.cKtPdMR8Hx1naU_Wx5XL7aCSwIfMCJG5mX-DS0FuQSc.SzhKuszgsA0Y1EyRKRZOJWgcnBQNXIrPSZxT5czCQyc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769340203&amp;sr=8-306</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9V87QC/ref=sr_1_306?dib=eyJ2IjoiMSJ9.-RTqh8Kcd-59SRisLnfR-tMvp0MAF2fDtfsutG35OBY.AmJKHuPvrAvgtPb15wxFAqLnpGCe9hfsUUJYzaHCZxc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361681&amp;sr=8-306</t>
         </is>
       </c>
     </row>

--- a/backend/static/Amazon_Unsorted.xlsx
+++ b/backend/static/Amazon_Unsorted.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-3</t>
+          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-3</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_4?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-4</t>
+          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_4?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-4</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_5?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-5</t>
+          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_5?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-5</t>
         </is>
       </c>
     </row>
@@ -678,11 +678,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
+          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>119000</v>
+        <v>134900</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -691,17 +691,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_6?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-6</t>
+          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQG1LPVF/ref=sr_1_6?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-6</t>
         </is>
       </c>
     </row>
@@ -723,11 +723,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>151899</v>
+        <v>174900</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -736,17 +736,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_7?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-7</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFBHQMJ/ref=sr_1_7?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-7</t>
         </is>
       </c>
     </row>
@@ -768,11 +768,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 17 Pro 512 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>206899</v>
+        <v>154900</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_9?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-9</t>
+          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQFQF6D1/ref=sr_1_8?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-8</t>
         </is>
       </c>
     </row>
@@ -813,11 +813,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>246899</v>
+        <v>119000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -826,17 +826,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_10?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-10</t>
+          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_9?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-9</t>
         </is>
       </c>
     </row>
@@ -858,11 +858,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>166899</v>
+        <v>174900</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -871,17 +871,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_11?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-11</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQG1VB5Y/ref=sr_1_10?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-10</t>
         </is>
       </c>
     </row>
@@ -903,11 +903,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Silver</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>151899</v>
+        <v>174900</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -916,17 +916,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-256GB-AppleCare/dp/B0G6L7PR2C/ref=sr_1_12?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-12</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFNQTTK/ref=sr_1_11?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-11</t>
         </is>
       </c>
     </row>
@@ -948,11 +948,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 17 Pro 512 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>191899</v>
+        <v>154900</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -961,17 +961,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-1TB-AppleCare/dp/B0G6KKFKMK/ref=sr_1_13?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-13</t>
+          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQF5DG3P/ref=sr_1_12?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-12</t>
         </is>
       </c>
     </row>
@@ -993,11 +993,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47998</v>
+        <v>54900</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1006,17 +1006,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_14?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-14</t>
+          <t>https://www.amazon.in/Apple-iPhone-15-128-GB/dp/B0CHX2F5QT/ref=sr_1_13?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-13</t>
         </is>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>166899</v>
+        <v>47998</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_15?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-15</t>
+          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_14?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-14</t>
         </is>
       </c>
     </row>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>246899</v>
+        <v>33999</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_16?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-16</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_15?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-15</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>64900</v>
+        <v>151899</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-14-256GB-Starlight/dp/B0BDJS3MRM/ref=sr_1_17?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-17</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_16?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-16</t>
         </is>
       </c>
     </row>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>109999</v>
+        <v>22499</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:01</t>
+          <t>2026-02-05 08:39:31</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_18?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-U-WjcombGfwQQ5ScfdDeqgM5E32PEZB7Kdffy-MHCffY05NX75UuBNYFiEu5xPepUsoyuEhPrv6Fkc19Xw-o6oowCzV46J-7PbG5BMS3ZDsbyy6j47-EuPpDu5pJbu1yuwJG9on3P4lLf4RO1FcZ6dPSQ1LVDZK2O8vXYsC6Fukp6nmDVU8vL0OwMhbtAKr0.jp-3SkOMBRjgGCZ7pl78lvz3ee4Ma9U5RSD3tLPJMls&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361536&amp;sr=8-18</t>
+          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_17?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
+          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>174900</v>
+        <v>109999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1231,17 +1231,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_17?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-17</t>
+          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_17?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>186899</v>
+        <v>166899</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_18?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-18</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_18?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-18</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>171899</v>
+        <v>151899</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_19?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-19</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6L7PR2C/ref=sr_1_19?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-19</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KTX1YR/ref=sr_1_20?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-20</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_20?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-20</t>
         </is>
       </c>
     </row>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>iQOO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>72998</v>
+        <v>246899</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_21?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-21</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_21?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-21</t>
         </is>
       </c>
     </row>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32499</v>
+        <v>595</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_22?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-22</t>
+          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_23?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-23</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21499</v>
+        <v>74999</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_23?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-23</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_24?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-24</t>
         </is>
       </c>
     </row>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>72999</v>
+        <v>166899</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_24?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-24</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_25?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-25</t>
         </is>
       </c>
     </row>
@@ -1578,11 +1578,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7999</v>
+        <v>246899</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_25?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-25</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_26?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-26</t>
         </is>
       </c>
     </row>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>299</v>
+        <v>171899</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFMQMHY/ref=sr_1_26?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-26</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_27?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-27</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>246899</v>
+        <v>186899</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KP56K2/ref=sr_1_27?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-27</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_28?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-28</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
+          <t>iQOO</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>595</v>
+        <v>72998</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1726,17 +1726,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_28?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-28</t>
+          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_29?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-29</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_29?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-29</t>
+          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_30?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-30</t>
         </is>
       </c>
     </row>
@@ -1803,11 +1803,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>166899</v>
+        <v>299</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KK31WB/ref=sr_1_30?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-30</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFLB369/ref=sr_1_31?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-31</t>
         </is>
       </c>
     </row>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MagPro case for Apple iPhone 17 | MagSafe Compatible Protective Cover with Strong Magnetic Adsorption, Shockproof Armor, Scratch Resistant Polycarbonate Hard Back | Translucent Matte Black</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>399</v>
+        <v>72999</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:38</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_31?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-31</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_32?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-32</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1893,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>186899</v>
+        <v>18499</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:07</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KFSWC5/ref=sr_1_32?dib=eyJ2IjoiMSJ9.Zupv37Rtl90QrV6U3_BIAROKBQ1k-NLRJcU03aS8keMeulta5wDmIBNPAOPqjXm6yVwpEwUllyoR4l_cY1y4Uezo-ga7KWuNoIFCaeLfu5cqj-iqffe_CT0ZrdH2C16EytyB4-PEJ_xJ6NmpgkwnTb4ThiNpQAtKsmnwEWKXVuzvYDsLXduBaz1AZRgj1C-7gg1nxBVRhjlrqLSQA_v_8sSKXHg6wrfnhdT6BLrXna0.sCcM2HJhVx0onO9KD6bFP-NbDglM81JmzZTcTQuujIE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361542&amp;sr=8-32</t>
+          <t>https://www.amazon.in/Redmi-15-Midnight-Segments-Snapdragon/dp/B0FJFSHJ6Z/ref=sr_1_33?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-33</t>
         </is>
       </c>
     </row>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Compatible Case Apple iPhone 17 | Back Cover Case | Stylish Frameless Matte Hard Back Skin | Soft TPU Shock Proof Bumper Back Cover Case for Apple iPhone 17 (Black)</t>
+          <t>iPhone 16 Pro 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>234.06</v>
+        <v>159900</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_33?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-33</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-TB-Titanium/dp/B0DGJ7YRZ1/ref=sr_1_34?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-34</t>
         </is>
       </c>
     </row>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>52999</v>
+        <v>174900</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_34?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-34</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_35?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-35</t>
         </is>
       </c>
     </row>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>74999</v>
+        <v>8999</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_35?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-35</t>
+          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_36?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-36</t>
         </is>
       </c>
     </row>
@@ -2073,11 +2073,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1499</v>
+        <v>4900</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2086,17 +2086,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_36?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-36</t>
+          <t>https://www.amazon.in/Apple-iPhone-Clear-Case-MagSafe/dp/B0FQFV49W7/ref=sr_1_37?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-37</t>
         </is>
       </c>
     </row>
@@ -2118,11 +2118,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>MagPro case for Apple iPhone 17 | MagSafe Compatible Protective Cover with Strong Magnetic Adsorption, Shockproof Armor, Scratch Resistant Polycarbonate Hard Back | Translucent Matte Black</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>122999</v>
+        <v>399</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2131,17 +2131,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_37?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-37</t>
+          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_38?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-38</t>
         </is>
       </c>
     </row>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>699</v>
+        <v>129999</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_38?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-38</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_39?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-39</t>
         </is>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>295</v>
+        <v>1799</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_40?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-40</t>
+          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_40?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-40</t>
         </is>
       </c>
     </row>
@@ -2253,11 +2253,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>128.82</v>
+        <v>52999</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2266,17 +2266,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_41?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-41</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_41?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-41</t>
         </is>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_42?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-42</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_42?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-42</t>
         </is>
       </c>
     </row>
@@ -2343,11 +2343,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>151</v>
+        <v>799</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_43?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-43</t>
+          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_43?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-43</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9V2NTW/ref=sr_1_44?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-44</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_44?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-44</t>
         </is>
       </c>
     </row>
@@ -2433,11 +2433,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lava</t>
+          <t>Compatible Case Apple iPhone 17 | Back Cover Case | Stylish Frameless Matte Hard Back Skin | Soft TPU Shock Proof Bumper Back Cover Case for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8999</v>
+        <v>249</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2446,17 +2446,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Lava-Storm-Lite-Dimensity-Processor/dp/B0FB42K578/ref=sr_1_45?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-45</t>
+          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_45?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-45</t>
         </is>
       </c>
     </row>
@@ -2478,11 +2478,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>151</v>
+        <v>214.14</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_46?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-46</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_46?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-46</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3216</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9RW7H9/ref=sr_1_47?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-47</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_47?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-47</t>
         </is>
       </c>
     </row>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>151</v>
+        <v>399</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:13</t>
+          <t>2026-02-05 08:39:46</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KHPMR/ref=sr_1_48?dib=eyJ2IjoiMSJ9.Ayh3L5yeGgQJPGCFIgJ3msWiH2teN1OM2al_uSYQvFJX53g61ejl1D13lL7Sz2rfLnjY2XYfdeWzIoyXqrVwLyWoR5ZBTqY_eKch7K74Eyd3RS9RJP4JEZswJGaFCKikRCh0LOWPFz90kMCFvupxZdy-0J-UwbMdg_XMFZPLSwMP4R2iBuIfg2BwPeIZLHeGC5gE4gX3yKOC5RZA2OM7CfveOzjSYoAbbz5N757mISk.JJoiwe0QyMYjfaVIoEf025BKvZt3bXqofwdSuHcWTNQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361547&amp;sr=8-48</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVKGLF/ref=sr_1_48?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-48</t>
         </is>
       </c>
     </row>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kratos</t>
+          <t>Ray-Ban | Meta Wayfarer (Gen 1) - Matte Black, Polarised Gradient Graphite Lenses</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>599</v>
+        <v>32100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2626,17 +2626,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_49?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-49</t>
+          <t>https://www.amazon.in/Ray-Ban-Meta-Wayfarer-Gen-Polarised/dp/B0G24TJ9FQ/ref=sr_1_49?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-49</t>
         </is>
       </c>
     </row>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2671,17 +2671,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Transparent/dp/B0FT8RZZQH/ref=sr_1_50?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-50</t>
+          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_50?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-50</t>
         </is>
       </c>
     </row>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>TheGiftKart</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_51?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-51</t>
+          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_51?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-51</t>
         </is>
       </c>
     </row>
@@ -2748,11 +2748,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2761,17 +2761,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9S6SYL/ref=sr_1_52?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-52</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_52?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-52</t>
         </is>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2806,17 +2806,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_53?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-53</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_53?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-53</t>
         </is>
       </c>
     </row>
@@ -2838,11 +2838,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TheGiftKart</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_54?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-54</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFQY832/ref=sr_1_54?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-54</t>
         </is>
       </c>
     </row>
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2152</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9M3Y6S/ref=sr_1_55?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-55</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_55?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-55</t>
         </is>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>rts</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Compatible-Apple-iPhone/dp/B0G6TMJ9PR/ref=sr_1_56?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-56</t>
+          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_56?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-56</t>
         </is>
       </c>
     </row>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3227</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9RT4VK/ref=sr_1_57?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-57</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFJL9XV/ref=sr_1_57?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-57</t>
         </is>
       </c>
     </row>
@@ -3018,11 +3018,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Kratos</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>799</v>
+        <v>599</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3036,12 +3036,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Charging-Unbreakable-Smartphone-Certified/dp/B085Y9QRHH/ref=sr_1_58?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-58</t>
+          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_58?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-58</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3257</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9ZK8V8/ref=sr_1_59?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-59</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_59?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-59</t>
         </is>
       </c>
     </row>
@@ -3108,11 +3108,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2082</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZW237/ref=sr_1_60?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-60</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFMMDYD/ref=sr_1_60?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-60</t>
         </is>
       </c>
     </row>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_61?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-61</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFL5T6P/ref=sr_1_61?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-61</t>
         </is>
       </c>
     </row>
@@ -3198,11 +3198,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_62?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-62</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFJHZBR/ref=sr_1_62?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-62</t>
         </is>
       </c>
     </row>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year) (Email Delivery, No Physical Kit)</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>239</v>
+        <v>8499</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_63?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-63</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNT1PVP/ref=sr_1_63?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-63</t>
         </is>
       </c>
     </row>
@@ -3288,11 +3288,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:22</t>
+          <t>2026-02-05 08:39:53</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PVB4TW/ref=sr_1_64?dib=eyJ2IjoiMSJ9.b_cyOxB1GNImlVb1CcKrUxU5SVgcQeKELotxZjuneuhRpXDfxEJCBYMZ4HwzCA-uO9ZYZcaYzYpDXwTDjZ8-YqFLn-vgH7bK_OOG-bzPsv3G8If3LEj6ELrJEQ0XjoC8iySwicIQ1QEgSyttKfzLSyqig_TEoOMkNP85GkAGjDjdbPfIH2yR5Sz1e7khKxtFGD0-e83i0I3OqaPXDIkon__i0hfEyIc__OX3s-2ylgg.OrYJB44KxaPNDb-ewW3wXXgIbGQV69fTLNYkxjVQE0k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361553&amp;sr=8-64</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFN1BR3/ref=sr_1_64?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-64</t>
         </is>
       </c>
     </row>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3346,17 +3346,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_65?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-65</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNQ7WX/ref=sr_1_65?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-65</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WMMK9B/ref=sr_1_66?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-66</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBR2SS1/ref=sr_1_66?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-66</t>
         </is>
       </c>
     </row>
@@ -3423,11 +3423,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3165</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 Pro (1 Year) (Email Delivery, No Physical Kit)</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>151</v>
+        <v>16999</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9TLS14/ref=sr_1_67?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-67</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNQPM9L/ref=sr_1_67?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-67</t>
         </is>
       </c>
     </row>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9M3798/ref=sr_1_68?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-68</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFMB9MQ/ref=sr_1_68?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-68</t>
         </is>
       </c>
     </row>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rts</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>194</v>
+        <v>244.02</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_69?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-69</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQL1B9ZV/ref=sr_1_69?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-69</t>
         </is>
       </c>
     </row>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>298</v>
+        <v>599</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_70?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-70</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_70?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-70</t>
         </is>
       </c>
     </row>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_71?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-71</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFL5QPB/ref=sr_1_71?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-71</t>
         </is>
       </c>
     </row>
@@ -3648,11 +3648,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Dark Blue</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSBBBF3B/ref=sr_1_72?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-72</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9S6SYL/ref=sr_1_72?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-72</t>
         </is>
       </c>
     </row>
@@ -3693,11 +3693,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>LIRAMARK</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>159</v>
+        <v>394</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9JBK3C/ref=sr_1_73?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-73</t>
+          <t>https://www.amazon.in/LIRAMARK-Anti-Smudge-protector-compatible-Installation/dp/B0FPCHMGHH/ref=sr_1_73?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-73</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3738,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3182</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9V98HR/ref=sr_1_74?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-74</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_74?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-74</t>
         </is>
       </c>
     </row>
@@ -3783,11 +3783,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9TCVRC/ref=sr_1_75?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-75</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Transparent/dp/B0FT8RZZQH/ref=sr_1_75?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-75</t>
         </is>
       </c>
     </row>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Silicone Designer Printed Back Case Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D0125</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Shockproof/dp/B0FVFKDX5C/ref=sr_1_76?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-76</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFM2QPD/ref=sr_1_76?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-76</t>
         </is>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wayona</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_77?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-77</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFMM38V/ref=sr_1_77?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-77</t>
         </is>
       </c>
     </row>
@@ -3918,11 +3918,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Lilac</t>
+          <t>Wayona</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3936,12 +3936,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSPG6BRB/ref=sr_1_78?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-78</t>
+          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_78?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-78</t>
         </is>
       </c>
     </row>
@@ -3963,11 +3963,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D0157</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3981,12 +3981,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9S283X/ref=sr_1_79?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-79</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84Q/ref=sr_1_79?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-79</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4008,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4021,17 +4021,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:30</t>
+          <t>2026-02-05 08:39:58</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_80?dib=eyJ2IjoiMSJ9.V00tkcEq2HJ4CBCqnUCRJdPdBpMUbZ7mUtOq5LoQ_-Tm2Rb35_KcBKiO3Byp660uS8diIKjM8691CYd-bm9kzlEU_Vwe5JZCfC0u4SYNGqv8jQkwdMu9zh_iMyV9MuWGvBtx0gLbYIw0JpFetjDLZ5fkfXPK3TSV94AfPRUFp8c5Rfcu_J-PGQ0QHmPjU-bKNsCQs-IU9HA35twjX08lHu1XLYkqTGwa4U5PqMwCOjQ.qwmKUpuVi1QeC9Yv-zWJPgVQ8yRBh8iW8J6-RkgFULo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361563&amp;sr=8-80</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNVPKW/ref=sr_1_80?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-80</t>
         </is>
       </c>
     </row>
@@ -4053,11 +4053,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>599</v>
+        <v>299</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_81?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-81</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFQC28N/ref=sr_1_81?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-81</t>
         </is>
       </c>
     </row>
@@ -4098,11 +4098,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>in-Ear True Wireless Earbuds for Apple iPhone 17 Pro Mobile Earbuds with Mic, 12.4mm Drivers, Playback:Upto 38hr case,4-Mic Design, IP55 Rating, TWS Ear Buds with mic (38 Hours Case, TR-2I,)</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>699</v>
+        <v>299</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wireless-Apple-iPhone-17-Pro/dp/B0GD7J1LKX/ref=sr_1_82?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-82</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNVPKW/ref=sr_1_82?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-82</t>
         </is>
       </c>
     </row>
@@ -4143,11 +4143,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3075</t>
+          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9SWTJC/ref=sr_1_83?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-83</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_83?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-83</t>
         </is>
       </c>
     </row>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>TheGiftKart</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FRB1324Y/ref=sr_1_84?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-84</t>
+          <t>https://www.amazon.in/TheGiftKart-Translucent-iPhone-17-Shockproof/dp/B0FN8866YH/ref=sr_1_84?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-84</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_85?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-85</t>
+          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_85?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-85</t>
         </is>
       </c>
     </row>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>150</v>
+        <v>599</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9ZMMFC/ref=sr_1_86?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-86</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXV5LGM/ref=sr_1_86?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-86</t>
         </is>
       </c>
     </row>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1619</v>
+        <v>399</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UGREEN-Revodok-Powered-Adapter-Compatible/dp/B0BR3M8XHK/ref=sr_1_87?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-87</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_87?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-87</t>
         </is>
       </c>
     </row>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D3250</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4381,17 +4381,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRG7G9Y2/ref=sr_1_88?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-88</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFL4LBT/ref=sr_1_88?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-88</t>
         </is>
       </c>
     </row>
@@ -4413,11 +4413,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGKLQ3V/ref=sr_1_89?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-89</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PQXRBC/ref=sr_1_89?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-89</t>
         </is>
       </c>
     </row>
@@ -4458,11 +4458,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4471,17 +4471,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4BDF/ref=sr_1_90?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-90</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFMRKMF/ref=sr_1_90?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-90</t>
         </is>
       </c>
     </row>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H36SB/ref=sr_1_91?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-91</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFM13FS/ref=sr_1_91?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-91</t>
         </is>
       </c>
     </row>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2149</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>159</v>
+        <v>2499</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4561,17 +4561,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZJZR8/ref=sr_1_92?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-92</t>
+          <t>https://www.amazon.in/Spigen-PE2007-iPhone-Charger-Devices/dp/B09BYT72ZF/ref=sr_1_92?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-92</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4611,12 +4611,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9TDZW8/ref=sr_1_93?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-93</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FNR78/ref=sr_1_93?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-93</t>
         </is>
       </c>
     </row>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2259</t>
+          <t>Anker</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>159</v>
+        <v>999</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4651,17 +4651,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9TLS19/ref=sr_1_94?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-94</t>
+          <t>https://www.amazon.in/Anker-Charger-Charging-iPhone-MacBook/dp/B0DG2PKSVK/ref=sr_1_94?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-94</t>
         </is>
       </c>
     </row>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-212</t>
+          <t>3 in 1 MagSafe compatible Magnetic Foldable Wireless Charger for iPhone 17 to 12 Series | Compatible with AirPods 2/3, Pro2, Pro3 | Compatible with only Apple Watch Series | 23W Charging - Pearl White</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>229</v>
+        <v>2649</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4696,17 +4696,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZTYCYF2/ref=sr_1_95?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-95</t>
+          <t>https://www.amazon.in/Magnetic-Foldable-Compatible-Wireless-Charging/dp/B0C3R8MMJD/ref=sr_1_95?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-95</t>
         </is>
       </c>
     </row>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>yuvu77 Back Screen Guard for Apple iPhone 17 Pro, Membrane with 360 Coverage</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:38</t>
+          <t>2026-02-05 08:40:08</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Membrane-Coverage/dp/B0GFW92YBC/ref=sr_1_96?dib=eyJ2IjoiMSJ9.5xeD_U9nXks6K78B3H89qrzJWdQENO5xwP01UyJUEX57tBzOkCDKRjIDeloBQQMWtVUWSL1C4sVANS1rH6JMONY_JvejBl0zaniM7db703oVmGQdtUr6Qx4y82fga9-jw5agYjoyMW_EgOUiGoudNnTvjz5gbHKGiMQb6RAPmKGpuurKWj-44ledC_UH1xQDw2yvvlIxUgBbKWMzysx_OtFwtHrbBIXl8WS91Vqr3K4.yIc6ypjsPcS0Q0HQFV0fH79BpNB5sPtGLV47KjuSYOU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361570&amp;sr=8-96</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12XWVKQ/ref=sr_1_96?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-96</t>
         </is>
       </c>
     </row>
@@ -4773,11 +4773,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>yuvu77 Back Screen Guard for Apple iPhone 17 Pro, Membrane with 360 Coverage</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4786,17 +4786,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Membrane-Coverage/dp/B0GFW92YBC/ref=sr_1_97?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-97</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFJNHX9/ref=sr_1_97?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-97</t>
         </is>
       </c>
     </row>
@@ -4818,11 +4818,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-100</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4836,12 +4836,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZV4C722/ref=sr_1_98?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-98</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD2RP9/ref=sr_1_98?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-98</t>
         </is>
       </c>
     </row>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1110</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>199</v>
+        <v>499</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4876,17 +4876,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFLZ5VW/ref=sr_1_99?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-99</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX83N95/ref=sr_1_99?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-99</t>
         </is>
       </c>
     </row>
@@ -4908,11 +4908,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D1157</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TYXBV/ref=sr_1_100?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-100</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_100?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-100</t>
         </is>
       </c>
     </row>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Amazon Brand - Solimo</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4971,12 +4971,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_101?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-101</t>
+          <t>https://www.amazon.in/Amazon-Brand-Thermoplastic-Polyurethane-Compatible/dp/B0FPX7J4TP/ref=sr_1_101?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-101</t>
         </is>
       </c>
     </row>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Gold)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5016,12 +5016,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXH6YM3/ref=sr_1_102?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-102</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_102?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-102</t>
         </is>
       </c>
     </row>
@@ -5043,11 +5043,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>259</v>
+        <v>399</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_103?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-103</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYHR9P/ref=sr_1_103?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-103</t>
         </is>
       </c>
     </row>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5101,17 +5101,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDFB8C/ref=sr_1_104?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-104</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_104?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-104</t>
         </is>
       </c>
     </row>
@@ -5133,11 +5133,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Plus</t>
+          <t>AIBEX</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5146,17 +5146,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Plus-Protection-Apple-iPhone-17/dp/B0FRN82PW9/ref=sr_1_105?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-105</t>
+          <t>https://www.amazon.in/iPhone-Air-Anti-Fingerprint-Bubble-Free-Installation/dp/B0FJ5PNSCD/ref=sr_1_105?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-105</t>
         </is>
       </c>
     </row>
@@ -5178,11 +5178,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6255</v>
+        <v>299</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5191,17 +5191,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ugreen-Nexode-Charger-4-Ports-Charger/dp/B0CC559K97/ref=sr_1_106?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-106</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKT7CJ/ref=sr_1_106?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-106</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5236,17 +5236,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PQNCSB/ref=sr_1_107?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-107</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT2ZN4LV/ref=sr_1_107?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-107</t>
         </is>
       </c>
     </row>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Wireless Bluetooth for Apple iPhone 17 in-Ear Headphone with Mic 38Hrs Playtime Dual Device Pairing Wireless Neckband Type-C Charge Magnetic Buds &amp; IPX5 Water Resistant (Black, SE.AH)</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>999</v>
+        <v>299</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Bluetooth-Apple-iPhone-17-Headphone/dp/B0G3VRP1S1/ref=sr_1_108?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-108</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FFZ45/ref=sr_1_108?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-108</t>
         </is>
       </c>
     </row>
@@ -5313,11 +5313,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5326,17 +5326,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDBRB2/ref=sr_1_109?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-109</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKJ35T/ref=sr_1_109?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-109</t>
         </is>
       </c>
     </row>
@@ -5358,11 +5358,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Charvi Cute Panda Phone Case for Apple iPhone 17 Air, 3D Cartoon Design with Chubby Panda Topper, Translucent Grey | Protective Cover with Camera Lens</t>
+          <t>eller santé</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>469.06</v>
+        <v>2648</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5371,17 +5371,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Air-Translucent/dp/B0G2Y2MBDK/ref=sr_1_110?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-110</t>
+          <t>https://www.amazon.in/eller-Magnetic-Mag-Safe-Wireless-Grey/dp/B0CW6CKFG4/ref=sr_1_110?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-110</t>
         </is>
       </c>
     </row>
@@ -5403,11 +5403,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_111?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-111</t>
+          <t>https://www.amazon.in/Spigen-Charger-Adapter-Budget-Friendly-Earbuds/dp/B0G2LCL12G/ref=sr_1_111?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-111</t>
         </is>
       </c>
     </row>
@@ -5448,11 +5448,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D0153</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5461,17 +5461,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:44</t>
+          <t>2026-02-05 08:40:14</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_112?dib=eyJ2IjoiMSJ9.Xq6-9BSfGCyDyBfMD1yYT_-1-pNJreT6LLKyEM4nSLpToyDzfTOKEX8Iiaot__E2wrshIOzMf-Xy7SIOWffidRKNmUt1AV1muRPHnGelwnak0xIQ-ub6bJjhJvLz3_n4_224kXjPu2mohQoyOESDrKXJhse2jps7HrU28e04sbemBH0ylinD33vemiZ5cKsOxVuUP7tsAzMNAb5doLFawD-duqj324prLc1_RKK9tIQ.iJ9ElMX-sLBm9Z-b73sFXkVX5I3k1JZsgkPCVQDFSXA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361578&amp;sr=8-112</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9GZ5R2/ref=sr_1_112?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-112</t>
         </is>
       </c>
     </row>
@@ -5493,11 +5493,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5506,17 +5506,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGHGTKM/ref=sr_1_113?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-113</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKLTZS/ref=sr_1_113?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-113</t>
         </is>
       </c>
     </row>
@@ -5551,17 +5551,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G435WTDZ/ref=sr_1_114?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-114</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-Air/dp/B0G6TQNNWT/ref=sr_1_114?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-114</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1085</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNL99Q/ref=sr_1_115?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-115</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_115?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-115</t>
         </is>
       </c>
     </row>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>SwanScout</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>159</v>
+        <v>4139</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5641,17 +5641,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FRB25PDD/ref=sr_1_116?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-116</t>
+          <t>https://www.amazon.in/SwanScout-Wireless-Charging-Foldable-Magnetic/dp/B0DFBSKGMN/ref=sr_1_116?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-116</t>
         </is>
       </c>
     </row>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ymc77 Back Screen Guard for Apple iPhone 17 Pro Max, Membrane with 360 Coverage</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5686,17 +5686,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-Membrane/dp/B0GGC7TFYD/ref=sr_1_117?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-117</t>
+          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Polycarbonate/dp/B0FTFJZL7T/ref=sr_1_117?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-117</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1216</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9M49WS/ref=sr_1_118?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-118</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_118?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-118</t>
         </is>
       </c>
     </row>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5776,17 +5776,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VG8MK/ref=sr_1_119?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-119</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_119?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-119</t>
         </is>
       </c>
     </row>
@@ -5808,11 +5808,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-16</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZV4CFDX/ref=sr_1_120?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-120</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_120?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-120</t>
         </is>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Zapcase</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5866,17 +5866,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9ZLTXX/ref=sr_1_121?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-121</t>
+          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0F946ZS29/ref=sr_1_121?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-121</t>
         </is>
       </c>
     </row>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5916,12 +5916,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XXNF7/ref=sr_1_122?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-122</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G432VSH6/ref=sr_1_122?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-122</t>
         </is>
       </c>
     </row>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5956,17 +5956,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGH36WM/ref=sr_1_123?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-123</t>
+          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WPFK6D/ref=sr_1_123?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-123</t>
         </is>
       </c>
     </row>
@@ -5988,11 +5988,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG245VN/ref=sr_1_124?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-124</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G1LYRW2M/ref=sr_1_124?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-124</t>
         </is>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6046,17 +6046,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG7GM8K/ref=sr_1_125?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-125</t>
+          <t>https://www.amazon.in/Belkin-Apple-Certified-USB-C-Cable/dp/B0F83FTDD5/ref=sr_1_125?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-125</t>
         </is>
       </c>
     </row>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9H532N/ref=sr_1_126?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-126</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDFB8C/ref=sr_1_126?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-126</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6141,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W64BSK/ref=sr_1_127?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-127</t>
+          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W64BSK/ref=sr_1_127?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-127</t>
         </is>
       </c>
     </row>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-01-25 22:49:51</t>
+          <t>2026-02-05 08:40:21</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_128?dib=eyJ2IjoiMSJ9.GFuiYenQbfiuip5J7qnSWVJ1-UY01zMcKg5ezROJvYNzt-NPzW_cB4KudePgzUWJYqdgJKEjER2mcAHPCHLFDE7tyXwh6hcyH6516Vit9akuAfPNgbgYMwTGKgegcYat0tqqk4yuLOk4_ouip9M6-0PqV1iB238ZxlkY1zSPMQl_gQZPZ10jEq2TRL7rSV3gvrKR56aSJWPjgGn1o6r8sKK8F_9U1d0Z-mHoZcQeaWs.Qn_pFlE8dEGhVUXQkPqUrL1WphSPtSkoCJQEXjEzW6k&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361585&amp;sr=8-128</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FPCVB/ref=sr_1_128?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-128</t>
         </is>
       </c>
     </row>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 17 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 Transparent)</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>169</v>
+        <v>498</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6226,17 +6226,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV96BLB/ref=sr_1_129?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-129</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXLTGR4/ref=sr_1_129?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-129</t>
         </is>
       </c>
     </row>
@@ -6258,11 +6258,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6271,17 +6271,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KL563/ref=sr_1_130?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-130</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDWSWY/ref=sr_1_130?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-130</t>
         </is>
       </c>
     </row>
@@ -6303,11 +6303,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 - Clear</t>
+          <t>CYTRON</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>242</v>
+        <v>3490</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6316,17 +6316,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCSZ76/ref=sr_1_131?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-131</t>
+          <t>https://www.amazon.in/MagSafe-Wireless-Charging-Mag-Safe-Magnetic/dp/B0DPJ274KH/ref=sr_1_131?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-131</t>
         </is>
       </c>
     </row>
@@ -6348,11 +6348,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6361,17 +6361,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4NRK/ref=sr_1_132?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-132</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXLQF24/ref=sr_1_132?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-132</t>
         </is>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6406,17 +6406,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9ZLTXW/ref=sr_1_133?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-133</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Professional/dp/B0G437LQJM/ref=sr_1_133?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-133</t>
         </is>
       </c>
     </row>
@@ -6438,11 +6438,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year)_Welcome Letter</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>269</v>
+        <v>8499</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6456,12 +6456,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Polycarbonate/dp/B0FZBKNP5L/ref=sr_1_134?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-134</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-iPhone-_Welcome/dp/B0G1C6NCQW/ref=sr_1_134?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-134</t>
         </is>
       </c>
     </row>
@@ -6483,11 +6483,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Back Cover Case for Apple iPhone 17 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 Transparent)</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6496,17 +6496,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSL76135/ref=sr_1_135?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-135</t>
+          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV96BLB/ref=sr_1_135?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-135</t>
         </is>
       </c>
     </row>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6541,17 +6541,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR8XZSNP/ref=sr_1_136?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-136</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLKTVP/ref=sr_1_136?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-136</t>
         </is>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6586,17 +6586,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_137?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-137</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLQWTC/ref=sr_1_137?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-137</t>
         </is>
       </c>
     </row>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Compatible with Apple iPhone 17 Gradient Glitter Case, Luxury Electroplated Geometric 3D Cube, Diamond Bling Shiny Soft TPU Clear Shockproof Protective Phone Cover for iPhone 17 (Pink)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-Electroplated/dp/B0FTXKW1TR/ref=sr_1_138?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-138</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_138?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-138</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_139?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-139</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_139?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-139</t>
         </is>
       </c>
     </row>
@@ -6708,11 +6708,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Back Cover for Apple iPhone 17 – Compatible TPU &amp; Hard Magnetic Case | Shockproof Hard Back Cover | Slim Fit Protective Case with Camera Guard – Yellow</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6721,17 +6721,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/NUBRIX-Back-Cover-Apple-iPhone/dp/B0G2RXTVJ2/ref=sr_1_140?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-140</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLLYZY/ref=sr_1_140?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-140</t>
         </is>
       </c>
     </row>
@@ -6753,11 +6753,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-65</t>
+          <t>Zapcase</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6766,17 +6766,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZTWVL6R/ref=sr_1_141?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-141</t>
+          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0FHB9GSCF/ref=sr_1_141?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-141</t>
         </is>
       </c>
     </row>
@@ -6798,11 +6798,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3112</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6816,12 +6816,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9M4RQW/ref=sr_1_142?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-142</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJ9HVZ/ref=sr_1_142?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-142</t>
         </is>
       </c>
     </row>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6861,12 +6861,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TJ3K9/ref=sr_1_143?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-143</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G2BZ5/ref=sr_1_143?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-143</t>
         </is>
       </c>
     </row>
@@ -6888,11 +6888,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Back Cover Case Designer Flexible Soft Back Case Cover for Apple iPhone 17 Air -D0028</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>199</v>
+        <v>222.45</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6901,17 +6901,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:01</t>
+          <t>2026-02-05 08:40:28</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJM798S/ref=sr_1_144?dib=eyJ2IjoiMSJ9.MHqjdIZm2fX-DhocufaW_0Eis244IHa1vK6_MkQfsEiZjQHmn_Wm3L6IrIu5tGeUZDJAi-lQJwXIwOOhz8jiCByaaKuEtv-4SvFvKNwrEXKv2zNUiFVsVgT9OjpL6LJEAzvKCBaTFpKtJ6Za4_TLpoXAnpYSGtTCQ-zzL7Wi-vXYVoMmvPXkRdanI4TbSeJGpGLkqxJtIvlhvQrgSti-aT3TBEIarYfS3NtvJIPJ73k.XrlvqQLJHThcrlJchQribjbQYOa1I0fyWVRIP5bSGqQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361592&amp;sr=8-144</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_144?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-144</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Back Cover Case Designer Flexible Soft Back Case Cover for Apple iPhone 17 Air -D0028</t>
+          <t>ExpressB</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6951,12 +6951,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJM798S/ref=sr_1_145?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-145</t>
+          <t>https://www.amazon.in/ExpressB%C2%AE-Transparent-Shockproof-ThinProtect-Cover-Deep/dp/B0FPD3NJZ3/ref=sr_1_145?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-145</t>
         </is>
       </c>
     </row>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PU Leather Protective Phone Case for Apple iPhone 17 | Camera Protection, Brown</t>
+          <t>Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Pro - Clear</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6996,12 +6996,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Oncraves-Leather-Protective-iPhone-Protection/dp/B0FZW2PBZD/ref=sr_1_146?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-146</t>
+          <t>https://www.amazon.in/Casotec-Premium-Shockproof-Transparent-Built/dp/B0FDGW7D1W/ref=sr_1_146?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-146</t>
         </is>
       </c>
     </row>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7041,12 +7041,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9SQND2/ref=sr_1_147?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-147</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G12TJCL6/ref=sr_1_147?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-147</t>
         </is>
       </c>
     </row>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 -D1110</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7086,12 +7086,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-17/dp/B0FR9R747X/ref=sr_1_148?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-148</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDRBGD/ref=sr_1_148?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-148</t>
         </is>
       </c>
     </row>
@@ -7113,11 +7113,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17air, Back Cover for Apple iPhone 17 Air -D0157</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7131,12 +7131,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGK6PYD/ref=sr_1_149?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-149</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXPXGT9/ref=sr_1_149?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-149</t>
         </is>
       </c>
     </row>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Silicone Designer Printed Back Case Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1212</t>
+          <t>Back Cover Case for Apple iPhone 15 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 15 Transparent)</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7171,17 +7171,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-17-Air/dp/B0FWJP9DNH/ref=sr_1_150?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-150</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3D9M86/ref=sr_1_150?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-150</t>
         </is>
       </c>
     </row>
@@ -7203,11 +7203,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D1008</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7221,12 +7221,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFLC9JX/ref=sr_1_151?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-151</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G3PQR3Y1/ref=sr_1_151?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-151</t>
         </is>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7261,17 +7261,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9RJ7WD/ref=sr_1_152?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-152</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_152?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-152</t>
         </is>
       </c>
     </row>
@@ -7293,11 +7293,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7311,12 +7311,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_153?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-153</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0GC5SP927/ref=sr_1_153?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-153</t>
         </is>
       </c>
     </row>
@@ -7338,11 +7338,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 AIR Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 AIR-DP-146</t>
+          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Black</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>229</v>
+        <v>999</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-AIR/dp/B0FZV895KT/ref=sr_1_154?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-154</t>
+          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRS5X8DX/ref=sr_1_154?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-154</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D3238</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9CC78S/ref=sr_1_155?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-155</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGH1H5M/ref=sr_1_155?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-155</t>
         </is>
       </c>
     </row>
@@ -7428,11 +7428,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PU Leather Protective Phone Case for Apple iPhone 17 | Camera Protection, Black</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7441,17 +7441,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Oncraves-Leather-Protective-iPhone-Protection/dp/B0FZW6BTPZ/ref=sr_1_156?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-156</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G3PN15TJ/ref=sr_1_156?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-156</t>
         </is>
       </c>
     </row>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12YJPK7/ref=sr_1_157?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-157</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_157?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-157</t>
         </is>
       </c>
     </row>
@@ -7518,11 +7518,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Case Cover for Apple iPhone 17 Pro | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Pro (Black)</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>159</v>
+        <v>309</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -7531,17 +7531,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG5ZK6D/ref=sr_1_158?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-158</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ87N5/ref=sr_1_158?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-158</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9V492D/ref=sr_1_159?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-159</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGH36WM/ref=sr_1_159?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-159</t>
         </is>
       </c>
     </row>
@@ -7608,11 +7608,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:14</t>
+          <t>2026-02-05 08:40:35</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGKW628/ref=sr_1_160?dib=eyJ2IjoiMSJ9.-jOdeSKHfz3lpwatL1W5bIdEOe43u6ShboQ_Dq2b49wkmIPzJDc88Y1DsCbQl4F5KQdFT901SI1vwcrO7euMvK01eej5Su5JYFABrTNltGnTYC4do3iIqV-o8wi8E95EZqwJwNmbda6tKcBlL4p4N_qH4zWSzzQVnvcxgpKNeUX85t5dedJg92qRDzJbfxgOqscRQnBKfn4DdkkD-hgeWQTlZ0UZgya2VrM2S2DiunE.B9C4xElU9kDZvA9CS6G5R9GU2eHsWjpc-ewpv4LiMhw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361601&amp;sr=8-160</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBWZN2H/ref=sr_1_160?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-160</t>
         </is>
       </c>
     </row>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>ExpressB</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7666,17 +7666,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_161?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-161</t>
+          <t>https://www.amazon.in/ExpressB%C2%AE-Transparent-Magsafe-Compatible-Shockproof/dp/B0FPB7NJC4/ref=sr_1_162?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-162</t>
         </is>
       </c>
     </row>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2232</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Air/dp/B0FTF9KLHG/ref=sr_1_162?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-162</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CF1WB/ref=sr_1_163?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-163</t>
         </is>
       </c>
     </row>
@@ -7743,11 +7743,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>ACAGET</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>159</v>
+        <v>975</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7761,12 +7761,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGHGMSW/ref=sr_1_163?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-163</t>
+          <t>https://www.amazon.in/ACAGET-iPhone-Dustproof-Protective-Shockproof/dp/B0G1SCQW7L/ref=sr_1_164?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-164</t>
         </is>
       </c>
     </row>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7806,12 +7806,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT8TQBNH/ref=sr_1_164?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-164</t>
+          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GGH1YB96/ref=sr_1_165?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-165</t>
         </is>
       </c>
     </row>
@@ -7833,11 +7833,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Back Cover for Apple iPhone 17 Air Designer, Printed,Transparent,Flexible, Silicon -D3165</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7851,12 +7851,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-Air-Transparent/dp/B0FWJTXSCW/ref=sr_1_165?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-165</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84N/ref=sr_1_166?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-166</t>
         </is>
       </c>
     </row>
@@ -7878,11 +7878,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>UNIGEN</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>159</v>
+        <v>838</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7891,17 +7891,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9V546Q/ref=sr_1_166?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-166</t>
+          <t>https://www.amazon.in/UNIGEN%C2%AE-Charger-Adapter-Compatible-Devices/dp/B0C5R5JQK7/ref=sr_1_167?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-167</t>
         </is>
       </c>
     </row>
@@ -7923,11 +7923,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Poohan Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection (Black)</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>159</v>
+        <v>2999</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7941,12 +7941,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9SD2QC/ref=sr_1_167?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-167</t>
+          <t>https://www.amazon.in/Poohan-Leather-Slide-Camera-iPhone/dp/B0FTRZZDJ5/ref=sr_1_168?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-168</t>
         </is>
       </c>
     </row>
@@ -7968,11 +7968,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 Pro 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Brown</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>299</v>
+        <v>999</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7981,17 +7981,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCWV3Y/ref=sr_1_168?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-168</t>
+          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRRD1BW1/ref=sr_1_169?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-169</t>
         </is>
       </c>
     </row>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>30W Car Charger for Apple iPhone 17 Pro Single USB Port High Speed Turbo Charge QC 3.0 Smart with 1.2m 3-in-1 Multi Cable Micro USB Android iOS Type-C USB Cable (White, SZ.L)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>499</v>
+        <v>147</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8031,12 +8031,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Charger-Apple-iPhone-17-Pro/dp/B0GFDBPJYT/ref=sr_1_169?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-169</t>
+          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-Air/dp/B0G3WCF6B8/ref=sr_1_170?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-170</t>
         </is>
       </c>
     </row>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8076,12 +8076,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9H3J8C/ref=sr_1_170?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-170</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_171?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-171</t>
         </is>
       </c>
     </row>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>159</v>
+        <v>999</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8121,12 +8121,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRG7FX2M/ref=sr_1_171?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-171</t>
+          <t>https://www.amazon.in/Dux-Ducis-Case-iPhone-Built/dp/B0FRB57HGY/ref=sr_1_172?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-172</t>
         </is>
       </c>
     </row>
@@ -8148,11 +8148,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>AIBEX</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -8161,17 +8161,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9T7QHK/ref=sr_1_172?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-172</t>
+          <t>https://www.amazon.in/AIBEX-iPhone-17-AIR-Compatible/dp/B0FTZBS5Q8/ref=sr_1_173?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-173</t>
         </is>
       </c>
     </row>
@@ -8193,11 +8193,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17air, Back Cover for Apple iPhone 17 Air -D1055</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGJXJJW/ref=sr_1_173?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-173</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD89DD/ref=sr_1_174?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-174</t>
         </is>
       </c>
     </row>
@@ -8238,11 +8238,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>298</v>
+        <v>999</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_174?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-174</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-CamShield-Layered-Protection/dp/B0FKHB89HH/ref=sr_1_175?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-175</t>
         </is>
       </c>
     </row>
@@ -8283,11 +8283,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Pro Max Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro Max – Brown</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -8296,17 +8296,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9H2JJ3/ref=sr_1_175?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-175</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0G117D5B4/ref=sr_1_176?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-176</t>
         </is>
       </c>
     </row>
@@ -8328,11 +8328,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8346,12 +8346,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:22</t>
+          <t>2026-02-05 08:40:42</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_176?dib=eyJ2IjoiMSJ9.oxboIpyymh3nOrH27tItYoSELoYIb51GMIH8QNPrjjKqTFLsgjhOM9uOR_fCXQwQ5P4252qOlgIZ4ESPBq6qkQ0Ch8DGrIa4yHm-n3RpnM-PuSegl_0RRRj7jKhPuqkm1v8Z9uXCTujDMFCHf_MQ3bArgNedQnQNGxX-AN88UiWsafOsOmUrYFOBBh6NDcWjvPNmY-E3qVvaUYf4FM4HMlvRXzjPsAi4UOj2xhZn2ok.3AtbYiOHwjlxWlTtFhdZlbV_zIXods28o7W01ZyMeHA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361614&amp;sr=8-176</t>
+          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_177?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-177</t>
         </is>
       </c>
     </row>
@@ -8373,11 +8373,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Back Case for iPhone 17, Print Silicone Stylish Back Cover Case for iPhone 17 -D0044</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -8391,12 +8391,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-iPhone-17-Silicone-Stylish/dp/B0FVFQHJDZ/ref=sr_1_177?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-177</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_177?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-177</t>
         </is>
       </c>
     </row>
@@ -8418,11 +8418,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Air - Clear</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>199</v>
+        <v>599</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8436,12 +8436,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCVR6M/ref=sr_1_178?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-178</t>
+          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_178?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-178</t>
         </is>
       </c>
     </row>
@@ -8463,11 +8463,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8481,12 +8481,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGMVMS8/ref=sr_1_179?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-179</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0G93C9CWH/ref=sr_1_179?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-179</t>
         </is>
       </c>
     </row>
@@ -8526,12 +8526,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9VD6RS/ref=sr_1_180?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-180</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG61R3J/ref=sr_1_180?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-180</t>
         </is>
       </c>
     </row>
@@ -8553,11 +8553,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>159</v>
+        <v>403</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -8571,12 +8571,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9RW7LH/ref=sr_1_181?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-181</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCJRLX/ref=sr_1_181?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-181</t>
         </is>
       </c>
     </row>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8611,17 +8611,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_182?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-182</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD1M1W/ref=sr_1_182?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-182</t>
         </is>
       </c>
     </row>
@@ -8643,11 +8643,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3148</t>
+          <t>Case Cover for Apple iPhone 17 Pro Max | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Pro Max (Black)</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -8661,12 +8661,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9ZRCW6/ref=sr_1_183?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-183</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNR1FR1T/ref=sr_1_183?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-183</t>
         </is>
       </c>
     </row>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D1220</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8706,12 +8706,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGG7G2M/ref=sr_1_184?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-184</t>
+          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXLQF23/ref=sr_1_184?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-184</t>
         </is>
       </c>
     </row>
@@ -8733,11 +8733,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Back Cover for Apple iPhone 17 Air Designer, Printed,Transparent,Flexible, Silicon -D1239</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -8746,17 +8746,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Apple-iPhone-Air-Transparent/dp/B0FWJRPM28/ref=sr_1_185?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-185</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLNSQV/ref=sr_1_185?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-185</t>
         </is>
       </c>
     </row>
@@ -8778,11 +8778,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D2149</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8791,17 +8791,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGZ5TX/ref=sr_1_186?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-186</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FHLYN/ref=sr_1_186?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-186</t>
         </is>
       </c>
     </row>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>239</v>
+        <v>474</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8841,12 +8841,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_187?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-187</t>
+          <t>https://www.amazon.in/V-TAN-Apple-17-Compatible-Protective/dp/B0G3Q7ZK75/ref=sr_1_187?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-187</t>
         </is>
       </c>
     </row>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Transparent Shockproof Back Cover for Apple iPhone 17 Pro Max | Soft TPU Slim Fit Mobile Case | Camera Protection | Premium Clear Case</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8886,12 +8886,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/VRYHK-Transparent-Shockproof-Protection-Premium/dp/B0FWGCY4CT/ref=sr_1_188?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-188</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G436VN2L/ref=sr_1_188?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-188</t>
         </is>
       </c>
     </row>
@@ -8913,11 +8913,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8931,12 +8931,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG22BZT/ref=sr_1_189?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-189</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCM7HC/ref=sr_1_189?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-189</t>
         </is>
       </c>
     </row>
@@ -8958,11 +8958,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D2257</t>
+          <t>iPhone 17 Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 – White</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8971,17 +8971,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNZ772/ref=sr_1_190?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-190</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSVZJB4/ref=sr_1_190?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-190</t>
         </is>
       </c>
     </row>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -9021,12 +9021,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT3666XH/ref=sr_1_191?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-191</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_191?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-191</t>
         </is>
       </c>
     </row>
@@ -9048,11 +9048,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Air -D3174</t>
+          <t>QsmQam</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -9061,17 +9061,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:30</t>
+          <t>2026-02-05 08:40:48</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGKCM4S/ref=sr_1_192?dib=eyJ2IjoiMSJ9.IrKYs2CgyzGwCAaieKXnq-hbs-gfZlFJ2W3eNYgGF5zYnf2HJQWPCUlCUISJ5JPQq2WO_mwXNASmxjrgUOcr00w-tVJGIaSA8Cg3kIHBimfSbZ3Y0HyJ-Md59R9LO2j0kuXjYy8OZJ8UI1Bm0yUkOwGQeUYjsZLwvO94F-HUESI8hINc-gZki7D-7BEcAsPfwzgeiPKo5PdQOr3F6WozWKzPpgJo1PHc6xqVFV5CX-E.ncf0GjHsHdcCAoAZWJ2iPLo3ng1nbugJ0tL9vElCfcw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361623&amp;sr=8-192</t>
+          <t>https://www.amazon.in/QsmQam-Advanced-Tempered-Compatible-Anti-Explosion/dp/B0FNLVSMHR/ref=sr_1_192?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-192</t>
         </is>
       </c>
     </row>
@@ -9093,11 +9093,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>PRITO</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>159</v>
+        <v>799</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9106,17 +9106,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGDB2JR/ref=sr_1_193?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-193</t>
+          <t>https://www.amazon.in/PRITO-iPhone-Air-Scratch-Resistant-Lightweight/dp/B0G2MLFPTR/ref=sr_1_193?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-193</t>
         </is>
       </c>
     </row>
@@ -9138,11 +9138,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>159</v>
+        <v>1999</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9151,17 +9151,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGDY1RK/ref=sr_1_194?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-194</t>
+          <t>https://www.amazon.in/DUX-DUCIS-Hivo-Case-iPhone/dp/B0FRB5L87M/ref=sr_1_194?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-194</t>
         </is>
       </c>
     </row>
@@ -9183,11 +9183,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Pink]</t>
+          <t>iPhone 17 Air Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Air – Grey</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -9201,12 +9201,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNHJ8G/ref=sr_1_195?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-195</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSXS8C6/ref=sr_1_195?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-195</t>
         </is>
       </c>
     </row>
@@ -9228,11 +9228,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>379</v>
+        <v>222</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9246,12 +9246,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_196?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-196</t>
+          <t>https://www.amazon.in/amazon-basics-Shockproof-Protection-Transparent/dp/B0FPCBD1HF/ref=sr_1_196?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-196</t>
         </is>
       </c>
     </row>
@@ -9273,11 +9273,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3097</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -9291,12 +9291,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9H1B8D/ref=sr_1_197?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-197</t>
+          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXQ6GRS/ref=sr_1_197?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-197</t>
         </is>
       </c>
     </row>
@@ -9318,11 +9318,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -9336,12 +9336,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG7FGDJ/ref=sr_1_198?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-198</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC11VZ2/ref=sr_1_198?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-198</t>
         </is>
       </c>
     </row>
@@ -9363,11 +9363,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D2006</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -9381,12 +9381,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGK74WY/ref=sr_1_199?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-199</t>
+          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCC1TCD/ref=sr_1_199?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-199</t>
         </is>
       </c>
     </row>
@@ -9408,11 +9408,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D3091</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -9426,12 +9426,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGZZJB/ref=sr_1_200?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-200</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Polycarbonate/dp/B0G1TNF78L/ref=sr_1_200?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-200</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Back Cover Case for Apple iPhone 17 Air Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 AIR Transparent)</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Pro-Transparent/dp/B0FRGL5MS4/ref=sr_1_201?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-201</t>
+          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV8HYZ1/ref=sr_1_201?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-201</t>
         </is>
       </c>
     </row>
@@ -9516,12 +9516,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H4R4V/ref=sr_1_202?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-202</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Air/dp/B0FRGMM4PK/ref=sr_1_202?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-202</t>
         </is>
       </c>
     </row>
@@ -9543,11 +9543,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -9561,12 +9561,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGHXJZK/ref=sr_1_203?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-203</t>
+          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FN4KSJPY/ref=sr_1_203?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-203</t>
         </is>
       </c>
     </row>
@@ -9588,11 +9588,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9606,12 +9606,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Pro/dp/B0FRGK9H9H/ref=sr_1_204?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-204</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Polycarbonate/dp/B0FZBDKFNF/ref=sr_1_204?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-204</t>
         </is>
       </c>
     </row>
@@ -9633,11 +9633,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9651,12 +9651,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRG5ZRKT/ref=sr_1_205?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-205</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCDK94D/ref=sr_1_205?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-205</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D0025</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -9691,17 +9691,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H38H4/ref=sr_1_206?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-206</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Polycarbonate/dp/B0G1HL9J76/ref=sr_1_206?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-206</t>
         </is>
       </c>
     </row>
@@ -9723,11 +9723,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -9741,12 +9741,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Premium-Printed-iPhone/dp/B0FC2PYC92/ref=sr_1_207?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-207</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSCWGYMW/ref=sr_1_207?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-207</t>
         </is>
       </c>
     </row>
@@ -9768,11 +9768,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D0014</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>159</v>
+        <v>850</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -9786,12 +9786,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:38</t>
+          <t>2026-02-05 08:40:54</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRG7GN21/ref=sr_1_208?dib=eyJ2IjoiMSJ9.Xp3W_Q_T7ColXHOuFp4KXWivd_GKWoWjLfV0OLd3cfgzXTLDLWyL8OQMYSni6nkIStvdp7bjD3ej06Bvy7mBvaIATYAs31llul_2Tu5kYaeQwxibsN9IjpWY_mYeesw9WXMIg3B69iaMBKNEwOOl6wyGZevrzT4ODWE5JR7G35VIgfs9OVwXDeMrPBKvbLX6NRTNLltXRL2hETO2q0j0uxT0Xxjb4UQIwxXPPOh0uyQ.DSm2HkgzBQ_AOm3K0_b3uPH-0FZDEYZA8J_VUmX2RGc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361631&amp;sr=8-208</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH6MTLC/ref=sr_1_208?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-208</t>
         </is>
       </c>
     </row>
@@ -9813,11 +9813,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D2230</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>159</v>
+        <v>850</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -9831,12 +9831,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRG7FGC9/ref=sr_1_209?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-209</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH6MTLC/ref=sr_1_209?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-209</t>
         </is>
       </c>
     </row>
@@ -9858,11 +9858,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D3272</t>
+          <t>iPhone 14 pro max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro max Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9876,12 +9876,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRGJFV7F/ref=sr_1_210?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-210</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVD3N8/ref=sr_1_210?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-210</t>
         </is>
       </c>
     </row>
@@ -9903,11 +9903,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9916,17 +9916,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0FSCYPVHK/ref=sr_1_211?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-211</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Silicon-Protection/dp/B0F946877P/ref=sr_1_211?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-211</t>
         </is>
       </c>
     </row>
@@ -9948,11 +9948,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D3222</t>
+          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9966,12 +9966,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGDWQGH/ref=sr_1_212?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-212</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_212?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-212</t>
         </is>
       </c>
     </row>
@@ -9993,11 +9993,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D3230</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10006,17 +10006,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRGMS6WZ/ref=sr_1_213?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-213</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0FSX9BX49/ref=sr_1_213?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-213</t>
         </is>
       </c>
     </row>
@@ -10038,11 +10038,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D2250</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10056,12 +10056,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGKZTG9/ref=sr_1_214?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-214</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC1TTF8/ref=sr_1_214?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-214</t>
         </is>
       </c>
     </row>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Pro, Back Cover for iPhone 17pro Printed Back Cover -D0159</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10101,12 +10101,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGGQ2ZX/ref=sr_1_215?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-215</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC8L7BM/ref=sr_1_215?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-215</t>
         </is>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -10146,12 +10146,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG7F8P9/ref=sr_1_216?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-216</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC6XSYL/ref=sr_1_216?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-216</t>
         </is>
       </c>
     </row>
@@ -10173,11 +10173,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D1230</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -10191,12 +10191,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CG8N6/ref=sr_1_217?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-217</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DW2V1/ref=sr_1_217?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-217</t>
         </is>
       </c>
     </row>
@@ -10218,11 +10218,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Mirror Finish Phone Case with Diamond Camera Frame for Apple iPhone 17, Grey, Reflective Design.</t>
+          <t>Back Cover Case for Apple iPhone 16 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 16 Transparent)</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -10231,17 +10231,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Oncraves-Mirror-Diamond-Reflective-Design/dp/B0GCR6FHDR/ref=sr_1_218?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-218</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR1QLSHG/ref=sr_1_218?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-218</t>
         </is>
       </c>
     </row>
@@ -10263,11 +10263,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2154</t>
+          <t>iPhone 15 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -10276,17 +10276,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TCVMY/ref=sr_1_219?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-219</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBXHVN7/ref=sr_1_219?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-219</t>
         </is>
       </c>
     </row>
@@ -10308,11 +10308,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2006</t>
+          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro 6.3" (2025) – Clear Shockproof Hard PC Back with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch TPU Frame – Transparent</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>159</v>
+        <v>2599</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10321,17 +10321,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9H1K32/ref=sr_1_220?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-220</t>
+          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRS5X8DW/ref=sr_1_220?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-220</t>
         </is>
       </c>
     </row>
@@ -10353,11 +10353,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1087</t>
+          <t>iPhone 13 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10366,17 +10366,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9T9LQY/ref=sr_1_221?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-221</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9WCSX/ref=sr_1_221?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-221</t>
         </is>
       </c>
     </row>
@@ -10398,11 +10398,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>159</v>
+        <v>599</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -10416,12 +10416,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGN37M9/ref=sr_1_222?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-222</t>
+          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8KP478/ref=sr_1_222?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-222</t>
         </is>
       </c>
     </row>
@@ -10443,11 +10443,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2244</t>
+          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>159</v>
+        <v>2499</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -10461,12 +10461,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V6GGP/ref=sr_1_223?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-223</t>
+          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_223?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-223</t>
         </is>
       </c>
     </row>
@@ -10488,11 +10488,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2267</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -10506,12 +10506,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:46</t>
+          <t>2026-02-05 08:41:01</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9V4ZYD/ref=sr_1_224?dib=eyJ2IjoiMSJ9.45fmVonZ7gRH22GX4zKpewer2a4OEFcPJiY9A6B5fDJJ1nhog2_7Jm9UNl07p9IFmvBNgILEZQOL7vkiVgkxh7sWB1eamAWKCpbdM8Jl_eqJLluQRc84V4CfJWtp9Bwjdr7yWyqr4_nq-gZpaYtApq7dfn_i4eg8YbFKHVuq-uYlkZDuYxux7V1hNgES7HF_iGHgS3jE9XpdxILafgj0X-Nxz8OihQ8lcVphcu8eUwU.63m3Y_yi7MXhD8cT2ds2RqJzN3sfPDsWaM9k4Pz7CC4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361638&amp;sr=8-224</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicon_Clear/dp/B0FC2FG2PQ/ref=sr_1_224?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-224</t>
         </is>
       </c>
     </row>
@@ -10533,11 +10533,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2244</t>
+          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>159</v>
+        <v>2499</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -10551,12 +10551,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V6GGP/ref=sr_1_225?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-225</t>
+          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_225?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-225</t>
         </is>
       </c>
     </row>
@@ -10578,11 +10578,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2223</t>
+          <t>iPhone 14 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -10591,17 +10591,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H2KCK/ref=sr_1_226?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-226</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5MWP3/ref=sr_1_226?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-226</t>
         </is>
       </c>
     </row>
@@ -10623,11 +10623,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D1165</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRGGZCP1/ref=sr_1_227?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-227</t>
+          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GCSRYTV5/ref=sr_1_227?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-227</t>
         </is>
       </c>
     </row>
@@ -10668,11 +10668,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1225</t>
+          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Pink]</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -10686,12 +10686,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9RNL47/ref=sr_1_228?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-228</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNHJ8G/ref=sr_1_228?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-228</t>
         </is>
       </c>
     </row>
@@ -10713,11 +10713,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1219</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9TJ3FS/ref=sr_1_229?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-229</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FBQF7/ref=sr_1_229?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-229</t>
         </is>
       </c>
     </row>
@@ -10758,11 +10758,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D3239</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -10776,12 +10776,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9RJG4N/ref=sr_1_230?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-230</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCC8S77/ref=sr_1_230?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-230</t>
         </is>
       </c>
     </row>
@@ -10803,11 +10803,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17air, Back Cover for Apple iPhone 17 Air -D3257</t>
+          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Shockproof Hard PC Back + TPU Frame with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch Case – Black</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>159</v>
+        <v>2599</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -10816,17 +10816,17 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Air/dp/B0FRGKFPW9/ref=sr_1_231?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-231</t>
+          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRN1CFY/ref=sr_1_231?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-231</t>
         </is>
       </c>
     </row>
@@ -10848,11 +10848,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -10866,12 +10866,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRGJSVPF/ref=sr_1_232?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-232</t>
+          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-Pro/dp/B0G4WQ2WLG/ref=sr_1_232?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-232</t>
         </is>
       </c>
     </row>
@@ -10893,11 +10893,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand - Solimo Armor Case for iPhone 17 Defender Case | Rotating Ring Holder &amp; Kickstand in-Built | Military Grade Armor | 360 Degree Protection Back Cover for iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -10911,12 +10911,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9H2ZDG/ref=sr_1_233?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-233</t>
+          <t>https://www.amazon.in/Amazon-Brand-Kickstand-Built-Protection/dp/B0FR4MC9VF/ref=sr_1_233?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-233</t>
         </is>
       </c>
     </row>
@@ -10938,11 +10938,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1156</t>
+          <t>Back Cover Case for Apple iPhone X/XS Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone X/XS Transparent)</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -10951,17 +10951,17 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H1G77/ref=sr_1_234?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-234</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3KDPMQ/ref=sr_1_234?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-234</t>
         </is>
       </c>
     </row>
@@ -10983,11 +10983,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1231</t>
+          <t>iPhone 16 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11001,12 +11001,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9V98FY/ref=sr_1_235?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-235</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC67Q49/ref=sr_1_235?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-235</t>
         </is>
       </c>
     </row>
@@ -11028,11 +11028,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D2198</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11046,12 +11046,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9CCMKW/ref=sr_1_236?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-236</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4SCN/ref=sr_1_236?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-236</t>
         </is>
       </c>
     </row>
@@ -11073,11 +11073,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2258</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11091,12 +11091,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG2417Z/ref=sr_1_237?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-237</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2BKJZ3/ref=sr_1_237?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-237</t>
         </is>
       </c>
     </row>
@@ -11118,11 +11118,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17-DP-113</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11131,17 +11131,17 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-Protector/dp/B0FZTVJQ8W/ref=sr_1_238?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-238</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBY8GXN/ref=sr_1_238?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-238</t>
         </is>
       </c>
     </row>
@@ -11163,11 +11163,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3276</t>
+          <t>iPhone 17 Pro Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro – Clear</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11176,17 +11176,17 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZTWSB/ref=sr_1_239?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-239</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSY9QSB/ref=sr_1_239?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-239</t>
         </is>
       </c>
     </row>
@@ -11208,11 +11208,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3212</t>
+          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11226,12 +11226,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-01-25 22:50:52</t>
+          <t>2026-02-05 08:41:09</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9CC75R/ref=sr_1_240?dib=eyJ2IjoiMSJ9.kO8pmVgvdIhD0Ac8JdHt5mZqRGJ-820D_u-xrpKxLMOkDaKTxja6pku9XJLlIDzN64MAtaTQhrqan9MefU5SYkmdDgxBJ5ySYPE5HsOE39ZYo-dFcWhX15CeYhJQb8-APK9-UsNOR64vu5LddsQDk1R1RMoLfAJkN63gYUDmc5XtEqmY80ljdVQiVwPH323duGRb5PVyicBlmD8nFSeuyomCAgDfhET_zId-0FK82O8.SuD_L3HMOWfEZ0CiMTSitQY5CH6QC0TaIX_DXf0b984&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361646&amp;sr=8-240</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC51CQX/ref=sr_1_240?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-240</t>
         </is>
       </c>
     </row>
@@ -11253,11 +11253,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3260</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11271,12 +11271,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9M439Q/ref=sr_1_241?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-241</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBQ9K1R/ref=sr_1_241?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-241</t>
         </is>
       </c>
     </row>
@@ -11298,11 +11298,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 14 pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11316,12 +11316,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9H3151/ref=sr_1_242?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-242</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVG6V5/ref=sr_1_242?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-242</t>
         </is>
       </c>
     </row>
@@ -11343,11 +11343,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2138</t>
+          <t>Bumper Corner Back Cover for Apple iPhone 17 Series (i-Phone 17 Pro (6.3))</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11361,12 +11361,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGNSNSW/ref=sr_1_243?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-243</t>
+          <t>https://www.amazon.in/YOFO-Bumper-Corner-iPhone-i-Phone/dp/B0FQPB7LQW/ref=sr_1_243?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-243</t>
         </is>
       </c>
     </row>
@@ -11388,11 +11388,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D2262</t>
+          <t>CarboProp Magnetic Case for iPhone 17 Pro 6.3" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>159</v>
+        <v>3499</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -11406,12 +11406,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGHK88C/ref=sr_1_244?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-244</t>
+          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRRTWDBW/ref=sr_1_244?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-244</t>
         </is>
       </c>
     </row>
@@ -11433,11 +11433,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3236</t>
+          <t>iPhone 17 Air Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -11451,12 +11451,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9T5Q43/ref=sr_1_245?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-245</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYC676/ref=sr_1_245?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-245</t>
         </is>
       </c>
     </row>
@@ -11478,11 +11478,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D3168</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -11496,12 +11496,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9H2XH6/ref=sr_1_246?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-246</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBZVVNP/ref=sr_1_246?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-246</t>
         </is>
       </c>
     </row>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 16e Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16e Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11541,12 +11541,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_247?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-247</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC3N7V9/ref=sr_1_247?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-247</t>
         </is>
       </c>
     </row>
@@ -11568,11 +11568,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -11586,12 +11586,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGM7W6Y/ref=sr_1_248?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-248</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCV1FD/ref=sr_1_248?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-248</t>
         </is>
       </c>
     </row>
@@ -11613,11 +11613,11 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -11631,12 +11631,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGHD66B/ref=sr_1_249?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-249</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DWDFW/ref=sr_1_249?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-249</t>
         </is>
       </c>
     </row>
@@ -11658,11 +11658,11 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -11676,12 +11676,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-Pro/dp/B0G4WPRHQD/ref=sr_1_250?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-250</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCFQCPM/ref=sr_1_250?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-250</t>
         </is>
       </c>
     </row>
@@ -11703,11 +11703,11 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D2265</t>
+          <t>Slim Soft Silicon *Anti Dust Plug* Shockproof Transparent TPU Back Case Cover for iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -11721,12 +11721,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9ZSMXK/ref=sr_1_251?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-251</t>
+          <t>https://www.amazon.in/Casotec-Silicon-Shockproof-Transparent-iPhone/dp/B0FQW3V5Z3/ref=sr_1_251?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-251</t>
         </is>
       </c>
     </row>
@@ -11748,11 +11748,11 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2154</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -11761,17 +11761,17 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TCVMY/ref=sr_1_252?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-252</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4C2L/ref=sr_1_252?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-252</t>
         </is>
       </c>
     </row>
@@ -11793,11 +11793,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3210</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -11811,12 +11811,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9S4YB5/ref=sr_1_253?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-253</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_253?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-253</t>
         </is>
       </c>
     </row>
@@ -11838,11 +11838,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1156</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -11856,12 +11856,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9H1G77/ref=sr_1_254?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-254</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2HPNS2/ref=sr_1_254?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-254</t>
         </is>
       </c>
     </row>
@@ -11883,11 +11883,11 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D1087</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -11901,12 +11901,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9T9LQY/ref=sr_1_255?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-255</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GJ9Y2/ref=sr_1_255?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-255</t>
         </is>
       </c>
     </row>
@@ -11928,11 +11928,11 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -11946,12 +11946,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:01</t>
+          <t>2026-02-05 08:41:17</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGMJ61S/ref=sr_1_256?dib=eyJ2IjoiMSJ9.9paAqYETijr89_ws1fUtchDUIDe_85wQ2lgI5x7UeeJRYIEfEnRbP-dL-oA_tWZQvj9G7eBjjgRSnCy5FCLAca5RATv2AaDQhjwhWVEt72_YY5IB99OA2OYbc3Mu2ZkAX5fAKmcBsS0SjzW3O3_P0Q_09at9L1LBMmZjTp3DbQ0xhAuYmZ0U6h2TycgZ39INHAedVz28O1DuIoXNHpI56XiPLfIlGv_bT5By541cTik.qeoj5oVV9Kc0NRZh8lVZTC3Wspy0mkvx7hMjunhS0aY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361653&amp;sr=8-256</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FHMBS/ref=sr_1_256?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-256</t>
         </is>
       </c>
     </row>
@@ -11973,11 +11973,11 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1136</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -11991,12 +11991,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9ZTWSC/ref=sr_1_257?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-257</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2F7M1B/ref=sr_1_257?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-257</t>
         </is>
       </c>
     </row>
@@ -12018,11 +12018,11 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17, Stylish Printed Back Cover for Apple iPhone 17 -D0014</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -12036,12 +12036,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Silicon-iPhone-17-Apple/dp/B0FR9R5DWY/ref=sr_1_258?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-258</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDMG87/ref=sr_1_258?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-258</t>
         </is>
       </c>
     </row>
@@ -12063,11 +12063,11 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Case-Mate</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>159</v>
+        <v>2314.01</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -12076,17 +12076,17 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGH34SP/ref=sr_1_259?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-259</t>
+          <t>https://www.amazon.in/Case-Mate-iPhone-Case-Compatible-MagSafe/dp/B0FKBYGQ96/ref=sr_1_259?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-259</t>
         </is>
       </c>
     </row>
@@ -12108,11 +12108,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -12126,12 +12126,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GFZL1/ref=sr_1_260?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-260</t>
+          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCGFWNN/ref=sr_1_260?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-260</t>
         </is>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Soft Silicone Designer Printed Full Protection Printed Back Case Cover for Apple iPhone 17 Pro -D3010</t>
+          <t>Transparent TPU Back Case Cover for Apple iPhone 17 Air with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Grip for iPhone 17 Air (Clear)</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -12166,17 +12166,17 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Protection-Apple-iPhone-Pro/dp/B0FRGLRG3R/ref=sr_1_261?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-261</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Air-Anti-Yellowing-Scratch-Resistant/dp/B0FQCPVRV4/ref=sr_1_261?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-261</t>
         </is>
       </c>
     </row>
@@ -12198,11 +12198,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D2246</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRGM8KC8/ref=sr_1_262?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-262</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G5Z57298/ref=sr_1_262?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-262</t>
         </is>
       </c>
     </row>
@@ -12243,11 +12243,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Mobile Skins Compatible with Apple iPhone 17 PRO Skin Not Back Cover, Camera &amp; Back Protector Mobile Skin Wrap; Apple iPhone 17 PRO-DP-47</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>229</v>
+        <v>999</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -12256,17 +12256,17 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/WRAP-CRAFT-Compatible-17-PRO/dp/B0FYXPTWZD/ref=sr_1_263?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-263</t>
+          <t>https://www.amazon.in/Ducis-Skin-Flip-Case-iPhone/dp/B0FRB1G3NR/ref=sr_1_263?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-263</t>
         </is>
       </c>
     </row>
@@ -12288,11 +12288,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Ringke</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>159</v>
+        <v>1564</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRG7FR7Z/ref=sr_1_264?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-264</t>
+          <t>https://www.amazon.in/Ringke-Rugged-Gear-Compatible-Protection/dp/B0FL8HZR22/ref=sr_1_264?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-264</t>
         </is>
       </c>
     </row>
@@ -12333,11 +12333,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2097</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>159</v>
+        <v>548</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -12346,17 +12346,17 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TP6JP/ref=sr_1_265?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-265</t>
+          <t>https://www.amazon.in/TDG-Executive-Leather-Magnetic-Compatible/dp/B0FRZKLS7S/ref=sr_1_265?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-265</t>
         </is>
       </c>
     </row>
@@ -12378,11 +12378,11 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR8XZRLM/ref=sr_1_266?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-266</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCCSKNZ/ref=sr_1_266?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-266</t>
         </is>
       </c>
     </row>
@@ -12423,11 +12423,11 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Pro Back Cover for Apple iPhone 17 Pro| Shockproof TPU Soft Flexible with Camera Protection -D1023</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -12441,12 +12441,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Pro/dp/B0FRGLQXHG/ref=sr_1_267?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-267</t>
+          <t>https://www.amazon.in/Kapa-Hawkeye-iPhone-Protector-Shockproof/dp/B0FGPB1663/ref=sr_1_267?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-267</t>
         </is>
       </c>
     </row>
@@ -12468,11 +12468,11 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1023</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -12486,12 +12486,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG5ZZDT/ref=sr_1_268?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-268</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Kickstand-Mobile-Rotating/dp/B0FC2G7MRC/ref=sr_1_268?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-268</t>
         </is>
       </c>
     </row>
@@ -12513,11 +12513,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Ringke</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>159</v>
+        <v>2199</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -12526,17 +12526,17 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGNJWCC/ref=sr_1_269?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-269</t>
+          <t>https://www.amazon.in/Ringke-UX-Magnetic-Compatible-Protective/dp/B0FL88W8J2/ref=sr_1_269?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-269</t>
         </is>
       </c>
     </row>
@@ -12558,11 +12558,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3244</t>
+          <t>CarboProp Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>159</v>
+        <v>3499</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -12576,12 +12576,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FRB17L69/ref=sr_1_270?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-270</t>
+          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRR9Q46Q/ref=sr_1_270?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-270</t>
         </is>
       </c>
     </row>
@@ -12603,11 +12603,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone Charger Cable(MFi Certified) Type C to Type C Cable for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, iPhone 15, Samsung Galaxy S24/S23/S22/S21 FE Laptop &amp; Other Devices</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>159</v>
+        <v>373</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -12616,17 +12616,17 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M5KP7/ref=sr_1_271?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-271</t>
+          <t>https://www.amazon.in/DR-VAKU-Braided-Type-Cable/dp/B0D1R85RMR/ref=sr_1_271?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-271</t>
         </is>
       </c>
     </row>
@@ -12648,11 +12648,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3256</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -12661,17 +12661,17 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:07</t>
+          <t>2026-02-05 08:41:25</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9JK664/ref=sr_1_272?dib=eyJ2IjoiMSJ9.dof5vvrO6fZnP5QmbkkhfxdPJYFqZPxXFzEeJyVwTRMfSSD-4t8Ud01Hs9pz2rWb7-Hn74Fo2gm8thDWyQywcKpFHOAw8TozskNpyDidsov0TgpXmDUpurCrHRMz1vUI1GrXAWxwkfnfOpl38I74-1mERBXJeuxuieS1j4b0MRNpmJasbFR62RjLXcwzX6vZb4k2ydqttFnJHo9Ist_TqtuKyv7ji-ssKtDqs7kyKSA.oohc0OGSWGItkka848IcTH5KCUlk1BgcIuGGIiH7kF0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361661&amp;sr=8-272</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0GCSFQLTR/ref=sr_1_272?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-272</t>
         </is>
       </c>
     </row>
@@ -12693,11 +12693,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Air Back Cover for Apple iPhone 17 Air| Shockproof TPU Soft Flexible with Camera Protection -D1023</t>
+          <t>CarboProp Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>159</v>
+        <v>3499</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -12711,12 +12711,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-Air/dp/B0FRG5ZZDT/ref=sr_1_273?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-273</t>
+          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRR9Q46Q/ref=sr_1_273?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-273</t>
         </is>
       </c>
     </row>
@@ -12738,11 +12738,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone Charger Cable(MFi Certified) Type C to Type C Cable for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, iPhone 15, Samsung Galaxy S24/S23/S22/S21 FE Laptop &amp; Other Devices</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>159</v>
+        <v>373</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -12751,17 +12751,17 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGNJWCC/ref=sr_1_274?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-274</t>
+          <t>https://www.amazon.in/DR-VAKU-Braided-Type-Cable/dp/B0D1R85RMR/ref=sr_1_274?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-274</t>
         </is>
       </c>
     </row>
@@ -12783,11 +12783,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3244</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -12796,17 +12796,17 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FRB17L69/ref=sr_1_275?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-275</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0GCSFQLTR/ref=sr_1_275?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-275</t>
         </is>
       </c>
     </row>
@@ -12828,11 +12828,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -12846,12 +12846,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M5KP7/ref=sr_1_276?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-276</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FL5XT/ref=sr_1_276?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-276</t>
         </is>
       </c>
     </row>
@@ -12873,11 +12873,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3256</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -12891,12 +12891,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9JK664/ref=sr_1_277?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-277</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_277?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-277</t>
         </is>
       </c>
     </row>
@@ -12918,11 +12918,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Soft Mobile Back Cover for Apple iPhone 17 (Silicone_Multicolor)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12936,12 +12936,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Silicone_Multicolor/dp/B0FR9H2MD1/ref=sr_1_278?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-278</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_278?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-278</t>
         </is>
       </c>
     </row>
@@ -12963,11 +12963,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3232</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>159</v>
+        <v>899</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12981,12 +12981,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR8XXYNV/ref=sr_1_279?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-279</t>
+          <t>https://www.amazon.in/Kapa-Frosted-Shockproof-Anti-Scratch-Anti-Slip/dp/B0FT8N2QXV/ref=sr_1_279?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-279</t>
         </is>
       </c>
     </row>
@@ -13008,11 +13008,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Soft Mobile Back Cover for Apple iPhone 17 (Silicone_Multicolor)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13026,12 +13026,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Silicone_Multicolor/dp/B0FR8XWMHZ/ref=sr_1_280?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-280</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_280?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-280</t>
         </is>
       </c>
     </row>
@@ -13053,11 +13053,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D1169</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13066,17 +13066,17 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGLKZQW/ref=sr_1_281?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-281</t>
+          <t>https://www.amazon.in/V-TAN-Ultra-Hybrid-Apple-17-Transparent/dp/B0FTLYXFMD/ref=sr_1_281?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-281</t>
         </is>
       </c>
     </row>
@@ -13098,11 +13098,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Pink Flowers Pattern Design Printed Silicon Soft TPU Back Case Cover for Apple iPhone 17 Pro Max</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9V546N/ref=sr_1_282?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-282</t>
+          <t>https://www.amazon.in/Casotec-Flowers-Pattern-Printed-Silicon/dp/B0FBX34534/ref=sr_1_282?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-282</t>
         </is>
       </c>
     </row>
@@ -13143,11 +13143,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13156,17 +13156,17 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M3XJ1/ref=sr_1_283?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-283</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9GTK1/ref=sr_1_283?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-283</t>
         </is>
       </c>
     </row>
@@ -13188,11 +13188,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Clear Case Compatible with iPhone 17, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for iPhone 17 - Black</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13201,17 +13201,17 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9H4XRR/ref=sr_1_284?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-284</t>
+          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FQNQRXRZ/ref=sr_1_284?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-284</t>
         </is>
       </c>
     </row>
@@ -13233,11 +13233,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13246,17 +13246,17 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR8XZ8PK/ref=sr_1_285?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-285</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Protection-Lavender/dp/B0F945XQNX/ref=sr_1_285?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-285</t>
         </is>
       </c>
     </row>
@@ -13278,11 +13278,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2236</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13296,12 +13296,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V3V6F/ref=sr_1_286?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-286</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFZ8S5/ref=sr_1_286?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-286</t>
         </is>
       </c>
     </row>
@@ -13323,11 +13323,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -13341,12 +13341,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_287?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-287</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FJ69X/ref=sr_1_287?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-287</t>
         </is>
       </c>
     </row>
@@ -13368,11 +13368,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -13386,12 +13386,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:13</t>
+          <t>2026-02-05 08:41:31</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGLDV1T/ref=sr_1_288?dib=eyJ2IjoiMSJ9.wNFKoTh-lYwoF8ZS-Lq_El6x4eECOO-ER0dKm5gzJFkUWFPFofh5PjljM5IpJQi9Lkow0FUd9cSSbLkyX4FE03eBD8tWntorIjpch1bbRhSxewFJIUyYNoRVoxjzWUqznQ5aOTsQY-AsUZw0hhlw6mHGMmLq--mnBlg9oz56xpRKdFLv_EB4Jxf5sAxdTgRxaK9UNT2EEzzYkICmAlxoHmpNIBFkj4Ce2vk5QHqmOdY.aly72xJ9U-8hvxmGXuw628U04LdXEoMCKgXDqlgqsyk&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361667&amp;sr=8-288</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DWDFW/ref=sr_1_288?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-288</t>
         </is>
       </c>
     </row>
@@ -13413,11 +13413,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D1169</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGLKZQW/ref=sr_1_289?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-289</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FL5XT/ref=sr_1_289?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-289</t>
         </is>
       </c>
     </row>
@@ -13458,11 +13458,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -13476,12 +13476,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9V546N/ref=sr_1_290?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-290</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_290?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-290</t>
         </is>
       </c>
     </row>
@@ -13503,11 +13503,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -13521,12 +13521,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M3XJ1/ref=sr_1_291?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-291</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_291?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-291</t>
         </is>
       </c>
     </row>
@@ -13548,11 +13548,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>159</v>
+        <v>899</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -13566,12 +13566,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9H4XRR/ref=sr_1_292?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-292</t>
+          <t>https://www.amazon.in/Kapa-Frosted-Shockproof-Anti-Scratch-Anti-Slip/dp/B0FT8N2QXV/ref=sr_1_292?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-292</t>
         </is>
       </c>
     </row>
@@ -13593,11 +13593,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -13611,12 +13611,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR8XZ8PK/ref=sr_1_293?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-293</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_293?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-293</t>
         </is>
       </c>
     </row>
@@ -13638,11 +13638,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D2236</t>
+          <t>Pink Flowers Pattern Design Printed Silicon Soft TPU Back Case Cover for Apple iPhone 17 Pro Max</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -13656,12 +13656,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9V3V6F/ref=sr_1_294?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-294</t>
+          <t>https://www.amazon.in/Casotec-Flowers-Pattern-Printed-Silicon/dp/B0FBX34534/ref=sr_1_294?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-294</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -13696,17 +13696,17 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_295?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-295</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9GTK1/ref=sr_1_295?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-295</t>
         </is>
       </c>
     </row>
@@ -13728,11 +13728,11 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Clear Case Compatible with iPhone 17, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for iPhone 17 - Black</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -13741,17 +13741,17 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGLDV1T/ref=sr_1_296?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-296</t>
+          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FQNQRXRZ/ref=sr_1_296?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-296</t>
         </is>
       </c>
     </row>
@@ -13773,11 +13773,11 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -13786,17 +13786,17 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGGZBMP/ref=sr_1_297?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-297</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Protection-Lavender/dp/B0F945XQNX/ref=sr_1_297?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-297</t>
         </is>
       </c>
     </row>
@@ -13818,11 +13818,11 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17air, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 Air -D3158</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -13836,12 +13836,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-iPhone-Transparent-Apple-Air/dp/B0FWJL1KNG/ref=sr_1_298?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-298</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFZ8S5/ref=sr_1_298?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-298</t>
         </is>
       </c>
     </row>
@@ -13863,11 +13863,11 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D3214</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -13881,12 +13881,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CFPYD/ref=sr_1_299?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-299</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FJ69X/ref=sr_1_299?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-299</t>
         </is>
       </c>
     </row>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -13926,12 +13926,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Pro/dp/B0FRG627K3/ref=sr_1_300?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-300</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DWDFW/ref=sr_1_300?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-300</t>
         </is>
       </c>
     </row>
@@ -13953,11 +13953,11 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Ofuca</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>159</v>
+        <v>599</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -13966,17 +13966,17 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9TK51P/ref=sr_1_301?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-301</t>
+          <t>https://www.amazon.in/Ofuca-Charging-Compatible-MacBook-AirPods/dp/B0GHR23P2T/ref=sr_1_301?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-301</t>
         </is>
       </c>
     </row>
@@ -13998,11 +13998,11 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 16 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -14011,17 +14011,17 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9S26WG/ref=sr_1_302?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-302</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC38H8T/ref=sr_1_302?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-302</t>
         </is>
       </c>
     </row>
@@ -14043,11 +14043,11 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -14061,12 +14061,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCFWLBR/ref=sr_1_303?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-303</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Mobile-Flexible-iPhone/dp/B0FC2D84SP/ref=sr_1_303?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-303</t>
         </is>
       </c>
     </row>
@@ -14088,11 +14088,11 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D1090</t>
+          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -14101,17 +14101,17 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:20</t>
+          <t>2026-02-05 08:41:37</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGG7V5L/ref=sr_1_304?dib=eyJ2IjoiMSJ9.Qm8XOlxw8SGKFoytIzFuomkMJUBvX3ibLvonhxHkNjgTj57WRJUjIms7-42Ujc_5QxOEsFLd1pU4KjT-OE8JK6AQnNNncpz-zqQzjtTr5SVBr3krF_2hxhTqzyKGoQJlq-JVdAFB7F1OFkLPrdcw41MBQm3d7TQ5NCjncs8FTjTpUIA9B7srdgd5OMweV59uREUQQb6_u4q8a8cALlbjkdaeVj5z6RSqNAZiXz-zUIA._lDSFs1nufeRAKRjniX2WCO9pTeo_s8lEmSCwTKHkTw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361673&amp;sr=8-304</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCCNM71/ref=sr_1_304?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-304</t>
         </is>
       </c>
     </row>
@@ -14133,11 +14133,11 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Transcend</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>159</v>
+        <v>25059</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -14146,17 +14146,17 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:26</t>
+          <t>2026-02-05 08:41:43</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TZSNJ/ref=sr_1_305?dib=eyJ2IjoiMSJ9.-RTqh8Kcd-59SRisLnfR-tMvp0MAF2fDtfsutG35OBY.AmJKHuPvrAvgtPb15wxFAqLnpGCe9hfsUUJYzaHCZxc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361681&amp;sr=8-305</t>
+          <t>https://www.amazon.in/Transcend-External-Portable-Certified-TS1TESD410C/dp/B0CRZBZHC1/ref=sr_1_305?dib=eyJ2IjoiMSJ9.NdfttV11c6488HLgUZPRPJQY4JoSC-vXq1G8H2KrWeg.zY7Hkd5gGWgIz-dXJwS-9cJ1PhEOP3FnHu92N6sDjAc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261097&amp;sr=8-305</t>
         </is>
       </c>
     </row>
@@ -14178,11 +14178,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -14196,12 +14196,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-01-25 22:51:26</t>
+          <t>2026-02-05 08:41:43</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9V87QC/ref=sr_1_306?dib=eyJ2IjoiMSJ9.-RTqh8Kcd-59SRisLnfR-tMvp0MAF2fDtfsutG35OBY.AmJKHuPvrAvgtPb15wxFAqLnpGCe9hfsUUJYzaHCZxc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1769361681&amp;sr=8-306</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_306?dib=eyJ2IjoiMSJ9.NdfttV11c6488HLgUZPRPJQY4JoSC-vXq1G8H2KrWeg.zY7Hkd5gGWgIz-dXJwS-9cJ1PhEOP3FnHu92N6sDjAc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261097&amp;sr=8-306</t>
         </is>
       </c>
     </row>

--- a/backend/static/Amazon_Unsorted.xlsx
+++ b/backend/static/Amazon_Unsorted.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-3</t>
+          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-3</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_4?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-4</t>
+          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_4?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-4</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
+          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -646,17 +646,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_5?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-5</t>
+          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQG1LPVF/ref=sr_1_6?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-6</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
+          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -691,17 +691,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQG1LPVF/ref=sr_1_6?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-6</t>
+          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_7?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-7</t>
         </is>
       </c>
     </row>
@@ -723,11 +723,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
+          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>174900</v>
+        <v>119000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -736,17 +736,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFBHQMJ/ref=sr_1_7?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-7</t>
+          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_8?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-8</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQFQF6D1/ref=sr_1_8?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-8</t>
+          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQFQF6D1/ref=sr_1_9?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-9</t>
         </is>
       </c>
     </row>
@@ -813,11 +813,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
+          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>119000</v>
+        <v>174900</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -826,17 +826,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_9?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-9</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQG1VB5Y/ref=sr_1_10?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-10</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
+          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -871,17 +871,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQG1VB5Y/ref=sr_1_10?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-10</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFBHQMJ/ref=sr_1_11?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-11</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFNQTTK/ref=sr_1_11?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-11</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFNQTTK/ref=sr_1_12?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-12</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQF5DG3P/ref=sr_1_12?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-12</t>
+          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQF5DG3P/ref=sr_1_13?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-13</t>
         </is>
       </c>
     </row>
@@ -993,11 +993,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54900</v>
+        <v>33999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1006,17 +1006,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-15-128-GB/dp/B0CHX2F5QT/ref=sr_1_13?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-13</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_14?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-14</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_14?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-14</t>
+          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_15?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-15</t>
         </is>
       </c>
     </row>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33999</v>
+        <v>109999</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_15?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-15</t>
+          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_16?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-16</t>
         </is>
       </c>
     </row>
@@ -1128,11 +1128,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>151899</v>
+        <v>22499</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_16?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-16</t>
+          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_17?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22499</v>
+        <v>151899</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:31</t>
+          <t>2026-02-05 10:01:54</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_17?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX23ZhMHqm6jokLBAw6MRn1z-jUWXtYSR3BN7YO8ETDzUif1XPDSuERVwmSbJSHJa3Ga37ycRDk-0EOVNoTXhlSxU08iY8ob_7cqCeEFbT2qX5xk9igBS1OPT8wxFKNtf_LJ7ZFbG5jmZ2Cf6CFjaEb_x5HWHAcO2d0XBN-lsyIQYaJrMx1dWfao1WKsU1gdqG98Dx9U4qhwV2czElWOrdakk.bsvWURURzQK2-tBSMUHiMp4d9XKjSuEdMSs8bGrqR0c&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260963&amp;sr=8-17</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_18?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-18</t>
         </is>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
+          <t>iPhone 17 Pro 512 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Silver</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>109999</v>
+        <v>154900</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_17?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-17</t>
+          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQF2ZJWT/ref=sr_1_19?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-19</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>166899</v>
+        <v>151899</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_18?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-18</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6L7PR2C/ref=sr_1_20?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-20</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>151899</v>
+        <v>166899</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6L7PR2C/ref=sr_1_19?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-19</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_21?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-21</t>
         </is>
       </c>
     </row>
@@ -1353,11 +1353,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>206899</v>
+        <v>299</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_20?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-20</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFMQMHY/ref=sr_1_22?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-22</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>246899</v>
+        <v>206899</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_21?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-21</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_23?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-23</t>
         </is>
       </c>
     </row>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>595</v>
+        <v>74999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_23?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-23</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_24?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-24</t>
         </is>
       </c>
     </row>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>74999</v>
+        <v>246899</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_24?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-24</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_25?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-25</t>
         </is>
       </c>
     </row>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iQOO</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>166899</v>
+        <v>72998</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_25?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-25</t>
+          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_26?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-26</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>246899</v>
+        <v>166899</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_26?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-26</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_27?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-27</t>
         </is>
       </c>
     </row>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone Charger Adapter 20W Type C (MFi-Certified) for iPhone 17/17 Air/17 Pro/17 Pro Max,16/16 Plus/Pro/Pro Max, 15/14/13/12/11 Series with PD 3.0 USB-C Fast Charging Adaptor</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>171899</v>
+        <v>473</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_27?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-27</t>
+          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_28?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-28</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>186899</v>
+        <v>246899</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_28?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-28</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_29?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-29</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>iQOO</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>72998</v>
+        <v>18499</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1726,17 +1726,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_29?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-29</t>
+          <t>https://www.amazon.in/Redmi-15-Midnight-Segments-Snapdragon/dp/B0FJFSHJ6Z/ref=sr_1_30?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-30</t>
         </is>
       </c>
     </row>
@@ -1758,11 +1758,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Type C (MFi-Certified) for iPhone 17/17 Air/17 Pro/17 Pro Max,16/16 Plus/Pro/Pro Max, 15/14/13/12/11 Series with PD 3.0 USB-C Fast Charging Adaptor</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>473</v>
+        <v>171899</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_30?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-30</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_31?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-31</t>
         </is>
       </c>
     </row>
@@ -1803,11 +1803,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>299</v>
+        <v>8999</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFLB369/ref=sr_1_31?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-31</t>
+          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_32?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-32</t>
         </is>
       </c>
     </row>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>72999</v>
+        <v>206899</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:38</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_32?dib=eyJ2IjoiMSJ9.N7pX6FCBuOoP-bdm54rvGcFzSnODMckSlAbRaCQpMhct1LdiiDtTlXPehNKU0JpZlvEKZToJEDtyp_AZX-I34B0yllyJ3WiQDr862xFGHGLt_G0DJBFM3Rbfs9_OEXJmSSA1F4TW3txTYUzSljq_8XojwnmLv0P49YXNFUGazDB0Dy05OX87QtAgGhKxObMz9L1HKwEtnyCiIbqflYeAIEyRnyjToffri5W-zvNqfTg.W5nyFSu4LWhCfc1iCTkoakLTobRB0klNRwB2dq5nYTM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260971&amp;sr=8-32</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KVWZ4P/ref=sr_1_33?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-33</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1893,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>18499</v>
+        <v>186899</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Redmi-15-Midnight-Segments-Snapdragon/dp/B0FJFSHJ6Z/ref=sr_1_33?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-33</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_34?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-34</t>
         </is>
       </c>
     </row>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
+          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>159900</v>
+        <v>595</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-Pro-TB-Titanium/dp/B0DGJ7YRZ1/ref=sr_1_34?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-34</t>
+          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_35?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-35</t>
         </is>
       </c>
     </row>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>174900</v>
+        <v>72999</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_35?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-35</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_36?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-36</t>
         </is>
       </c>
     </row>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8999</v>
+        <v>4900</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_36?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-36</t>
+          <t>https://www.amazon.in/Apple-iPhone-Clear-Case-MagSafe/dp/B0FQFV49W7/ref=sr_1_37?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-37</t>
         </is>
       </c>
     </row>
@@ -2073,11 +2073,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4900</v>
+        <v>174900</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2086,17 +2086,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Clear-Case-MagSafe/dp/B0FQFV49W7/ref=sr_1_37?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-37</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_38?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-38</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_38?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-38</t>
+          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_39?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-39</t>
         </is>
       </c>
     </row>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>129999</v>
+        <v>1799</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_39?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-39</t>
+          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_41?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-41</t>
         </is>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1799</v>
+        <v>129999</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_40?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-40</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_42?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-42</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_41?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-41</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_43?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-43</t>
         </is>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>iPhone 16 Pro 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>299</v>
+        <v>159900</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_42?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-42</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-TB-Titanium/dp/B0DGJ7YRZ1/ref=sr_1_44?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-44</t>
         </is>
       </c>
     </row>
@@ -2343,11 +2343,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>799</v>
+        <v>299</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_43?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-43</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_45?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-45</t>
         </is>
       </c>
     </row>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>159</v>
+        <v>799</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_44?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-44</t>
+          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_46?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-46</t>
         </is>
       </c>
     </row>
@@ -2451,12 +2451,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_45?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-45</t>
+          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_47?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-47</t>
         </is>
       </c>
     </row>
@@ -2478,11 +2478,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>214.14</v>
+        <v>159</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_46?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-46</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_48?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-48</t>
         </is>
       </c>
     </row>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>159</v>
+        <v>214.14</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_47?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-47</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_49?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-49</t>
         </is>
       </c>
     </row>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:46</t>
+          <t>2026-02-05 10:02:09</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVKGLF/ref=sr_1_48?dib=eyJ2IjoiMSJ9.QAsNvloFo9gFPQTir6pQ5Cy-p3opY3sQ2tCXnmHkFByI-lpxzZlnhmBqhoZYt235qkKpEPPIWycIeuLUHK_9MYiUsfYnKamUY0dAUvOFc2uOIlLO88IPFdWfccEiihZnIYgDLRzQqloVieJ4ZzvVTRG3jmqEaCqDyumQVJx6NoRQa11Fm9VEfcWl8v9Pu51BpkRCveChxesAO3AAKSCxKaYGH4ANb-BSG_vpo2jBsJc.E2LKsrhEr2MrTxnrB0ykA-_4vjbHxhTHE2EXeslA1Bs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260978&amp;sr=8-48</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_50?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-50</t>
         </is>
       </c>
     </row>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ray-Ban | Meta Wayfarer (Gen 1) - Matte Black, Polarised Gradient Graphite Lenses</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32100</v>
+        <v>399</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ray-Ban-Meta-Wayfarer-Gen-Polarised/dp/B0G24TJ9FQ/ref=sr_1_49?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-49</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVKGLF/ref=sr_1_51?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-51</t>
         </is>
       </c>
     </row>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
+          <t>TheGiftKart</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2671,17 +2671,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_50?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-50</t>
+          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_52?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-52</t>
         </is>
       </c>
     </row>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TheGiftKart</t>
+          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_51?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-51</t>
+          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_53?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-53</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_52?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-52</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_54?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-54</t>
         </is>
       </c>
     </row>
@@ -2806,17 +2806,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_53?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-53</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_55?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-55</t>
         </is>
       </c>
     </row>
@@ -2838,11 +2838,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFQY832/ref=sr_1_54?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-54</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_56?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-56</t>
         </is>
       </c>
     </row>
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>rts</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_55?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-55</t>
+          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_57?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-57</t>
         </is>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rts</t>
+          <t>Kratos</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>194</v>
+        <v>599</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_56?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-56</t>
+          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_58?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-58</t>
         </is>
       </c>
     </row>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFJL9XV/ref=sr_1_57?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-57</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9V2NTW/ref=sr_1_59?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-59</t>
         </is>
       </c>
     </row>
@@ -3018,11 +3018,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kratos</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>599</v>
+        <v>299</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3031,17 +3031,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_58?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-58</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_60?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-60</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year) (Email Delivery, No Physical Kit)</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>299</v>
+        <v>8499</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_59?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-59</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNT1PVP/ref=sr_1_61?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-61</t>
         </is>
       </c>
     </row>
@@ -3108,11 +3108,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFMMDYD/ref=sr_1_60?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-60</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBR2SS1/ref=sr_1_62?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-62</t>
         </is>
       </c>
     </row>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 Pro (1 Year) (Email Delivery, No Physical Kit)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>299</v>
+        <v>16999</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFL5T6P/ref=sr_1_61?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-61</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNQPM9L/ref=sr_1_63?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-63</t>
         </is>
       </c>
     </row>
@@ -3198,11 +3198,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>20W Type C Adapter [MFi Certified, 1 Yrs Warranty] Compatible for iPhone 17 Air/17 Pro &amp; Pro Max/iPhone 16/16e/16 Plus/16 Pro &amp; Pro Max,15/14/13/12/11 Series with PD Fast Charging Adaptor by AILKIN</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>299</v>
+        <v>579</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFJHZBR/ref=sr_1_62?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-62</t>
+          <t>https://www.amazon.in/Certified-Warranty-Compatible-Charging-AILKIN/dp/B0FQCQWJ3N/ref=sr_1_64?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-64</t>
         </is>
       </c>
     </row>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year) (Email Delivery, No Physical Kit)</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8499</v>
+        <v>599</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNT1PVP/ref=sr_1_63?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-63</t>
+          <t>https://www.amazon.in/Excelsior-Compatible-Premium-Leather-Protection/dp/B0FTBLG2HL/ref=sr_1_65?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-65</t>
         </is>
       </c>
     </row>
@@ -3288,11 +3288,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>USB C Cable for Carplay iPhone 17 Pro Max Air 16 15,18W 3A USB A to C Cable for Apple CarPlay &amp; Android Auto, 1M Length Type C Charging Cord for iPad Pro, iPad A16/Mini 6, Galaxy S25 S24 S23, Black</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>299</v>
+        <v>649</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:53</t>
+          <t>2026-02-05 10:02:16</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFN1BR3/ref=sr_1_64?dib=eyJ2IjoiMSJ9.KdqK6UFqXFmeldYeeDZTaWTtmcoVnTs7ZVyLPICK_rPOOgDIJ5uKsTBA29ZP2SEb3c3l0jw6jgd-JQvJh_41ddpzQbevlBgNvKm1bYlDp-LazLdv9cMQrOAU1oaRBq3UElNi-Z-lpetEpkIT7N_sw-9TQtDchjrEmxd4ju0p8f5xN80Gx3pgRkULyRLjFLtGuA8ZbcI07Q4qgpkzLLwrZ_4iSNU_WhC0_iVIsgvv5j8.7KSBstF-lp54pnNUcJ-3ME4TmOxGQCWIvGGUdlUAgzI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260986&amp;sr=8-64</t>
+          <t>https://www.amazon.in/Carplay-iPhone-CarPlay-Android-Length/dp/B0F13JSYFZ/ref=sr_1_66?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-66</t>
         </is>
       </c>
     </row>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>299</v>
+        <v>599</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3346,17 +3346,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNQ7WX/ref=sr_1_65?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-65</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_67?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-67</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3391,17 +3391,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBR2SS1/ref=sr_1_66?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-66</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_68?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-68</t>
         </is>
       </c>
     </row>
@@ -3423,11 +3423,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 Pro (1 Year) (Email Delivery, No Physical Kit)</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16999</v>
+        <v>399</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNQPM9L/ref=sr_1_67?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-67</t>
+          <t>https://www.amazon.in/Kapa-Fabric-Protective-iPhone-Shockproof/dp/B0FJKKSKX4/ref=sr_1_69?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-69</t>
         </is>
       </c>
     </row>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFMB9MQ/ref=sr_1_68?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-68</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KHPMR/ref=sr_1_70?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-70</t>
         </is>
       </c>
     </row>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>244.02</v>
+        <v>299</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3531,12 +3531,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQL1B9ZV/ref=sr_1_69?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-69</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD2RP9/ref=sr_1_71?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-71</t>
         </is>
       </c>
     </row>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>iPhone Charger Cable(MFi Certified) Type C to Type C Cable for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, iPhone 15, Samsung Galaxy S24/S23/S22/S21 FE Laptop &amp; Other Devices</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>599</v>
+        <v>373</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_70?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-70</t>
+          <t>https://www.amazon.in/DR-VAKU-Braided-Type-Cable/dp/B0D1R85RMR/ref=sr_1_72?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-72</t>
         </is>
       </c>
     </row>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>LIRAMARK</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFL5QPB/ref=sr_1_71?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-71</t>
+          <t>https://www.amazon.in/LIRAMARK-Anti-Smudge-protector-compatible-Installation/dp/B0FPCHMGHH/ref=sr_1_73?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-73</t>
         </is>
       </c>
     </row>
@@ -3648,11 +3648,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-17/dp/B0FR9S6SYL/ref=sr_1_72?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-72</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_74?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-74</t>
         </is>
       </c>
     </row>
@@ -3693,11 +3693,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LIRAMARK</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Anti-Smudge-protector-compatible-Installation/dp/B0FPCHMGHH/ref=sr_1_73?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-73</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_75?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-75</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3738,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_74?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-74</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9M3798/ref=sr_1_76?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-76</t>
         </is>
       </c>
     </row>
@@ -3783,11 +3783,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>198</v>
+        <v>1104.95</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Transparent/dp/B0FT8RZZQH/ref=sr_1_75?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-75</t>
+          <t>https://www.amazon.in/Belkin-Apple-Certified-Braided-USB-C/dp/B0DZ281V8K/ref=sr_1_77?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-77</t>
         </is>
       </c>
     </row>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>TheGiftKart</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFM2QPD/ref=sr_1_76?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-76</t>
+          <t>https://www.amazon.in/TheGiftKart-Translucent-iPhone-17-Shockproof/dp/B0FN8866YH/ref=sr_1_78?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-78</t>
         </is>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Verilux</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>299</v>
+        <v>1548</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFMM38V/ref=sr_1_77?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-77</t>
+          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_79?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-79</t>
         </is>
       </c>
     </row>
@@ -3936,12 +3936,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_78?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-78</t>
+          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_80?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-80</t>
         </is>
       </c>
     </row>
@@ -3963,11 +3963,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>259</v>
+        <v>399</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84Q/ref=sr_1_79?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-79</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PQXRBC/ref=sr_1_81?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-81</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4008,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>299</v>
+        <v>599</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4021,17 +4021,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-05 08:39:58</t>
+          <t>2026-02-05 10:02:24</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNVPKW/ref=sr_1_80?dib=eyJ2IjoiMSJ9.UznKvFvbUlPl4X0cNaNxUpoRo4ysl7EhTOmo5zjm93hmTumAhJr66EivSbDkAeBDeQ_1O5nUnEVvBvQ1Q0V0Pmhew_xoclVz2iA7aUww5hUUimkBwkr4xO3JWeXJZxlBSfslAYp72ij8aiUoK1lgh5uzDvL3K_lhMfXK53mulHXvKLj17KFikjkzRH20zk_EcnxyL26jDYnEep8aFgxEvIeSLgCIJ_gvYk3eUHRYYcA.Y5FobdKmB9ISzS_Sakyn01OS9uiJwhbgbLe9BjD8obw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260992&amp;sr=8-80</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXV5LGM/ref=sr_1_82?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-82</t>
         </is>
       </c>
     </row>
@@ -4053,11 +4053,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>UGREEN</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>299</v>
+        <v>2278</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFQC28N/ref=sr_1_81?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-81</t>
+          <t>https://www.amazon.in/UGREEN-Splitter-Multiport-Extender-Compatible/dp/B0D9Q9WCLX/ref=sr_1_83?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-83</t>
         </is>
       </c>
     </row>
@@ -4098,11 +4098,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>299</v>
+        <v>2499</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNVPKW/ref=sr_1_82?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-82</t>
+          <t>https://www.amazon.in/Spigen-PE2007-iPhone-Charger-Devices/dp/B09BYT72ZF/ref=sr_1_84?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-84</t>
         </is>
       </c>
     </row>
@@ -4143,11 +4143,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>269</v>
+        <v>899</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_83?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-83</t>
+          <t>https://www.amazon.in/Belkin-Braided-USB-C-Cable-Meter/dp/B0F8349N8V/ref=sr_1_85?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-85</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-Translucent-iPhone-17-Shockproof/dp/B0FN8866YH/ref=sr_1_84?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-84</t>
+          <t>https://www.amazon.in/TheGiftKart-Ultra-Hybrid-iPhone-17-Transparent/dp/B0FN89KT94/ref=sr_1_86?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-86</t>
         </is>
       </c>
     </row>
@@ -4233,11 +4233,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Verilux</t>
+          <t>eller santé</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1548</v>
+        <v>2797</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4246,17 +4246,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_85?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-85</t>
+          <t>https://www.amazon.in/Magnetic-Wireless-Charger-Dock-Compatible/dp/B09PBYS1TB/ref=sr_1_87?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-87</t>
         </is>
       </c>
     </row>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>599</v>
+        <v>295</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXV5LGM/ref=sr_1_86?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-86</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_88?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-88</t>
         </is>
       </c>
     </row>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_87?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-87</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX83N95/ref=sr_1_89?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-89</t>
         </is>
       </c>
     </row>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4381,17 +4381,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFL4LBT/ref=sr_1_88?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-88</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FRB25PDD/ref=sr_1_90?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-90</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Honeywell</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PQXRBC/ref=sr_1_89?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-89</t>
+          <t>https://www.amazon.in/Honeywell-Certified-Ultra-Fast-Compatible-Smartphones/dp/B098XKR233/ref=sr_1_91?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-91</t>
         </is>
       </c>
     </row>
@@ -4458,11 +4458,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4471,17 +4471,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFMRKMF/ref=sr_1_90?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-90</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_92?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-92</t>
         </is>
       </c>
     </row>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>AIBEX</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFM13FS/ref=sr_1_91?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-91</t>
+          <t>https://www.amazon.in/iPhone-Air-Anti-Fingerprint-Bubble-Free-Installation/dp/B0FJ5PNSCD/ref=sr_1_93?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-93</t>
         </is>
       </c>
     </row>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2499</v>
+        <v>598</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4561,17 +4561,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-PE2007-iPhone-Charger-Devices/dp/B09BYT72ZF/ref=sr_1_92?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-92</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXQYPKZ/ref=sr_1_94?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-94</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4611,12 +4611,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FNR78/ref=sr_1_93?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-93</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_95?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-95</t>
         </is>
       </c>
     </row>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Anker</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>999</v>
+        <v>3199</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4651,17 +4651,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Anker-Charger-Charging-iPhone-MacBook/dp/B0DG2PKSVK/ref=sr_1_94?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-94</t>
+          <t>https://www.amazon.in/Spigen-Aramid-MagFit-Compatible-iPhone/dp/B0FD2BYBFJ/ref=sr_1_96?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-96</t>
         </is>
       </c>
     </row>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3 in 1 MagSafe compatible Magnetic Foldable Wireless Charger for iPhone 17 to 12 Series | Compatible with AirPods 2/3, Pro2, Pro3 | Compatible with only Apple Watch Series | 23W Charging - Pearl White</t>
+          <t>Basesailor</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2649</v>
+        <v>699</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4696,17 +4696,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Magnetic-Foldable-Compatible-Wireless-Charging/dp/B0C3R8MMJD/ref=sr_1_95?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-95</t>
+          <t>https://www.amazon.in/Basesailor-Certified-Charging-Devices-Durable-High-Speed/dp/B0DCC3MKCK/ref=sr_1_97?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-97</t>
         </is>
       </c>
     </row>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>249</v>
+        <v>930</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:08</t>
+          <t>2026-02-05 10:02:34</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12XWVKQ/ref=sr_1_96?dib=eyJ2IjoiMSJ9.J1RK9wSrm-3DKIkdWX_nkxt5An1Vg4ZGZkv0047_CgDcQpXa7J6milBNUlKcPbUtXvycY20UQrB_Jt-z4dXg4lcZZnZKTp8QfGwGgEr7grmvOZnt5zLGOgUwz8DR5Cl35xaDNMgtXZ5ybMPPfgMRtiuT4prEa3A6pQAQFzw39ntT5bN8i3Pp9HRywj8E4WMjwRyhNfb1_JoLDV37jWK8UYsrU35iKFTFlvPU5abnZL8.nguyJbsLK2HPqusRACLx0oeF02UpiCfKgb2ReIRnc80&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770260998&amp;sr=8-96</t>
+          <t>https://www.amazon.in/Spigen-Liquid-Cover-Compatible-iPhone/dp/B0FD2JMYY8/ref=sr_1_98?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-98</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFJNHX9/ref=sr_1_97?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-97</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FFZ45/ref=sr_1_99?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-99</t>
         </is>
       </c>
     </row>
@@ -4818,11 +4818,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Ambrane</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>299</v>
+        <v>599</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4831,17 +4831,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD2RP9/ref=sr_1_98?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-98</t>
+          <t>https://www.amazon.in/Ambrane-Charger-Adapter-Devices-Lightning/dp/B0FB94J9CF/ref=sr_1_100?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-100</t>
         </is>
       </c>
     </row>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D1157</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4876,17 +4876,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX83N95/ref=sr_1_99?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-99</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TYXBV/ref=sr_1_101?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-101</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4921,17 +4921,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_100?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-100</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-Air/dp/B0G6TQNNWT/ref=sr_1_102?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-102</t>
         </is>
       </c>
     </row>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4971,12 +4971,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Thermoplastic-Polyurethane-Compatible/dp/B0FPX7J4TP/ref=sr_1_101?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-101</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_103?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-103</t>
         </is>
       </c>
     </row>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>SwanScout</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>295</v>
+        <v>4139</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5011,17 +5011,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_102?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-102</t>
+          <t>https://www.amazon.in/SwanScout-Wireless-Charging-Foldable-Magnetic/dp/B0DFBSKGMN/ref=sr_1_104?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-104</t>
         </is>
       </c>
     </row>
@@ -5043,11 +5043,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>OpenTech</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYHR9P/ref=sr_1_103?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-103</t>
+          <t>https://www.amazon.in/OpenTech%C2%AE-Compatible-iPhone-17-Transparent/dp/B0FP533C23/ref=sr_1_105?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-105</t>
         </is>
       </c>
     </row>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5101,17 +5101,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_104?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-104</t>
+          <t>https://www.amazon.in/Spigen-Charger-Adapter-Budget-Friendly-Earbuds/dp/B0G2LCL12G/ref=sr_1_106?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-106</t>
         </is>
       </c>
     </row>
@@ -5133,11 +5133,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>AIBEX</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5146,17 +5146,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-Anti-Fingerprint-Bubble-Free-Installation/dp/B0FJ5PNSCD/ref=sr_1_105?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-105</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0GC5SP927/ref=sr_1_107?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-107</t>
         </is>
       </c>
     </row>
@@ -5178,11 +5178,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5191,17 +5191,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKT7CJ/ref=sr_1_106?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-106</t>
+          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GCSKWN74/ref=sr_1_108?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-108</t>
         </is>
       </c>
     </row>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D0157</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5241,12 +5241,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT2ZN4LV/ref=sr_1_107?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-107</t>
+          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9S283X/ref=sr_1_109?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-109</t>
         </is>
       </c>
     </row>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>SwanScout</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>299</v>
+        <v>4139</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FFZ45/ref=sr_1_108?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-108</t>
+          <t>https://www.amazon.in/SwanScout-Wireless-Charger-Charging-Foldable/dp/B0DGCKNYSD/ref=sr_1_110?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-110</t>
         </is>
       </c>
     </row>
@@ -5313,11 +5313,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5326,17 +5326,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKJ35T/ref=sr_1_109?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-109</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_111?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-111</t>
         </is>
       </c>
     </row>
@@ -5358,11 +5358,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>eller santé</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2648</v>
+        <v>285</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5371,17 +5371,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/eller-Magnetic-Mag-Safe-Wireless-Grey/dp/B0CW6CKFG4/ref=sr_1_110?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-110</t>
+          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Polycarbonate/dp/B0FTFJZL7T/ref=sr_1_112?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-112</t>
         </is>
       </c>
     </row>
@@ -5403,11 +5403,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>399</v>
+        <v>240</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-Charger-Adapter-Budget-Friendly-Earbuds/dp/B0G2LCL12G/ref=sr_1_111?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-111</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_113?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-113</t>
         </is>
       </c>
     </row>
@@ -5448,11 +5448,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D0153</t>
+          <t>eller santé</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>159</v>
+        <v>2648</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5461,17 +5461,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:14</t>
+          <t>2026-02-05 10:02:43</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9GZ5R2/ref=sr_1_112?dib=eyJ2IjoiMSJ9.VYDmalKFDcPelMQEw0Crz_x9CpEoTcRmmCKUZsWRh4vFACsaHNg1UhnXKEmhR90dsEumtJ7Hw7PyeUZuA1VBheTn1W70zn5Odm9E2B-w4sb0KPMMWD8Kvl7Lx5JsMJBGVATL_j2jcS86a8P3ZHk46VnA60zOEu5fKmaRO968iAz7pgn5XQG7aMN1oo-0HFxo3tygzkxdzCetfYra6NHQ-WXERhqE37y9LrX-IQY5w8Q.9XtWxjM6jz8KgsCVAPABPvkuODgFtkJcKX5kzn9iOfI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261008&amp;sr=8-112</t>
+          <t>https://www.amazon.in/eller-Magnetic-Mag-Safe-Wireless-Grey/dp/B0CW6CKFG4/ref=sr_1_114?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-114</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -5506,17 +5506,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKLTZS/ref=sr_1_113?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-113</t>
+          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMX9HYRN/ref=sr_1_115?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-115</t>
         </is>
       </c>
     </row>
@@ -5538,11 +5538,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Compatible with iPhone 17 Camera Lens Protector Lavender (2-Pack) – 9H Tempered Glass, Military-Grade Anti-Scratch, Case-Friendly, Easy Install Frame</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>295</v>
+        <v>922</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5551,17 +5551,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-Air/dp/B0G6TQNNWT/ref=sr_1_114?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-114</t>
+          <t>https://www.amazon.in/Lensarmor-Compatible-17-Protector-Lavender/dp/B0FQKHJZV4/ref=sr_1_116?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-116</t>
         </is>
       </c>
     </row>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2232</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_115?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-115</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CF1WB/ref=sr_1_117?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-117</t>
         </is>
       </c>
     </row>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SwanScout</t>
+          <t>Zapcase</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4139</v>
+        <v>298</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5641,17 +5641,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SwanScout-Wireless-Charging-Foldable-Magnetic/dp/B0DFBSKGMN/ref=sr_1_116?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-116</t>
+          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0F94685RN/ref=sr_1_118?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-118</t>
         </is>
       </c>
     </row>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5686,17 +5686,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Polycarbonate/dp/B0FTFJZL7T/ref=sr_1_117?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-117</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_119?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-119</t>
         </is>
       </c>
     </row>
@@ -5718,11 +5718,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>159</v>
+        <v>498</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5731,17 +5731,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_118?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-118</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXLTGR4/ref=sr_1_120?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-120</t>
         </is>
       </c>
     </row>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>CYTRON</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>240</v>
+        <v>3490</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5776,17 +5776,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_119?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-119</t>
+          <t>https://www.amazon.in/MagSafe-Wireless-Charging-Mag-Safe-Magnetic/dp/B0DPJ274KH/ref=sr_1_121?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-121</t>
         </is>
       </c>
     </row>
@@ -5808,11 +5808,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3246</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_120?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-120</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CDKR7/ref=sr_1_122?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-122</t>
         </is>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Zapcase</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>298</v>
+        <v>1599</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5866,17 +5866,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0F946ZS29/ref=sr_1_121?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-121</t>
+          <t>https://www.amazon.in/Nillkin-Frosted-Magnetic-Protect-Transparent/dp/B0FKH9QX37/ref=sr_1_123?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-123</t>
         </is>
       </c>
     </row>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year)_Welcome Letter</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>285</v>
+        <v>8499</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5916,12 +5916,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G432VSH6/ref=sr_1_122?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-122</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-iPhone-_Welcome/dp/B0G1C6NCQW/ref=sr_1_124?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-124</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5956,17 +5956,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WPFK6D/ref=sr_1_123?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-123</t>
+          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W64BSK/ref=sr_1_125?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-125</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G1LYRW2M/ref=sr_1_124?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-124</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G3PQR3Y1/ref=sr_1_126?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-126</t>
         </is>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Flip Cover Back Case for iPhone 17 | Premium Leather Finish | Inbuilt Pockets &amp; Stand | Flip Cover Back Case for iPhone 17 (Coffee)</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>699</v>
+        <v>199</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6046,17 +6046,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Apple-Certified-USB-C-Cable/dp/B0F83FTDD5/ref=sr_1_125?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-125</t>
+          <t>https://www.amazon.in/Casotec-Premium-Leather-Inbuilt-Pockets/dp/B0FQNJ9W9C/ref=sr_1_127?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-127</t>
         </is>
       </c>
     </row>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDFB8C/ref=sr_1_126?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-126</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJCHYF/ref=sr_1_128?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-128</t>
         </is>
       </c>
     </row>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>ACAGET</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>149</v>
+        <v>975</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6141,12 +6141,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W64BSK/ref=sr_1_127?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-127</t>
+          <t>https://www.amazon.in/ACAGET-iPhone-Dustproof-Protective-Shockproof/dp/B0G1SCQW7L/ref=sr_1_129?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-129</t>
         </is>
       </c>
     </row>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:21</t>
+          <t>2026-02-05 10:02:50</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FPCVB/ref=sr_1_128?dib=eyJ2IjoiMSJ9.LWTHqvChiQlBXIwr6ehPtgRwz4CHP9YQdji2m9G_iVk0gMbWESecbQeKv5fqlDisBfqMykTlPwjJv00FQwkCTXdKdFbd7Mvf2Br1ZKLFxXduxZUzexIQ6XDhglLf0uStNe5oaekbIxjwZ8frqTL5VWkCztsQVdAAMr8pWtyBweebkUXndsg8avJnYh7_xk8xS4NOOTSfH0EkzZHoA7GwEtBDdW2M5zFrYYAKi9FrdQE.F8gO2BceQdQgiImPp9TbxMd7kyJ3r1y_EIlRkBfjMdI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261014&amp;sr=8-128</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBWZN2H/ref=sr_1_130?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-130</t>
         </is>
       </c>
     </row>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6226,17 +6226,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXLTGR4/ref=sr_1_129?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-129</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12YJPK7/ref=sr_1_131?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-131</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6271,17 +6271,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDWSWY/ref=sr_1_130?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-130</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_132?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-132</t>
         </is>
       </c>
     </row>
@@ -6303,11 +6303,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CYTRON</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3490</v>
+        <v>222.45</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6316,17 +6316,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MagSafe-Wireless-Charging-Mag-Safe-Magnetic/dp/B0DPJ274KH/ref=sr_1_131?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-131</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_133?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-133</t>
         </is>
       </c>
     </row>
@@ -6348,11 +6348,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6361,17 +6361,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXLQF24/ref=sr_1_132?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-132</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4NRK/ref=sr_1_134?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-134</t>
         </is>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6411,12 +6411,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Professional/dp/B0G437LQJM/ref=sr_1_133?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-133</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJ9HVZ/ref=sr_1_135?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-135</t>
         </is>
       </c>
     </row>
@@ -6438,11 +6438,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year)_Welcome Letter</t>
+          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Black</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>8499</v>
+        <v>999</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6456,12 +6456,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-iPhone-_Welcome/dp/B0G1C6NCQW/ref=sr_1_134?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-134</t>
+          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRS5X8DX/ref=sr_1_136?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-136</t>
         </is>
       </c>
     </row>
@@ -6483,11 +6483,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 17 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 Transparent)</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>161</v>
+        <v>999</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6496,17 +6496,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV96BLB/ref=sr_1_135?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-135</t>
+          <t>https://www.amazon.in/Nillkin-Frosted-Magnetic-Protect-Without/dp/B0FKH8V4TS/ref=sr_1_137?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-137</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>POPIO</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLKTVP/ref=sr_1_136?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-136</t>
+          <t>https://www.amazon.in/POPIO-iPhone-Pro-Max-Installation/dp/B0FPMK2QHX/ref=sr_1_138?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-138</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6586,17 +6586,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLQWTC/ref=sr_1_137?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-137</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Silicon-Protection/dp/B0F9497X2J/ref=sr_1_139?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-139</t>
         </is>
       </c>
     </row>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>399</v>
+        <v>849</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_138?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-138</t>
+          <t>https://www.amazon.in/Belkin-Charging-iPhone-Galaxy-Carplay/dp/B08558HKB1/ref=sr_1_140?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-140</t>
         </is>
       </c>
     </row>
@@ -6663,11 +6663,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>233</v>
+        <v>379</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_139?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-139</t>
+          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GGH1YB96/ref=sr_1_141?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-141</t>
         </is>
       </c>
     </row>
@@ -6708,11 +6708,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6721,17 +6721,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLLYZY/ref=sr_1_140?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-140</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G42ZJ34K/ref=sr_1_142?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-142</t>
         </is>
       </c>
     </row>
@@ -6753,11 +6753,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Zapcase</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6766,17 +6766,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0FHB9GSCF/ref=sr_1_141?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-141</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84N/ref=sr_1_143?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-143</t>
         </is>
       </c>
     </row>
@@ -6798,11 +6798,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>VNJ Protective Charger Case for iPhone 18W 20W iPhone 17 16 15 14 13 12 11 Pro Max Charging Cable Charger Protective Cover Data Cable Protective Sleeve(Star Black Astronaut)</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6811,17 +6811,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJ9HVZ/ref=sr_1_142?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-142</t>
+          <t>https://www.amazon.in/VNJ-ACCESSORIES-Protective-Charging-Astronaut/dp/B0CZHXSCCT/ref=sr_1_144?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-144</t>
         </is>
       </c>
     </row>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6861,12 +6861,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G2BZ5/ref=sr_1_143?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-143</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_145?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-145</t>
         </is>
       </c>
     </row>
@@ -6888,11 +6888,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>UNIGEN</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>222.45</v>
+        <v>838</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6901,17 +6901,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:28</t>
+          <t>2026-02-05 10:02:58</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_144?dib=eyJ2IjoiMSJ9.vDxwrYTCXWbTxhfmeW9ySc3fEI1SPCMRA7T92BcdwwpJ6dLJwV62h8SXskf1JMvyI1YLgDwn3MAi3LLdDgMZ_puP4bJyHvse4fhVXX1Xm62YrsAC5rHCTuoJQlZuRSugcqNEhwnr6rFS6BUoQ2qyL-cPTTT0cwFCUwoymKGsEwWL67U6nVfgM40GL83Hr-wcGL0QFOQ2vqNG2qlfNfHAQmlPBjroK4k0g7rFb1UvZMc.sAVy9cLCjTLJPP5gHFbKS0TWo5Nmu9ntcu2c90rmDI0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261021&amp;sr=8-144</t>
+          <t>https://www.amazon.in/UNIGEN%C2%AE-Charger-Adapter-Compatible-Devices/dp/B0C5R5JQK7/ref=sr_1_146?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-146</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ExpressB</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>310</v>
+        <v>499</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6951,12 +6951,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ExpressB%C2%AE-Transparent-Shockproof-ThinProtect-Cover-Deep/dp/B0FPD3NJZ3/ref=sr_1_145?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-145</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_147?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-147</t>
         </is>
       </c>
     </row>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Pro - Clear</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6996,12 +6996,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Premium-Shockproof-Transparent-Built/dp/B0FDGW7D1W/ref=sr_1_146?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-146</t>
+          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FSKK6ZZP/ref=sr_1_148?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-148</t>
         </is>
       </c>
     </row>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7041,12 +7041,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G12TJCL6/ref=sr_1_147?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-147</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0G93C9CWH/ref=sr_1_149?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-149</t>
         </is>
       </c>
     </row>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 Pro 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Brown</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>299</v>
+        <v>999</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDRBGD/ref=sr_1_148?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-148</t>
+          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRRD1BW1/ref=sr_1_150?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-150</t>
         </is>
       </c>
     </row>
@@ -7113,11 +7113,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>GADGETS WRAP</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>499</v>
+        <v>199</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7131,12 +7131,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXPXGT9/ref=sr_1_149?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-149</t>
+          <t>https://www.amazon.in/GADGETS-WRAP-Printed-Sticker-iPhone/dp/B0FSDDQPQH/ref=sr_1_151?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-151</t>
         </is>
       </c>
     </row>
@@ -7158,11 +7158,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 15 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 15 Transparent)</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7171,17 +7171,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3D9M86/ref=sr_1_150?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-150</t>
+          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXJ8XK2/ref=sr_1_152?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-152</t>
         </is>
       </c>
     </row>
@@ -7203,11 +7203,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Pelican</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>399</v>
+        <v>1804.05</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7216,17 +7216,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G3PQR3Y1/ref=sr_1_151?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-151</t>
+          <t>https://www.amazon.in/Pelican-Compatible-Magnetic-Military-Grade-Protection/dp/B0FVF1HC25/ref=sr_1_153?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-153</t>
         </is>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>379</v>
+        <v>848</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7261,17 +7261,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_152?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-152</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Frosted-Protect-Without/dp/B0FKH85NS9/ref=sr_1_154?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-154</t>
         </is>
       </c>
     </row>
@@ -7293,11 +7293,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1216</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7311,12 +7311,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0GC5SP927/ref=sr_1_153?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-153</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9M49WS/ref=sr_1_155?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-155</t>
         </is>
       </c>
     </row>
@@ -7338,11 +7338,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Black</t>
+          <t>Poohan Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection (Black)</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>999</v>
+        <v>2999</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRS5X8DX/ref=sr_1_154?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-154</t>
+          <t>https://www.amazon.in/Poohan-Leather-Slide-Camera-iPhone/dp/B0FTRZZDJ5/ref=sr_1_156?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-156</t>
         </is>
       </c>
     </row>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D3238</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>159</v>
+        <v>950</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGH1H5M/ref=sr_1_155?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-155</t>
+          <t>https://www.amazon.in/Nillkin-Camshield-Genuine-Classic-Leather/dp/B0FKH65KCW/ref=sr_1_157?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-157</t>
         </is>
       </c>
     </row>
@@ -7428,11 +7428,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>COVERBLACK</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>399</v>
+        <v>219</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7441,17 +7441,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G3PN15TJ/ref=sr_1_156?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-156</t>
+          <t>https://www.amazon.in/COVERBLACK-Shockproof-Polycarbonate-Compatible-A_pple/dp/B0GDH44TLS/ref=sr_1_158?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-158</t>
         </is>
       </c>
     </row>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>499</v>
+        <v>999</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_157?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-157</t>
+          <t>https://www.amazon.in/Nillkin-Camshield-Genuine-Classic-Leather/dp/B0FKH6XXST/ref=sr_1_159?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-159</t>
         </is>
       </c>
     </row>
@@ -7518,11 +7518,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Case Cover for Apple iPhone 17 Pro | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Pro (Black)</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>309</v>
+        <v>474</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -7531,17 +7531,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ87N5/ref=sr_1_158?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-158</t>
+          <t>https://www.amazon.in/V-TAN-Apple-17-Compatible-Protective/dp/B0G3Q7ZK75/ref=sr_1_160?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-160</t>
         </is>
       </c>
     </row>
@@ -7563,11 +7563,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>159</v>
+        <v>599</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGH36WM/ref=sr_1_159?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-159</t>
+          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_161?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-161</t>
         </is>
       </c>
     </row>
@@ -7608,11 +7608,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>Hagibis</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>399</v>
+        <v>1199</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7621,17 +7621,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:35</t>
+          <t>2026-02-05 10:03:05</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBWZN2H/ref=sr_1_160?dib=eyJ2IjoiMSJ9.pF_K_nnYLIkaxGx6jdBUbN5Y-ddwx6behOIwmkSE_jE4rvSxGug8I0WfUmFxonZAC18N5fjgiRw1G-tFFfAAbdyVdh4QZKi-nqllEPxuHcYMS8CBXuM4213izHUS7AO2JjjzJpwzdPuUwi_AAiLizy907TDuLX5WwSD8LWvFAFqhsTLPUmZtMYRsqKMq8SLv2-MUByeYpUEhW72RtX2KskMfHF89FVI1vTbBjv8E5a8.NXVT-M7NcfQMw_hoSEmhjwyqOVqt_uOQy7bmi-ipTIA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261028&amp;sr=8-160</t>
+          <t>https://www.amazon.in/Hagibis-Transfer-Charging-Thunderbolt-Straight/dp/B0G4D8WMLC/ref=sr_1_162?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-162</t>
         </is>
       </c>
     </row>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ExpressB</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>310</v>
+        <v>999</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7666,17 +7666,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ExpressB%C2%AE-Transparent-Magsafe-Compatible-Shockproof/dp/B0FPB7NJC4/ref=sr_1_162?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-162</t>
+          <t>https://www.amazon.in/Dux-Ducis-Case-iPhone-Built/dp/B0FRB57HGY/ref=sr_1_163?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-163</t>
         </is>
       </c>
     </row>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2232</t>
+          <t>Hagibis</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>159</v>
+        <v>1199</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CF1WB/ref=sr_1_163?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-163</t>
+          <t>https://www.amazon.in/Hagibis-Transfer-Charging-Thunderbolt-Straight/dp/B0G4D8WMLC/ref=sr_1_164?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-164</t>
         </is>
       </c>
     </row>
@@ -7743,11 +7743,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ACAGET</t>
+          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>975</v>
+        <v>379</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7756,17 +7756,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ACAGET-iPhone-Dustproof-Protective-Shockproof/dp/B0G1SCQW7L/ref=sr_1_164?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-164</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_165?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-165</t>
         </is>
       </c>
     </row>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7806,12 +7806,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GGH1YB96/ref=sr_1_165?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-165</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9SQND2/ref=sr_1_166?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-166</t>
         </is>
       </c>
     </row>
@@ -7833,11 +7833,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 17 Pro Max Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro Max – Brown</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7846,17 +7846,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84N/ref=sr_1_166?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-166</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0G117D5B4/ref=sr_1_167?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-167</t>
         </is>
       </c>
     </row>
@@ -7878,11 +7878,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>UNIGEN</t>
+          <t>Back Cover Case for Apple iPhone 17 Air Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 AIR Transparent)</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>838</v>
+        <v>159</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7891,17 +7891,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UNIGEN%C2%AE-Charger-Adapter-Compatible-Devices/dp/B0C5R5JQK7/ref=sr_1_167?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-167</t>
+          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV8HYZ1/ref=sr_1_168?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-168</t>
         </is>
       </c>
     </row>
@@ -7923,11 +7923,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Poohan Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection (Black)</t>
+          <t>Golden Sand</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2999</v>
+        <v>799</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7941,12 +7941,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Poohan-Leather-Slide-Camera-iPhone/dp/B0FTRZZDJ5/ref=sr_1_168?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-168</t>
+          <t>https://www.amazon.in/Golden-Sand-Crystal-Cover-iPhone/dp/B0FQNPGKNZ/ref=sr_1_169?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-169</t>
         </is>
       </c>
     </row>
@@ -7968,11 +7968,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 Pro 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Brown</t>
+          <t>SwanScout</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>999</v>
+        <v>5995</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7981,17 +7981,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRRD1BW1/ref=sr_1_169?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-169</t>
+          <t>https://www.amazon.in/SwanScout-Charger-Wireless-AirPods-Included/dp/B0DR5QN2D9/ref=sr_1_170?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-170</t>
         </is>
       </c>
     </row>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>147</v>
+        <v>898.99</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8031,12 +8031,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-Air/dp/B0G3WCF6B8/ref=sr_1_170?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-170</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH6MTLC/ref=sr_1_171?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-171</t>
         </is>
       </c>
     </row>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8076,12 +8076,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_171?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-171</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_172?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-172</t>
         </is>
       </c>
     </row>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>DUX DUCIS</t>
+          <t>QsmQam</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>999</v>
+        <v>299</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8116,17 +8116,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Dux-Ducis-Case-iPhone-Built/dp/B0FRB57HGY/ref=sr_1_172?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-172</t>
+          <t>https://www.amazon.in/QsmQam-Advanced-Tempered-Compatible-Anti-Explosion/dp/B0FNLVSMHR/ref=sr_1_173?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-173</t>
         </is>
       </c>
     </row>
@@ -8148,11 +8148,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>AIBEX</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -8161,17 +8161,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/AIBEX-iPhone-17-AIR-Compatible/dp/B0FTZBS5Q8/ref=sr_1_173?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-173</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX9HHPD/ref=sr_1_174?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-174</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8206,17 +8206,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD89DD/ref=sr_1_174?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-174</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCWV3Y/ref=sr_1_175?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-175</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-iPhone-CamShield-Layered-Protection/dp/B0FKHB89HH/ref=sr_1_175?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-175</t>
+          <t>https://www.amazon.in/Nillkin-CamShield-Layered-Protection-Transparent/dp/B0FKH71JST/ref=sr_1_176?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-176</t>
         </is>
       </c>
     </row>
@@ -8283,11 +8283,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro Max – Brown</t>
+          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Gray]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -8296,17 +8296,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0G117D5B4/ref=sr_1_176?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-176</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNTCG5/ref=sr_1_177?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-177</t>
         </is>
       </c>
     </row>
@@ -8328,11 +8328,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>ESR</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>599</v>
+        <v>3569</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8341,17 +8341,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:42</t>
+          <t>2026-02-05 10:03:12</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_177?dib=eyJ2IjoiMSJ9.jEed8o6bgdRq8MexAIu8hs7hQ0GK_zSbcwEVl9cjPPBoJlhHH6EyaEJz2fAArnC8tk5NjV7ZAf3EWBHMRAnTPI9V7QJItG6bByPkgu6nn1EJ7vIHZ3Vu-mtwnel9Z-HFc82v4cU2u6WoxF9vfweJgKXQJ06xlt8L7GzM-VSYGpQZQ5-tkk1F3de60nymbQks9S80CNNjSweA3qMXE3FkL6chHBZR9ApSmuQ2SQmdTb0.62MmCUJ-G3tRa3p2U2dttedcuzY3iYzKC3mhQFmIEi4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261035&amp;sr=8-177</t>
+          <t>https://www.amazon.in/ESR-Functionality-Blocking-Adjustable-Magnetic/dp/B0FVFGPP7N/ref=sr_1_178?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-178</t>
         </is>
       </c>
     </row>
@@ -8373,11 +8373,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -8391,12 +8391,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_177?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-177</t>
+          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FN4KMV7Y/ref=sr_1_179?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-179</t>
         </is>
       </c>
     </row>
@@ -8418,11 +8418,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>67W Charger for Apple iPhone 17 Original QC Adapter Type C 3.0A High Speed Fast Turbo Charge QC 3.0 Smart SinglePort with 1m Type-C Charging &amp; Sync Cable (White, 67W,SP-60)</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>599</v>
+        <v>390</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8436,12 +8436,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_178?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-178</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Original-SinglePort/dp/B0GJ64FPMZ/ref=sr_1_180?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-180</t>
         </is>
       </c>
     </row>
@@ -8463,11 +8463,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>UNIGEN</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>299</v>
+        <v>1999</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8476,17 +8476,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0G93C9CWH/ref=sr_1_179?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-179</t>
+          <t>https://www.amazon.in/UNIGEN-Magtec-330-Qi-Enabled-White/dp/B0FQCH1PDX/ref=sr_1_181?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-181</t>
         </is>
       </c>
     </row>
@@ -8508,11 +8508,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8526,12 +8526,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG61R3J/ref=sr_1_180?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-180</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC11VZ2/ref=sr_1_182?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-182</t>
         </is>
       </c>
     </row>
@@ -8553,11 +8553,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Self-Healing Screen Protector for Apple iPhone 17 Pro, Invisible Bubble-Free Protection - With Easy Installation kit (Clear Total Body)</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>403</v>
+        <v>649</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -8571,12 +8571,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCJRLX/ref=sr_1_181?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-181</t>
+          <t>https://www.amazon.in/Gadgets-Protector-Apple-iPhone-Pro/dp/B0FR9L839L/ref=sr_1_183?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-183</t>
         </is>
       </c>
     </row>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Three Color Stripes Printed Silicon Soft TPU Back Case Cover for iPhone 17 Pro Max</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8616,12 +8616,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD1M1W/ref=sr_1_182?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-182</t>
+          <t>https://www.amazon.in/Casotec-Stripes-Printed-Silicon-iPhone/dp/B0FQWDS4DH/ref=sr_1_184?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-184</t>
         </is>
       </c>
     </row>
@@ -8643,11 +8643,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Case Cover for Apple iPhone 17 Pro Max | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Pro Max (Black)</t>
+          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -8661,12 +8661,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNR1FR1T/ref=sr_1_183?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-183</t>
+          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCVR6M/ref=sr_1_185?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-185</t>
         </is>
       </c>
     </row>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8706,12 +8706,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXLQF23/ref=sr_1_184?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-184</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_186?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-186</t>
         </is>
       </c>
     </row>
@@ -8733,11 +8733,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>299</v>
+        <v>474</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -8746,17 +8746,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLNSQV/ref=sr_1_185?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-185</t>
+          <t>https://www.amazon.in/V-TAN-Cover-Apple-Pro-Back/dp/B0FTM1KQP6/ref=sr_1_187?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-187</t>
         </is>
       </c>
     </row>
@@ -8778,11 +8778,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8791,17 +8791,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FHLYN/ref=sr_1_186?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-186</t>
+          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCFWLBR/ref=sr_1_188?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-188</t>
         </is>
       </c>
     </row>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D2257</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>474</v>
+        <v>199</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8841,12 +8841,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Apple-17-Compatible-Protective/dp/B0G3Q7ZK75/ref=sr_1_187?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-187</t>
+          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNZ772/ref=sr_1_189?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-189</t>
         </is>
       </c>
     </row>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8886,12 +8886,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G436VN2L/ref=sr_1_188?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-188</t>
+          <t>https://www.amazon.in/Kapa-Smoked-Hawkeye-Protector-Shockproof/dp/B0G1L754DY/ref=sr_1_190?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-190</t>
         </is>
       </c>
     </row>
@@ -8913,11 +8913,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Poohan Qin Pro Leather Case with Slide Camera Cover for iPhone 17 Pro 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection (Black)</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>253</v>
+        <v>2999</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8931,12 +8931,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCM7HC/ref=sr_1_189?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-189</t>
+          <t>https://www.amazon.in/Poohan-Leather-Slide-Camera-iPhone/dp/B0FTS7KJ3X/ref=sr_1_191?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-191</t>
         </is>
       </c>
     </row>
@@ -8976,12 +8976,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSVZJB4/ref=sr_1_190?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-190</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSVZJB4/ref=sr_1_192?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-192</t>
         </is>
       </c>
     </row>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 17 Air Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Air – Grey</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -9021,12 +9021,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_191?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-191</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSXS8C6/ref=sr_1_193?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-193</t>
         </is>
       </c>
     </row>
@@ -9048,11 +9048,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>QsmQam</t>
+          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>299</v>
+        <v>2499</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -9061,17 +9061,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:48</t>
+          <t>2026-02-05 10:03:19</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/QsmQam-Advanced-Tempered-Compatible-Anti-Explosion/dp/B0FNLVSMHR/ref=sr_1_192?dib=eyJ2IjoiMSJ9.XcrkUVLAy6CSOgNuSrfr_-6Jx4GC6eYHm0Y1FS5BGOdTGYbwhHB0Vr_cM_5-Rbky73xPG6AO8h0FeNluZNuBjpnHrAnXBthVew_DoTR_ktPfXS9OssBOBCZYEUj_8siDHjkmCMlqe2SS0oksgRcrr393TD-DRqK5d3jQGfIibDwbyirnitl8c8fSh5U75yXUMKiSVw1WPUL-Uzlul4XSTHHAnev6IsUywzdwqHhqq_c.Fq9BdFSPJbAkYwouU7hmUJ_7g-R6vPDaoNTRzPwaSA8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261042&amp;sr=8-192</t>
+          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_194?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-194</t>
         </is>
       </c>
     </row>
@@ -9093,11 +9093,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PRITO</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>799</v>
+        <v>399</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9106,17 +9106,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/PRITO-iPhone-Air-Scratch-Resistant-Lightweight/dp/B0G2MLFPTR/ref=sr_1_193?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-193</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC1TTF8/ref=sr_1_195?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-195</t>
         </is>
       </c>
     </row>
@@ -9138,11 +9138,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>DUX DUCIS</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1999</v>
+        <v>999</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9151,17 +9151,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DUX-DUCIS-Hivo-Case-iPhone/dp/B0FRB5L87M/ref=sr_1_194?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-194</t>
+          <t>https://www.amazon.in/Nillkin-Camshield-Genuine-Classic-Leather/dp/B0FKH8L2Z5/ref=sr_1_196?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-196</t>
         </is>
       </c>
     </row>
@@ -9183,11 +9183,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Air – Grey</t>
+          <t>iPhone 14 pro max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro max Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -9201,12 +9201,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSXS8C6/ref=sr_1_195?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-195</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVD3N8/ref=sr_1_197?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-197</t>
         </is>
       </c>
     </row>
@@ -9228,11 +9228,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9246,12 +9246,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Shockproof-Protection-Transparent/dp/B0FPCBD1HF/ref=sr_1_196?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-196</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_198?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-198</t>
         </is>
       </c>
     </row>
@@ -9273,11 +9273,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Shockproof Hard PC Back + TPU Frame with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch Case – Black</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>199</v>
+        <v>2599</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -9286,17 +9286,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXQ6GRS/ref=sr_1_197?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-197</t>
+          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRN1CFY/ref=sr_1_199?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-199</t>
         </is>
       </c>
     </row>
@@ -9318,11 +9318,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>Pelican</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>399</v>
+        <v>1713.85</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -9331,17 +9331,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC11VZ2/ref=sr_1_198?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-198</t>
+          <t>https://www.amazon.in/Pelican-Compatible-Magnetic-Military-Grade-Protection/dp/B0FVDPTSQC/ref=sr_1_200?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-200</t>
         </is>
       </c>
     </row>
@@ -9363,11 +9363,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -9381,12 +9381,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCC1TCD/ref=sr_1_199?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-199</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCJDWX6/ref=sr_1_201?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-201</t>
         </is>
       </c>
     </row>
@@ -9408,11 +9408,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Ringke</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>269</v>
+        <v>1956</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -9421,17 +9421,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Polycarbonate/dp/B0G1TNF78L/ref=sr_1_200?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-200</t>
+          <t>https://www.amazon.in/Ringke-Fusion-Magnetic-Compatible-Shockproof/dp/B0FL8SCV1P/ref=sr_1_202?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-202</t>
         </is>
       </c>
     </row>
@@ -9453,11 +9453,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 17 Air Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 AIR Transparent)</t>
+          <t>Amazon Brand - Solimo Back Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -9466,17 +9466,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV8HYZ1/ref=sr_1_201?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-201</t>
+          <t>https://www.amazon.in/Amazon-Brand-Translucent-Shockproof-Adsorption/dp/B0FNWS9MTH/ref=sr_1_203?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-203</t>
         </is>
       </c>
     </row>
@@ -9498,11 +9498,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -9516,12 +9516,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Air/dp/B0FRGMM4PK/ref=sr_1_202?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-202</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_204?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-204</t>
         </is>
       </c>
     </row>
@@ -9543,11 +9543,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -9561,12 +9561,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FN4KSJPY/ref=sr_1_203?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-203</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DW2V1/ref=sr_1_205?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-205</t>
         </is>
       </c>
     </row>
@@ -9588,11 +9588,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9606,12 +9606,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Polycarbonate/dp/B0FZBDKFNF/ref=sr_1_204?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-204</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC8L7BM/ref=sr_1_206?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-206</t>
         </is>
       </c>
     </row>
@@ -9633,11 +9633,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9651,12 +9651,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCDK94D/ref=sr_1_205?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-205</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_207?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-207</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -9691,17 +9691,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Polycarbonate/dp/B0G1HL9J76/ref=sr_1_206?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-206</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC6XSYL/ref=sr_1_208?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-208</t>
         </is>
       </c>
     </row>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -9741,12 +9741,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSCWGYMW/ref=sr_1_207?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-207</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT337S2R/ref=sr_1_209?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-209</t>
         </is>
       </c>
     </row>
@@ -9768,11 +9768,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>LIRAMARK</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>850</v>
+        <v>399</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -9781,17 +9781,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-05 08:40:54</t>
+          <t>2026-02-05 10:03:26</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH6MTLC/ref=sr_1_208?dib=eyJ2IjoiMSJ9.fOEG8hCf3zLfjdXleDFe-CdinWlDp6P3OemG3rH3G_r3eVEbxEIsRlAmJuFwb5xNMLlc2-Bjz_v7G0beLvcIEODpjhbmDUETT1IxSxd003qBczLXYAksrpq2QwoAdnneBZ4WslC86mEB4ZsTLv0t20_vPiDcWWlGc7mJNfbhJKy_n9AUj6OUCu3PTrJsFUoylC20tE_EUNpLEIKg-iwaKFroEQ2bJYuJ7M3EReCKvWE.yGByLkTsohWl1GMMfCZvGrWQzONfK6U47R6PvRKKTqI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261048&amp;sr=8-208</t>
+          <t>https://www.amazon.in/LIRAMARK-Liquid-Silicone-Cover-iPhone/dp/B0FQP97T1G/ref=sr_1_210?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-210</t>
         </is>
       </c>
     </row>
@@ -9813,11 +9813,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>Slim Soft Silicon *Anti Dust Plug* Shockproof Transparent TPU Back Case Cover for iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>850</v>
+        <v>169</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -9831,12 +9831,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH6MTLC/ref=sr_1_209?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-209</t>
+          <t>https://www.amazon.in/Casotec-Silicon-Shockproof-Transparent-iPhone/dp/B0FQW3V5Z3/ref=sr_1_211?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-211</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>iPhone 14 pro max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro max Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>iPhone 15 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -9871,17 +9871,17 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVD3N8/ref=sr_1_210?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-210</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBXHVN7/ref=sr_1_212?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-212</t>
         </is>
       </c>
     </row>
@@ -9903,11 +9903,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 13 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>245</v>
+        <v>399</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9916,17 +9916,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Compatible-Silicon-Protection/dp/B0F946877P/ref=sr_1_211?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-211</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9WCSX/ref=sr_1_213?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-213</t>
         </is>
       </c>
     </row>
@@ -9948,11 +9948,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>379</v>
+        <v>499</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9961,17 +9961,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_212?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-212</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX9J4L1/ref=sr_1_214?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-214</t>
         </is>
       </c>
     </row>
@@ -9993,11 +9993,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10006,17 +10006,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0FSX9BX49/ref=sr_1_213?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-213</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicon_Clear/dp/B0FC2FG2PQ/ref=sr_1_215?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-215</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -10051,17 +10051,17 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC1TTF8/ref=sr_1_214?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-214</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBY8GXN/ref=sr_1_216?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-216</t>
         </is>
       </c>
     </row>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10096,17 +10096,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC8L7BM/ref=sr_1_215?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-215</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4C2L/ref=sr_1_217?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-217</t>
         </is>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D3205</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -10146,12 +10146,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC6XSYL/ref=sr_1_216?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-216</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGLS8ZH/ref=sr_1_218?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-218</t>
         </is>
       </c>
     </row>
@@ -10173,11 +10173,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>259</v>
+        <v>399</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -10191,12 +10191,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DW2V1/ref=sr_1_217?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-217</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBQ9K1R/ref=sr_1_219?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-219</t>
         </is>
       </c>
     </row>
@@ -10218,11 +10218,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 16 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 16 Transparent)</t>
+          <t>Mag-Safe Clear Case for iPhone 17 Pro Max | Shockproof Transparent Cover with Camera Lens Protection | Metal Ring Stand &amp; Wireless Charging Support – Blue</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>179</v>
+        <v>499</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -10231,17 +10231,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR1QLSHG/ref=sr_1_218?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-218</t>
+          <t>https://www.amazon.in/LuxuryKase-Mag-Safe-Shockproof-Transparent-Protection/dp/B0GDTF9R36/ref=sr_1_220?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-220</t>
         </is>
       </c>
     </row>
@@ -10263,11 +10263,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>iPhone 15 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -10276,17 +10276,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBXHVN7/ref=sr_1_219?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-219</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGNSNV2/ref=sr_1_221?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-221</t>
         </is>
       </c>
     </row>
@@ -10308,11 +10308,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro 6.3" (2025) – Clear Shockproof Hard PC Back with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch TPU Frame – Transparent</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2599</v>
+        <v>279</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10321,17 +10321,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRS5X8DW/ref=sr_1_220?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-220</t>
+          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCGFWNN/ref=sr_1_222?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-222</t>
         </is>
       </c>
     </row>
@@ -10353,11 +10353,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro 6.3" (2025) – Shockproof Hard PC Back + TPU Frame with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch Case – Black</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>399</v>
+        <v>2599</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10366,17 +10366,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9WCSX/ref=sr_1_221?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-221</t>
+          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRYH297/ref=sr_1_223?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-223</t>
         </is>
       </c>
     </row>
@@ -10398,11 +10398,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -10416,12 +10416,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8KP478/ref=sr_1_222?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-222</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC51CQX/ref=sr_1_224?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-224</t>
         </is>
       </c>
     </row>
@@ -10443,11 +10443,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
+          <t>iPhone 14 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2499</v>
+        <v>399</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -10456,17 +10456,17 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_223?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-223</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5MWP3/ref=sr_1_225?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-225</t>
         </is>
       </c>
     </row>
@@ -10488,11 +10488,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -10506,12 +10506,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:01</t>
+          <t>2026-02-05 10:03:36</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicon_Clear/dp/B0FC2FG2PQ/ref=sr_1_224?dib=eyJ2IjoiMSJ9.8azOkW-uQOnN9MYD__-ZdUCHJDSMAxiRNP4VRZY5iHXV71OEOqFsB8NEDuEfxUjhde5YZDPfD7lcPTLLrXtrXzVH5Jimhvc8cyC9B8wBt8Oy3i7kry3nM3NbXIAXKSxjZ0m-2OqX5SQ-_CVDr_n-DwCS66hu4BT8gfLaNQueTg96PJgHJp3EGUz2RtbVTXig8_YswnUreYVkFKI9J5SYJi-q-NGdh9sUFJqDRCmj9Ck.rd7MRElCCh95IYZfa96NnloWM4FIEUs7Hgq0ixfpPCY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261054&amp;sr=8-224</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_226?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-226</t>
         </is>
       </c>
     </row>
@@ -10533,11 +10533,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2499</v>
+        <v>239</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -10551,12 +10551,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_225?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-225</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4SCN/ref=sr_1_227?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-227</t>
         </is>
       </c>
     </row>
@@ -10578,11 +10578,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>iPhone 14 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D1138</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -10591,17 +10591,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5MWP3/ref=sr_1_226?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-226</t>
+          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9V9W88/ref=sr_1_228?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-228</t>
         </is>
       </c>
     </row>
@@ -10623,11 +10623,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GCSRYTV5/ref=sr_1_227?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-227</t>
+          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Pro/dp/B0FRGN9SC8/ref=sr_1_229?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-229</t>
         </is>
       </c>
     </row>
@@ -10668,11 +10668,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Pink]</t>
+          <t>iPhone 16 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -10686,12 +10686,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNHJ8G/ref=sr_1_228?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-228</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC67Q49/ref=sr_1_230?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-230</t>
         </is>
       </c>
     </row>
@@ -10713,11 +10713,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>SPRIG</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>200</v>
+        <v>1187</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FBQF7/ref=sr_1_229?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-229</t>
+          <t>https://www.amazon.in/SPRIG-Compatible-PureCrystal-Protection-Transparent/dp/B0G2L9BVJQ/ref=sr_1_231?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-231</t>
         </is>
       </c>
     </row>
@@ -10758,11 +10758,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -10776,12 +10776,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCC8S77/ref=sr_1_230?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-230</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBZVVNP/ref=sr_1_232?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-232</t>
         </is>
       </c>
     </row>
@@ -10803,11 +10803,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Shockproof Hard PC Back + TPU Frame with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch Case – Black</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2599</v>
+        <v>159</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -10816,17 +10816,17 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRN1CFY/ref=sr_1_231?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-231</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Pro-Transparent/dp/B0FRGMBKRD/ref=sr_1_233?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-233</t>
         </is>
       </c>
     </row>
@@ -10848,11 +10848,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -10866,12 +10866,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-Pro/dp/B0G4WQ2WLG/ref=sr_1_232?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-232</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGM7W6Y/ref=sr_1_234?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-234</t>
         </is>
       </c>
     </row>
@@ -10893,11 +10893,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Armor Case for iPhone 17 Defender Case | Rotating Ring Holder &amp; Kickstand in-Built | Military Grade Armor | 360 Degree Protection Back Cover for iPhone 17 (Black)</t>
+          <t>iPhone 14 pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -10911,12 +10911,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Kickstand-Built-Protection/dp/B0FR4MC9VF/ref=sr_1_233?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-233</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBSH141/ref=sr_1_235?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-235</t>
         </is>
       </c>
     </row>
@@ -10938,11 +10938,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone X/XS Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone X/XS Transparent)</t>
+          <t>iPhone 17 Pro Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro – Clear</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -10951,17 +10951,17 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3KDPMQ/ref=sr_1_234?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-234</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSY9QSB/ref=sr_1_236?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-236</t>
         </is>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>iPhone 16 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>iPhone 17 Air Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -11001,12 +11001,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC67Q49/ref=sr_1_235?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-235</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYC676/ref=sr_1_237?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-237</t>
         </is>
       </c>
     </row>
@@ -11028,11 +11028,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D1219</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11046,12 +11046,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4SCN/ref=sr_1_236?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-236</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGMRHPH/ref=sr_1_238?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-238</t>
         </is>
       </c>
     </row>
@@ -11073,11 +11073,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Bumper Corner Back Cover for Apple iPhone 17 Series (i-Phone 17 Pro (6.3))</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11091,12 +11091,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2BKJZ3/ref=sr_1_237?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-237</t>
+          <t>https://www.amazon.in/YOFO-Bumper-Corner-iPhone-i-Phone/dp/B0FQPB7LQW/ref=sr_1_239?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-239</t>
         </is>
       </c>
     </row>
@@ -11118,11 +11118,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11131,17 +11131,17 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBY8GXN/ref=sr_1_238?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-238</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSCWRSG8/ref=sr_1_240?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-240</t>
         </is>
       </c>
     </row>
@@ -11163,11 +11163,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro – Clear</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11176,17 +11176,17 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSY9QSB/ref=sr_1_239?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-239</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGLXVMG/ref=sr_1_241?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-241</t>
         </is>
       </c>
     </row>
@@ -11208,11 +11208,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11226,12 +11226,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:09</t>
+          <t>2026-02-05 10:03:44</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC51CQX/ref=sr_1_240?dib=eyJ2IjoiMSJ9.l6IIuTxb81h17F632X9xO0pdy0S5GlE6adb1_0tAr40xN5bCOfXtaB4fmrlyYfXwpO47WL2hw-zPt7Nu-4H00Oxg5AafvtLJtqZtMehbWzejxgMuxGMMKPy1tDaIFyFDMA7su2_EkrP4lDjAlLDswUHbEcLLLJ0-0lBNEFV6PSQBAujD-Ni66Wt0-okdNT4UdWxprghx_DnWg8OIJUkgpggxUoBbLMcX-IIUSCrwXrI.ek9nEtVRnm5EMv53m7oy8ridv7BFI2fx3M7bQ3wiHNU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261061&amp;sr=8-240</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2BKJZ3/ref=sr_1_242?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-242</t>
         </is>
       </c>
     </row>
@@ -11253,11 +11253,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11271,12 +11271,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBQ9K1R/ref=sr_1_241?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-241</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Kickstand-Mobile-Rotating/dp/B0FC2G7MRC/ref=sr_1_243?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-243</t>
         </is>
       </c>
     </row>
@@ -11298,11 +11298,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>iPhone 14 pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11316,12 +11316,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVG6V5/ref=sr_1_242?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-242</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_244?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-244</t>
         </is>
       </c>
     </row>
@@ -11343,11 +11343,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Bumper Corner Back Cover for Apple iPhone 17 Series (i-Phone 17 Pro (6.3))</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11361,12 +11361,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YOFO-Bumper-Corner-iPhone-i-Phone/dp/B0FQPB7LQW/ref=sr_1_243?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-243</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GJ9Y2/ref=sr_1_245?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-245</t>
         </is>
       </c>
     </row>
@@ -11388,11 +11388,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>CarboProp Magnetic Case for iPhone 17 Pro 6.3" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3499</v>
+        <v>200</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -11406,12 +11406,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRRTWDBW/ref=sr_1_244?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-244</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FHMBS/ref=sr_1_246?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-246</t>
         </is>
       </c>
     </row>
@@ -11433,11 +11433,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -11451,12 +11451,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYC676/ref=sr_1_245?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-245</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2F7M1B/ref=sr_1_247?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-247</t>
         </is>
       </c>
     </row>
@@ -11478,11 +11478,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -11496,12 +11496,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBZVVNP/ref=sr_1_246?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-246</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCV1FD/ref=sr_1_248?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-248</t>
         </is>
       </c>
     </row>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>iPhone 16e Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16e Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11541,12 +11541,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC3N7V9/ref=sr_1_247?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-247</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCCSKNZ/ref=sr_1_249?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-249</t>
         </is>
       </c>
     </row>
@@ -11568,11 +11568,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -11586,12 +11586,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCV1FD/ref=sr_1_248?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-248</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2HPNS2/ref=sr_1_250?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-250</t>
         </is>
       </c>
     </row>
@@ -11613,11 +11613,11 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 16e Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16e Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -11631,12 +11631,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DWDFW/ref=sr_1_249?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-249</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC3N7V9/ref=sr_1_251?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-251</t>
         </is>
       </c>
     </row>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -11676,12 +11676,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCFQCPM/ref=sr_1_250?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-250</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Mobile-Flexible-iPhone/dp/B0FC2D84SP/ref=sr_1_252?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-252</t>
         </is>
       </c>
     </row>
@@ -11703,11 +11703,11 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Slim Soft Silicon *Anti Dust Plug* Shockproof Transparent TPU Back Case Cover for iPhone 17 Air - Clear</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>169</v>
+        <v>999</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -11721,12 +11721,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Silicon-Shockproof-Transparent-iPhone/dp/B0FQW3V5Z3/ref=sr_1_251?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-251</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-CamShield-Layered-Protection/dp/B0FKH7Y4JZ/ref=sr_1_253?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-253</t>
         </is>
       </c>
     </row>
@@ -11748,11 +11748,11 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -11761,17 +11761,17 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4C2L/ref=sr_1_252?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-252</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGLXVMG/ref=sr_1_254?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-254</t>
         </is>
       </c>
     </row>
@@ -11793,11 +11793,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>258</v>
+        <v>899</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -11811,12 +11811,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_253?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-253</t>
+          <t>https://www.amazon.in/Kapa-Frosted-Shockproof-Anti-Scratch-Anti-Slip/dp/B0FT8N2QXV/ref=sr_1_255?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-255</t>
         </is>
       </c>
     </row>
@@ -11838,11 +11838,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -11856,12 +11856,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2HPNS2/ref=sr_1_254?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-254</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_256?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-256</t>
         </is>
       </c>
     </row>
@@ -11883,11 +11883,11 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -11896,17 +11896,17 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GJ9Y2/ref=sr_1_255?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-255</t>
+          <t>https://www.amazon.in/V-TAN-Ultra-Hybrid-Apple-17-Transparent/dp/B0FTLYXFMD/ref=sr_1_257?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-257</t>
         </is>
       </c>
     </row>
@@ -11928,11 +11928,11 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -11941,17 +11941,17 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:17</t>
+          <t>2026-02-05 10:03:52</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FHMBS/ref=sr_1_256?dib=eyJ2IjoiMSJ9.7i6Sh6t9nPL_FJnZp9YlifSAW-G3k5g7wFu_IZASiI_UhWLXefrc7s5CFrek1Ah9dWivoksNtHNHjso7ZuRSli-9hpzJ-qFWgrDmI86ZBRrSO9hMpjDKyGxyFY4KEAwqDdID3q29624VYlyG5i3x9KwK9yk0ojx_gwhSp3npgeRUvVAIDnDZXyHwdFjZoki-clOOnr25K1Pxqj3pPlsDVw3qGFHdmxMzF1Vu9SSLDO8.rHNU3LdZU0DPyg7Wi2Iysr8h7UuRQaeHyWrMDqBBsn4&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261069&amp;sr=8-256</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9GTK1/ref=sr_1_258?dib=eyJ2IjoiMSJ9.DYkdDhXRQLlowIrhcfH-aVh88RXid1OKJLOUtVsJ_qD5bIL6r1Hoq1kKiDADh7fL-3VhG9b5WjrGZwR0_ugxv3v74HcRQ0X5mBxOLWrl9Vgc1-FgO2vPVzVHcNy3FVXan7o8N6FJkDs1rSv11TFjlikJMQ70YylyKwhXQ-yxV7A5nXgFbFrsXnjiiZc9Pb-Jd2gdKLas7v0wm-7wGvNgmR6N_9SnKe5_FbcQaAtIwLw.I3y7NhCKc2TtGz3xrBHnhWmvzqg1D6CWwh-aGc69rvY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266024&amp;sr=8-258</t>
         </is>
       </c>
     </row>
@@ -11973,11 +11973,11 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Clear Case Compatible with iPhone 17, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for iPhone 17 - Black</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -11986,17 +11986,17 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2F7M1B/ref=sr_1_257?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-257</t>
+          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FQNQRXRZ/ref=sr_1_259?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-259</t>
         </is>
       </c>
     </row>
@@ -12018,11 +12018,11 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -12031,17 +12031,17 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDMG87/ref=sr_1_258?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-258</t>
+          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WP2G7R/ref=sr_1_260?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-260</t>
         </is>
       </c>
     </row>
@@ -12063,11 +12063,11 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Case-Mate</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2314.01</v>
+        <v>345</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -12076,17 +12076,17 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Case-Mate-iPhone-Case-Compatible-MagSafe/dp/B0FKBYGQ96/ref=sr_1_259?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-259</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFZ8S5/ref=sr_1_261?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-261</t>
         </is>
       </c>
     </row>
@@ -12108,11 +12108,11 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>279</v>
+        <v>1799</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -12126,12 +12126,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCGFWNN/ref=sr_1_260?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-260</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-CamShield-Visible-Protect/dp/B0FKH5JXCT/ref=sr_1_262?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-262</t>
         </is>
       </c>
     </row>
@@ -12153,11 +12153,11 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Transparent TPU Back Case Cover for Apple iPhone 17 Air with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Grip for iPhone 17 Air (Clear)</t>
+          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -12166,17 +12166,17 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-Air-Anti-Yellowing-Scratch-Resistant/dp/B0FQCPVRV4/ref=sr_1_261?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-261</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCCNM71/ref=sr_1_263?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-263</t>
         </is>
       </c>
     </row>
@@ -12198,11 +12198,11 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G5Z57298/ref=sr_1_262?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-262</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_264?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-264</t>
         </is>
       </c>
     </row>
@@ -12243,11 +12243,11 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>DUX DUCIS</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>999</v>
+        <v>239</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -12256,17 +12256,17 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ducis-Skin-Flip-Case-iPhone/dp/B0FRB1G3NR/ref=sr_1_263?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-263</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GFZL1/ref=sr_1_265?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-265</t>
         </is>
       </c>
     </row>
@@ -12288,11 +12288,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Ringke</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1564</v>
+        <v>299</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ringke-Rugged-Gear-Compatible-Protection/dp/B0FL8HZR22/ref=sr_1_264?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-264</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT8TQBNH/ref=sr_1_266?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-266</t>
         </is>
       </c>
     </row>
@@ -12333,11 +12333,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>548</v>
+        <v>1499</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -12346,17 +12346,17 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TDG-Executive-Leather-Magnetic-Compatible/dp/B0FRZKLS7S/ref=sr_1_265?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-265</t>
+          <t>https://www.amazon.in/Nillkin-Tempered-Amazing-Explosion-Protect/dp/B0FKHCXP1Q/ref=sr_1_267?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-267</t>
         </is>
       </c>
     </row>
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCCSKNZ/ref=sr_1_266?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-266</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPC9JBP1/ref=sr_1_268?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-268</t>
         </is>
       </c>
     </row>
@@ -12423,11 +12423,11 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>OAKTER</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>299</v>
+        <v>1599</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -12436,17 +12436,17 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Hawkeye-iPhone-Protector-Shockproof/dp/B0FGPB1663/ref=sr_1_267?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-267</t>
+          <t>https://www.amazon.in/Charger-Charging-Adapter-MacBook-Cable/dp/B0FJMGV96Q/ref=sr_1_269?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-269</t>
         </is>
       </c>
     </row>
@@ -12468,11 +12468,11 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>239</v>
+        <v>1499</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -12481,17 +12481,17 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Kickstand-Mobile-Rotating/dp/B0FC2G7MRC/ref=sr_1_268?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-268</t>
+          <t>https://www.amazon.in/Spigen-MagFit-Compatible-Carbonate-Blueberry/dp/B0FD2S746X/ref=sr_1_270?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-270</t>
         </is>
       </c>
     </row>
@@ -12513,11 +12513,11 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Ringke</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2199</v>
+        <v>299</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -12526,17 +12526,17 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ringke-UX-Magnetic-Compatible-Protective/dp/B0FL88W8J2/ref=sr_1_269?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-269</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDLYF5/ref=sr_1_271?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-271</t>
         </is>
       </c>
     </row>
@@ -12558,11 +12558,11 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>CarboProp Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
+          <t>Clear Case Compatible with Apple iPhone 17 Air, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for Apple iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>3499</v>
+        <v>229</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -12576,12 +12576,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRR9Q46Q/ref=sr_1_270?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-270</t>
+          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FBX13HZY/ref=sr_1_272?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-272</t>
         </is>
       </c>
     </row>
@@ -12603,11 +12603,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>iPhone Charger Cable(MFi Certified) Type C to Type C Cable for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, iPhone 15, Samsung Galaxy S24/S23/S22/S21 FE Laptop &amp; Other Devices</t>
+          <t>Back Cover Case for Apple iPhone X/XS Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone X/XS Transparent)</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>373</v>
+        <v>179</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -12616,17 +12616,17 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-VAKU-Braided-Type-Cable/dp/B0D1R85RMR/ref=sr_1_271?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-271</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3KDPMQ/ref=sr_1_273?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-273</t>
         </is>
       </c>
     </row>
@@ -12648,11 +12648,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>3 in 1 MagSafe compatible Magnetic Foldable Wireless Charger for iPhone 17 to 12 Series | Compatible with AirPods 2/3, Pro2, Pro3 | Compatible with only Apple Watch Series | 23W Charging - Pearl White</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>149</v>
+        <v>2649</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -12661,17 +12661,17 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:25</t>
+          <t>2026-02-05 10:04:00</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0GCSFQLTR/ref=sr_1_272?dib=eyJ2IjoiMSJ9.rnN1KvxPfA-sJuoQuLnxKPFR2GNgUM5la583JbwFC9sIQo2p7Bz73I-sqtF-IIe04YvxjHZvSHa7W5Mov3E1O81Nn_oODgpzfCiwdazgyPXfGyyeA53mhyCfMcSWTDmcyfjIO5rhFcdMlymjRYtQZvg5YELyjDY0c5uIahF-v4hnzJZgse9eV89GBBCWz_9riZkWsRFA6RXQE1lqkgsBKPtJiuQWxDpNPVjkKwusduc.XIssSq6NtAopQsDxi8VynJ8plIpxQcqrLKUm4TM45AA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261077&amp;sr=8-272</t>
+          <t>https://www.amazon.in/Magnetic-Foldable-Compatible-Wireless-Charging/dp/B0C3R8MMJD/ref=sr_1_274?dib=eyJ2IjoiMSJ9.5KoXbg6mnRa3XASi1yCFMmjoBxOp39pyuMcvtx5ziunRpkizlp0Ivr3E_a71u6Hl8LsRYSl2PFOY6pu90Bkww2ya_oAxPndDOPBw78CEt0pbP4K3WoP2quk1i5X3g0qxnGhpRe1UgNAi8N_FOISbsz8TFvSEOZw9k9N9d1ZGwCXhn6fRrF_FIJUluXJ1b-HrIMzYfzspMZ-K5ZIPzePDgjVNm5tp_IS03fAaawrCs-k.AP5cDSX1Ui-bIFaWQGx2sgZuHf-woxjdCytG850-l54&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266032&amp;sr=8-274</t>
         </is>
       </c>
     </row>
@@ -12693,11 +12693,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>CarboProp Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -12706,17 +12706,17 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRR9Q46Q/ref=sr_1_273?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-273</t>
+          <t>https://www.amazon.in/Spigen-MagFit-Compatible-Carbonate-Blueberry/dp/B0FD2S746X/ref=sr_1_275?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-275</t>
         </is>
       </c>
     </row>
@@ -12738,11 +12738,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>iPhone Charger Cable(MFi Certified) Type C to Type C Cable for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, iPhone 15, Samsung Galaxy S24/S23/S22/S21 FE Laptop &amp; Other Devices</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -12751,17 +12751,17 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-VAKU-Braided-Type-Cable/dp/B0D1R85RMR/ref=sr_1_274?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-274</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDLYF5/ref=sr_1_276?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-276</t>
         </is>
       </c>
     </row>
@@ -12783,11 +12783,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Clear Case Compatible with Apple iPhone 17 Air, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for Apple iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -12796,17 +12796,17 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0GCSFQLTR/ref=sr_1_275?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-275</t>
+          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FBX13HZY/ref=sr_1_277?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-277</t>
         </is>
       </c>
     </row>
@@ -12828,11 +12828,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D3149</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -12846,12 +12846,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FL5XT/ref=sr_1_276?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-276</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGKRKZ7/ref=sr_1_278?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-278</t>
         </is>
       </c>
     </row>
@@ -12873,11 +12873,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Back Cover Case for Apple iPhone X/XS Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone X/XS Transparent)</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -12886,17 +12886,17 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_277?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-277</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3KDPMQ/ref=sr_1_279?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-279</t>
         </is>
       </c>
     </row>
@@ -12918,11 +12918,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>3 in 1 MagSafe compatible Magnetic Foldable Wireless Charger for iPhone 17 to 12 Series | Compatible with AirPods 2/3, Pro2, Pro3 | Compatible with only Apple Watch Series | 23W Charging - Pearl White</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>204</v>
+        <v>2649</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12931,17 +12931,17 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_278?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-278</t>
+          <t>https://www.amazon.in/Magnetic-Foldable-Compatible-Wireless-Charging/dp/B0C3R8MMJD/ref=sr_1_280?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-280</t>
         </is>
       </c>
     </row>
@@ -12963,11 +12963,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>899</v>
+        <v>239</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12981,12 +12981,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Frosted-Shockproof-Anti-Scratch-Anti-Slip/dp/B0FT8N2QXV/ref=sr_1_279?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-279</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DHVFX/ref=sr_1_281?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-281</t>
         </is>
       </c>
     </row>
@@ -13008,11 +13008,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>RM Protective Phone Case for Apple iPhone 17, Black Bumper Frame, Cute 3D Cartoon Design with Decorative Panda Figure (PC &amp; TPU)</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>298</v>
+        <v>499</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13026,12 +13026,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_280?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-280</t>
+          <t>https://www.amazon.in/RM-Protective-Apple-iPhone-17/dp/B0G2YGNLBW/ref=sr_1_282?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-282</t>
         </is>
       </c>
     </row>
@@ -13053,11 +13053,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>474</v>
+        <v>799</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13066,17 +13066,17 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Ultra-Hybrid-Apple-17-Transparent/dp/B0FTLYXFMD/ref=sr_1_281?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-281</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH7H86M/ref=sr_1_283?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-283</t>
         </is>
       </c>
     </row>
@@ -13098,11 +13098,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Pink Flowers Pattern Design Printed Silicon Soft TPU Back Case Cover for Apple iPhone 17 Pro Max</t>
+          <t>QsmQam</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13111,17 +13111,17 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Flowers-Pattern-Printed-Silicon/dp/B0FBX34534/ref=sr_1_282?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-282</t>
+          <t>https://www.amazon.in/QsmQam-Military-Grade-Tempered-Compatible-Anti-Explosion/dp/B0FNLV2WGH/ref=sr_1_284?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-284</t>
         </is>
       </c>
     </row>
@@ -13143,11 +13143,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>Yosou</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13156,17 +13156,17 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9GTK1/ref=sr_1_283?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-283</t>
+          <t>https://www.amazon.in/Yosou-Charging-Charger-Compatible-MacBook/dp/B0GFQHDHHS/ref=sr_1_285?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-285</t>
         </is>
       </c>
     </row>
@@ -13188,11 +13188,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Clear Case Compatible with iPhone 17, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for iPhone 17 - Black</t>
+          <t>Poohan FLIP Case for iPhone 17 Pro Compatible with Magsafe Premium Flip PU Leather Case with Built-in Kickstand &amp; Card Holder Magnetic Charging Support PC + TPU Back Lightweight Phone Case (Black)</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>229</v>
+        <v>2699</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13201,17 +13201,17 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FQNQRXRZ/ref=sr_1_284?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-284</t>
+          <t>https://www.amazon.in/Pro-Compatible-Kickstand-Magnetic-Lightweight/dp/B0FTSFYCS3/ref=sr_1_286?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-286</t>
         </is>
       </c>
     </row>
@@ -13233,11 +13233,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>299</v>
+        <v>1499</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13246,17 +13246,17 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Compatible-Protection-Lavender/dp/B0F945XQNX/ref=sr_1_285?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-285</t>
+          <t>https://www.amazon.in/Belkin-USB-Cable-Meter-240W/dp/B0F8QCJSSM/ref=sr_1_287?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-287</t>
         </is>
       </c>
     </row>
@@ -13278,11 +13278,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>CarboProp Magnetic Case for iPhone 17 Pro 6.3" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>345</v>
+        <v>3499</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13296,12 +13296,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFZ8S5/ref=sr_1_286?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-286</t>
+          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRRTWDBW/ref=sr_1_288?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-288</t>
         </is>
       </c>
     </row>
@@ -13323,11 +13323,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>AILKIN</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>200</v>
+        <v>1009</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -13336,17 +13336,17 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FJ69X/ref=sr_1_287?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-287</t>
+          <t>https://www.amazon.in/AILKIN-Lightning-Charging-Certified-iPhone/dp/B0F8P6PZXK/ref=sr_1_289?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-289</t>
         </is>
       </c>
     </row>
@@ -13368,11 +13368,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -13381,17 +13381,17 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:31</t>
+          <t>2026-02-05 10:04:09</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DWDFW/ref=sr_1_288?dib=eyJ2IjoiMSJ9.6WkvD64m1chBzqP5t8dvJ1MVkRvSt7OXdkuMLjUfQbaQoW1CV8_w6iAbepX4SuhTniX1Vxla2U8bcgEq-8Abghw_bgMF-vfOZzfWfnenIddu32vLcYiIUwFPlamrmte8fpSOr2_KX6BXx6RF4-kHbIcTo_yNBDQcQrXabv6WTmvmRUZuXxDqtNozw4_QEko6yzJEYdWNyQ-xoIAUkRn-Q6ynqvw7IEfUQSoSf9L11h0.4fjI0IsaKGzfxfXsF0teUhkiFNHY1CrVhAfwwFSxXNw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261085&amp;sr=8-288</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Silicon-Protection/dp/B0F946877P/ref=sr_1_290?dib=eyJ2IjoiMSJ9.6jNg72HEPk4n4rFwtcSivk3_Bvzdik5CixNg_l11_UWWFAQuUHOyVYV5zk7SptoXM6h-Fh5v-SS02hwX5_YUDBOZgdH-fDiPddz4jiBIV4JD8Rqg2IG6qQYRzCfNbjZepDE46uSoF_TOyHlmSgN5BEJtG6wrT8uquV2JsrUZ_mZBl1rfXoKSwC5PDMZ4gbkb8aWWh2pGgo22JPsUgDsZieU93XtU3GdddoIBFs-V4HM.vL-fgbNYeSiGlpoaRfENdti16RD2lX1vPPwq0W-RIKw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266040&amp;sr=8-290</t>
         </is>
       </c>
     </row>
@@ -13413,11 +13413,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>349</v>
+        <v>1799</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FL5XT/ref=sr_1_289?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-289</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-CamShield-Visible-Protect/dp/B0FKH5JXCT/ref=sr_1_291?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-291</t>
         </is>
       </c>
     </row>
@@ -13458,11 +13458,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -13471,17 +13471,17 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF6SLF/ref=sr_1_290?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-290</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCCNM71/ref=sr_1_292?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-292</t>
         </is>
       </c>
     </row>
@@ -13503,11 +13503,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -13521,12 +13521,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_291?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-291</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_293?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-293</t>
         </is>
       </c>
     </row>
@@ -13548,11 +13548,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>899</v>
+        <v>239</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -13566,12 +13566,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Frosted-Shockproof-Anti-Scratch-Anti-Slip/dp/B0FT8N2QXV/ref=sr_1_292?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-292</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2GFZL1/ref=sr_1_294?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-294</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -13611,12 +13611,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Compatible/dp/B0G1HP432Z/ref=sr_1_293?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-293</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT8TQBNH/ref=sr_1_295?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-295</t>
         </is>
       </c>
     </row>
@@ -13638,11 +13638,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Pink Flowers Pattern Design Printed Silicon Soft TPU Back Case Cover for Apple iPhone 17 Pro Max</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>169</v>
+        <v>1499</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -13656,12 +13656,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Flowers-Pattern-Printed-Silicon/dp/B0FBX34534/ref=sr_1_294?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-294</t>
+          <t>https://www.amazon.in/Nillkin-Tempered-Amazing-Explosion-Protect/dp/B0FKHCXP1Q/ref=sr_1_296?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-296</t>
         </is>
       </c>
     </row>
@@ -13683,11 +13683,11 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -13696,17 +13696,17 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9GTK1/ref=sr_1_295?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-295</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPC9JBP1/ref=sr_1_297?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-297</t>
         </is>
       </c>
     </row>
@@ -13728,11 +13728,11 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Clear Case Compatible with iPhone 17, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for iPhone 17 - Black</t>
+          <t>OAKTER</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>229</v>
+        <v>1599</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -13741,17 +13741,17 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FQNQRXRZ/ref=sr_1_296?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-296</t>
+          <t>https://www.amazon.in/Charger-Charging-Adapter-MacBook-Cable/dp/B0FJMGV96Q/ref=sr_1_298?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-298</t>
         </is>
       </c>
     </row>
@@ -13773,11 +13773,11 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>299</v>
+        <v>1499</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -13786,17 +13786,17 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Compatible-Protection-Lavender/dp/B0F945XQNX/ref=sr_1_297?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-297</t>
+          <t>https://www.amazon.in/Spigen-MagFit-Compatible-Carbonate-Blueberry/dp/B0FD2S746X/ref=sr_1_299?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-299</t>
         </is>
       </c>
     </row>
@@ -13822,7 +13822,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -13836,12 +13836,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFZ8S5/ref=sr_1_298?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-298</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDLYF5/ref=sr_1_300?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-300</t>
         </is>
       </c>
     </row>
@@ -13863,11 +13863,11 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Clear Case Compatible with Apple iPhone 17 Air, Magnetic Case with Built-in Magnets Compatible with MagSafe, Crystal Clear Slim PC &amp; TPU Cover for Apple iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -13881,12 +13881,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2FJ69X/ref=sr_1_299?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-299</t>
+          <t>https://www.amazon.in/Casotec-Compatible-Magnetic-Magnets-MagSafe/dp/B0FBX13HZY/ref=sr_1_301?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-301</t>
         </is>
       </c>
     </row>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D3149</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -13926,12 +13926,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DWDFW/ref=sr_1_300?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-300</t>
+          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGKRKZ7/ref=sr_1_302?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-302</t>
         </is>
       </c>
     </row>
@@ -13953,11 +13953,11 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Ofuca</t>
+          <t>Back Cover Case for Apple iPhone X/XS Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone X/XS Transparent)</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>599</v>
+        <v>179</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -13966,17 +13966,17 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ofuca-Charging-Compatible-MacBook-AirPods/dp/B0GHR23P2T/ref=sr_1_301?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-301</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR3KDPMQ/ref=sr_1_303?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-303</t>
         </is>
       </c>
     </row>
@@ -13998,11 +13998,11 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>iPhone 16 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>3 in 1 MagSafe compatible Magnetic Foldable Wireless Charger for iPhone 17 to 12 Series | Compatible with AirPods 2/3, Pro2, Pro3 | Compatible with only Apple Watch Series | 23W Charging - Pearl White</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>399</v>
+        <v>2649</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -14011,17 +14011,17 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC38H8T/ref=sr_1_302?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-302</t>
+          <t>https://www.amazon.in/Magnetic-Foldable-Compatible-Wireless-Charging/dp/B0C3R8MMJD/ref=sr_1_304?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-304</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -14061,12 +14061,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Mobile-Flexible-iPhone/dp/B0FC2D84SP/ref=sr_1_303?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-303</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DHVFX/ref=sr_1_305?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-305</t>
         </is>
       </c>
     </row>
@@ -14088,11 +14088,11 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>RM Protective Phone Case for Apple iPhone 17, Black Bumper Frame, Cute 3D Cartoon Design with Decorative Panda Figure (PC &amp; TPU)</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -14101,17 +14101,17 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:37</t>
+          <t>2026-02-05 10:04:15</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCCNM71/ref=sr_1_304?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_7uDOcu4Gp_sDcZuKtriRKKX2eh9peZepmhxT_5LgBEmqfTY51KzIKZVVn_q_C7L-VhFtFZ08w4krHQxJOHIgeF4y2EDP2MjJtP5LzEqX_Ut-XkJWDMz4x_08N0oSpzp_LyFXVOvzIov9cohQxzUpK9jUXge8v6_PIUnZiqUsIFFSawsWsK4uWOpX3CJRtNFPyoUhUBShh2nzk73aCIrkS8.YoDGpmjjSQysko4Br16t9jeSL8lkheIQ7zalBkBmdiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261091&amp;sr=8-304</t>
+          <t>https://www.amazon.in/RM-Protective-Apple-iPhone-17/dp/B0G2YGNLBW/ref=sr_1_306?dib=eyJ2IjoiMSJ9.IsWrKbRp0zM05MTYZJeM66grZHsZNglaNCjecNDSuZHVVHXl0WDSI11CoWljjWSqFU1oyTTOpql8ZAL6WJjUQ3GoATfrm96grRtFgcv_0sb9JR_fLEz3lRfn1uuEtFwYpcNEH-y0VDA-WBEkLTHCINd-XWhVrRg157mT7MFxO2BhuBBkk8LYHesVzUrYsRP77-mQiK1tCQYmopb0erj5MOoaXO2F95S2nJKhs-WUCzE.3K6bT0d0iQie03C7EsiwrkBrqc6vF16AHm5tv3H2Jd0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266049&amp;sr=8-306</t>
         </is>
       </c>
     </row>
@@ -14133,11 +14133,11 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Transcend</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25059</v>
+        <v>799</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -14146,17 +14146,17 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:43</t>
+          <t>2026-02-05 10:04:21</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Transcend-External-Portable-Certified-TS1TESD410C/dp/B0CRZBZHC1/ref=sr_1_305?dib=eyJ2IjoiMSJ9.NdfttV11c6488HLgUZPRPJQY4JoSC-vXq1G8H2KrWeg.zY7Hkd5gGWgIz-dXJwS-9cJ1PhEOP3FnHu92N6sDjAc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261097&amp;sr=8-305</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH7H86M/ref=sr_1_307?dib=eyJ2IjoiMSJ9.7LaEWRmwwoH3DOkz-848JmPVyVpfnvFqZ0W7ldKVytA.xtWvigEsPxfLwN1cz1nTMoTlPoPstZPIfrDc8rraXvA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266055&amp;sr=8-307</t>
         </is>
       </c>
     </row>
@@ -14178,11 +14178,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>QsmQam</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -14191,17 +14191,17 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2026-02-05 08:41:43</t>
+          <t>2026-02-05 10:04:21</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_306?dib=eyJ2IjoiMSJ9.NdfttV11c6488HLgUZPRPJQY4JoSC-vXq1G8H2KrWeg.zY7Hkd5gGWgIz-dXJwS-9cJ1PhEOP3FnHu92N6sDjAc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770261097&amp;sr=8-306</t>
+          <t>https://www.amazon.in/QsmQam-Military-Grade-Tempered-Compatible-Anti-Explosion/dp/B0FNLV2WGH/ref=sr_1_308?dib=eyJ2IjoiMSJ9.7LaEWRmwwoH3DOkz-848JmPVyVpfnvFqZ0W7ldKVytA.xtWvigEsPxfLwN1cz1nTMoTlPoPstZPIfrDc8rraXvA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266055&amp;sr=8-308</t>
         </is>
       </c>
     </row>

--- a/backend/static/Amazon_Unsorted.xlsx
+++ b/backend/static/Amazon_Unsorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,11 +498,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
+          <t>iPhone 16 Plus 128 GB: 5G Mobile Phone with Camera Control, A18 Chip and a Big Boost in Battery Life. Works with AirPods; Black</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>134900</v>
+        <v>71990</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,12 +511,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-3</t>
+          <t>https://www.amazon.in/iPhone-Pro-Max-512-Promotion/dp/B0FQG8MVMC/ref=sr_1_3?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-3</t>
         </is>
       </c>
     </row>
@@ -588,11 +588,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>iPhone Air 256 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
+          <t>iPhone 16 Plus 256 GB: 5G Mobile Phone with Camera Control, A18 Chip and a Big Boost in Battery Life. Works with AirPods; Teal</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99000</v>
+        <v>84900</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -601,17 +601,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-256-GB-Promotion/dp/B0FQFJGP8S/ref=sr_1_4?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-4</t>
+          <t>https://www.amazon.in/iPhone-Plus-16-256-GB/dp/B0DGJ8QKSF/ref=sr_1_4?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-4</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
+          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>134900</v>
+        <v>113990</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -646,17 +646,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQG1LPVF/ref=sr_1_6?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-6</t>
+          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_5?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-5</t>
         </is>
       </c>
     </row>
@@ -678,11 +678,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 256 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
+          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>134900</v>
+        <v>174900</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -691,17 +691,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-256-Promotion-Breakthrough/dp/B0FQFYYPZF/ref=sr_1_7?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-7</t>
+          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQG1VB5Y/ref=sr_1_6?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-6</t>
         </is>
       </c>
     </row>
@@ -723,11 +723,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>iPhone Air 512 GB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>119000</v>
+        <v>74999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -736,17 +736,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-512-GB-Promotion/dp/B0FQFH6CV1/ref=sr_1_8?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-8</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_7?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-7</t>
         </is>
       </c>
     </row>
@@ -768,11 +768,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 512 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
+          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>154900</v>
+        <v>109999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQFQF6D1/ref=sr_1_9?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-9</t>
+          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_8?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-8</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Cosmic Orange</t>
+          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -826,17 +826,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQG1VB5Y/ref=sr_1_10?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-10</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_9?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-9</t>
         </is>
       </c>
     </row>
@@ -858,11 +858,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>174900</v>
+        <v>33999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -871,17 +871,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFBHQMJ/ref=sr_1_11?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-11</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_10?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-10</t>
         </is>
       </c>
     </row>
@@ -903,11 +903,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 1 TB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Silver</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>174900</v>
+        <v>47999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -916,17 +916,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-17-Pro-Promotion-Breakthrough/dp/B0FQFNQTTK/ref=sr_1_12?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-12</t>
+          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_11?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-11</t>
         </is>
       </c>
     </row>
@@ -948,11 +948,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 512 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Deep Blue</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>154900</v>
+        <v>206899</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -961,17 +961,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQF5DG3P/ref=sr_1_13?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-13</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_13?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-13</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33999</v>
+        <v>72998</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1006,17 +1006,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon-Stable-Flagship-Powered/dp/B0FCMKSP7V/ref=sr_1_14?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-14</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_14?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-14</t>
         </is>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>iPhone Air 1 TB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Sky Blue</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>47998</v>
+        <v>138890</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Charcoal-Snapdragon%C2%AE-Personalised-Game-Changing/dp/B0FZSWZZW2/ref=sr_1_15?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-15</t>
+          <t>https://www.amazon.in/iPhone-Air-TB-Thinnest-Promotion/dp/B0FQG1TPG9/ref=sr_1_15?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-15</t>
         </is>
       </c>
     </row>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6 5G Mobile with Galaxy AI (Silver Shadow, 12GB RAM, 256GB Storage), 50MP High-Resolution Camera, Ultra-Smooth Gaming with Snapdragon 8 Gen 3, Google Gemini</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>109999</v>
+        <v>191899</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Galaxy-Smartphone-Silver-Storage/dp/B0D73TQLFZ/ref=sr_1_16?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-16</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-1TB-AppleCare/dp/B0G6KKFKMK/ref=sr_1_16?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-16</t>
         </is>
       </c>
     </row>
@@ -1128,11 +1128,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22499</v>
+        <v>246899</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_17?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-17</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_17?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>151899</v>
+        <v>629</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-05 10:01:54</t>
+          <t>2026-02-14 07:53:33</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6KP4JDD/ref=sr_1_18?dib=eyJ2IjoiMSJ9._gq5ZPdHFsoAjrLf4SuX24f_wLlKif08MI6Ze6iHZGOjUWXtYSR3BN7YO8ETDzUiLIxbMNz-4ntaFAoS5ALIoOVKwpQ_NdFh-HQqBMG6lpI7jITLvhYNL2VSYwTL5r9DhH749HKSSJ2B04C6UTPjAcDsHa_NNagANOL1_D66Hrd5jjd2vjjzZM6TV2h7SpoIQNcSNXvcD8XK9WGUVcR3ujnrHJR3CeME8OTt8kSCXJ4.eftKVita9vwcHvK0cEepS-9EveGEditfWWTIXqvWcss&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265907&amp;sr=8-18</t>
+          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_18?dib=eyJ2IjoiMSJ9._jDxsjJUk6XFTcNmWMUEIo4g-xtFPGSGa-8F3AutawkjEuNJpdHjNlwLhxwCWzqvjjeoTEC0TLX_R54Q0E0ocIuxlV9nTvGjXKF0R9INSUX4eQpfi83n78Nqy3bGJeyBpGUFcbLMaBtwrfLxLlEkkr9_-1WDX2iIz4HFySEnvry6F_dT1Q3-92bATOyN7HBUZoCOPkgRiACQz7fqEs8sTBYtxrbFGlTYgHxPQW6vCCg.IpqyGBFs3x_7_YQgL4lCMx0uTtilnp2ju49JA9EZhng&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035806&amp;sr=8-18</t>
         </is>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro 512 GB: 15.93 cm (6.3″) Display with Promotion up to 120Hz, A19 Pro Chip, Breakthrough Battery Life, Pro Fusion Camera System with Center Stage Front Camera; Silver</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>154900</v>
+        <v>299</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1231,17 +1231,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Pro-512-Promotion-Breakthrough/dp/B0FQF2ZJWT/ref=sr_1_19?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-19</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFMQMHY/ref=sr_1_17?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-17</t>
         </is>
       </c>
     </row>
@@ -1263,11 +1263,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>151899</v>
+        <v>299</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6L7PR2C/ref=sr_1_20?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-20</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFLB369/ref=sr_1_18?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-18</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_21?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-21</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_19?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-19</t>
         </is>
       </c>
     </row>
@@ -1353,11 +1353,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YATWIN</t>
+          <t>iQOO</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>299</v>
+        <v>72998</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFMQMHY/ref=sr_1_22?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-22</t>
+          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_20?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-20</t>
         </is>
       </c>
     </row>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone Charger Adapter 20W Type C (MFi-Certified) for iPhone 17/17 Air/17 Pro/17 Pro Max,16/16 Plus/Pro/Pro Max, 15/14/13/12/11 Series with PD 3.0 USB-C Fast Charging Adaptor</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>206899</v>
+        <v>499</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KS9HR2/ref=sr_1_23?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-23</t>
+          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_21?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-21</t>
         </is>
       </c>
     </row>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>74999</v>
+        <v>171899</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Icyblue-Snapdragon-ProVisual/dp/B0DSBVGKVF/ref=sr_1_24?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-24</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_22?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-22</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KKWK5Z/ref=sr_1_25?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-25</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_23?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-23</t>
         </is>
       </c>
     </row>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>iQOO</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>72998</v>
+        <v>18499</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iQOO-Storage-Fastest-Snapdragon-Processor/dp/B0FYGBSKFB/ref=sr_1_26?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-26</t>
+          <t>https://www.amazon.in/Redmi-15-Midnight-Segments-Snapdragon/dp/B0FJFSHJ6Z/ref=sr_1_24?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-24</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>166899</v>
+        <v>151899</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KV9NFH/ref=sr_1_27?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-27</t>
+          <t>https://www.amazon.in/Apple-iPhone-17-Pro-256GB/dp/B0G6L7PR2C/ref=sr_1_25?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-25</t>
         </is>
       </c>
     </row>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Type C (MFi-Certified) for iPhone 17/17 Air/17 Pro/17 Pro Max,16/16 Plus/Pro/Pro Max, 15/14/13/12/11 Series with PD 3.0 USB-C Fast Charging Adaptor</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>473</v>
+        <v>20499</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Charger-Adapter-Charging-Adaptor-Certified/dp/B0D5YQWKYL/ref=sr_1_28?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-28</t>
+          <t>https://www.amazon.in/Samsung-Storage-Enhanced-Unmatched-Nightography/dp/B0FDB6BHS5/ref=sr_1_26?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-26</t>
         </is>
       </c>
     </row>
@@ -1668,11 +1668,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>iPhone 16 128 GB: 5G Mobile Phone with Camera Control, A18 Chip and a Big Boost in Battery Life. Works with AirPods; Black</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>246899</v>
+        <v>69900</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-2TB/dp/B0G6KPM4RZ/ref=sr_1_29?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-29</t>
+          <t>https://www.amazon.in/iPhone-16-128-GB-Control/dp/B0DGJHBX5Y/ref=sr_1_27?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-27</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>OnePlus</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18499</v>
+        <v>50999</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1726,17 +1726,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Redmi-15-Midnight-Segments-Snapdragon/dp/B0FJFSHJ6Z/ref=sr_1_30?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-30</t>
+          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_28?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-28</t>
         </is>
       </c>
     </row>
@@ -1758,11 +1758,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Redmi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>171899</v>
+        <v>8999</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Pro-512GB/dp/B0G6L1TR2R/ref=sr_1_31?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-31</t>
+          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_29?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-29</t>
         </is>
       </c>
     </row>
@@ -1803,11 +1803,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Redmi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8999</v>
+        <v>166899</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Redmi-A5-Smoothest-Protection-expandable/dp/B0F3P58715/ref=sr_1_32?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-32</t>
+          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-256GB/dp/B0G6KNFJDH/ref=sr_1_30?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-30</t>
         </is>
       </c>
     </row>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Compatible Case Apple iPhone 17 | Back Cover Case | Stylish Frameless Matte Hard Back Skin | Soft TPU Shock Proof Bumper Back Cover Case for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>206899</v>
+        <v>249</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-1TB/dp/B0G6KVWZ4P/ref=sr_1_33?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-33</t>
+          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_31?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-31</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1893,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>MagPro case for Apple iPhone 17 | MagSafe Compatible Protective Cover with Strong Magnetic Adsorption, Shockproof Armor, Scratch Resistant Polycarbonate Hard Back | Translucent Matte Black</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>186899</v>
+        <v>399</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:01</t>
+          <t>2026-02-14 07:53:44</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Pro-Max-512GB/dp/B0G6KRZ53W/ref=sr_1_34?dib=eyJ2IjoiMSJ9.PHon3M7HUBMrTa-KR5bMvusBq3eQztVBSEnuWSCavIcCnsi1HNRaCTwxHSv_aV9GmLCydY5-PQs3OSsoIz-PLBIzqUdYea6C0Q87-A_dXgOqDrsSstkoRFSAkH-7CLMxNLmCOB84pJGA_KW165PQ5D-oT19_rg35uvSuoR9hzxZHLXmwodXwq-_CuZLN48m_2y4QE9XwqKINV72SfHOzTigMDEwwgYUE0mylAPuLZXo.MHvTBI9n2RG1eu_oWyKdJ9H6U07dIcJqIanLX1hgtiY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265914&amp;sr=8-34</t>
+          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_32?dib=eyJ2IjoiMSJ9.0-Aa5JwShbC_899KfOwYiAZUGK-jzsxPSoa-uEodWQw_ZruYa91vek1lI7P0552rljaHOrk5ktZOzQ5sHb2H9hYqGYmRuvVclnXGxLEVPYM1j-60iwlW22TGxtNqtntFR__z05h1w2jh2wtnyp7ZkBqFENVPHY9fF_6-zIeYKwBLwY3o9RvYu_AoGmHsH0BhP8qclbAntpmEHaedjZnbMR5sU0ol3BSNDhFtmrJjooU.6qOpd_255qzieIAr2l-GPM4bf8itLZEpQEp2SaxU-og&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035812&amp;sr=8-32</t>
         </is>
       </c>
     </row>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>iPhone Charger Adapter 20W Original Type C for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, 15/15 Plus/15Pro/15 Pro Max &amp; Other Devices with 1 Meter USB C to Type C Data Cable</t>
+          <t>iPhone Air 1 TB: Thinnest iPhone Ever, 16.63 cm (6.5″) Display with Promotion up to 120Hz, Powerful A19 Pro Chip, Center Stage Front Camera, All-Day Battery Life; Space Black</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>595</v>
+        <v>138890</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-Original-Type-Cable-Adapter/dp/B0CNM4V6Q5/ref=sr_1_35?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-35</t>
+          <t>https://www.amazon.in/iPhone-Air-TB-Thinnest-Promotion/dp/B0FQG8WM6R/ref=sr_1_33?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-33</t>
         </is>
       </c>
     </row>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>72999</v>
+        <v>299</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-7300mAh-Personalised-Game-Changing/dp/B0FTRYH3XM/ref=sr_1_36?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-36</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_34?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-34</t>
         </is>
       </c>
     </row>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4900</v>
+        <v>1799</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-Clear-Case-MagSafe/dp/B0FQFV49W7/ref=sr_1_37?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-37</t>
+          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_35?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-35</t>
         </is>
       </c>
     </row>
@@ -2073,11 +2073,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro Max 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>174900</v>
+        <v>129999</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2086,17 +2086,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-Pro-Max-TB/dp/B0DGJD75G2/ref=sr_1_38?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-38</t>
+          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_36?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-36</t>
         </is>
       </c>
     </row>
@@ -2118,11 +2118,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MagPro case for Apple iPhone 17 | MagSafe Compatible Protective Cover with Strong Magnetic Adsorption, Shockproof Armor, Scratch Resistant Polycarbonate Hard Back | Translucent Matte Black</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2131,17 +2131,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/keeshar-MagPro-Compatible-Polycarbonate-Translucent/dp/B0FV31Z6B8/ref=sr_1_39?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-39</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFM13G1/ref=sr_1_37?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-37</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1799</v>
+        <v>799</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Universally-Compatible-WCB006zbWH/dp/B09GQTTX4N/ref=sr_1_41?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-41</t>
+          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_38?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-38</t>
         </is>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>129999</v>
+        <v>299</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Samsung-Smartphone-Whitesilver-Snapdragon-ProVisual/dp/B0DSKL9MQ8/ref=sr_1_42?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-42</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFLG34Q/ref=sr_1_39?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-39</t>
         </is>
       </c>
     </row>
@@ -2253,11 +2253,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>OnePlus</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52999</v>
+        <v>399</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2266,17 +2266,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OnePlus-Snapdragon%C2%AE-Battery-Lifetime-Warranty/dp/B0F5WTG8RG/ref=sr_1_43?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-43</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBR2SS1/ref=sr_1_40?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-40</t>
         </is>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro 1 TB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Black Titanium</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>159900</v>
+        <v>158</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2316,12 +2316,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-16-Pro-TB-Titanium/dp/B0DGJ7YRZ1/ref=sr_1_44?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-44</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_41?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-41</t>
         </is>
       </c>
     </row>
@@ -2343,11 +2343,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>iPhone 16 Pro Max 512 GB: 5G Mobile Phone with Camera Control, 4K 120 fps Dolby Vision and a Huge Leap in Battery Life. Works with AirPods; Natural Titanium</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>299</v>
+        <v>154900</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-17/dp/B0FS1Y2XZY/ref=sr_1_45?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-45</t>
+          <t>https://www.amazon.in/iPhone-16-Pro-Max-512/dp/B0DGHYSLTF/ref=sr_1_42?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-42</t>
         </is>
       </c>
     </row>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>799</v>
+        <v>399</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Certified-Braided-Charging-Warranty/dp/B0F9FLKHKK/ref=sr_1_46?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-46</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVKGLF/ref=sr_1_43?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-43</t>
         </is>
       </c>
     </row>
@@ -2433,11 +2433,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Compatible Case Apple iPhone 17 | Back Cover Case | Stylish Frameless Matte Hard Back Skin | Soft TPU Shock Proof Bumper Back Cover Case for Apple iPhone 17 (Black)</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>249</v>
+        <v>222.71</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2446,17 +2446,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MOBIKIT-Compatible-Apple-iPhone-17/dp/B0FV7WPZ2L/ref=sr_1_47?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-47</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_44?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-44</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_48?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-48</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9TYH11/ref=sr_1_45?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-45</t>
         </is>
       </c>
     </row>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>214.14</v>
+        <v>299</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQKWCXF5/ref=sr_1_49?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-49</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFM9CNB/ref=sr_1_46?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-46</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:09</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR8XZ71Q/ref=sr_1_50?dib=eyJ2IjoiMSJ9.6F8UcC_EDJj7S9ZyTgmYVIZ5lnmLynvOyJvlkZ4IjuZgrdaAXYS-nv_uHHvDKiqo_fHmMlnna2AkEjLBPr3DGhd1Flh5dlSBhXUof2mShxrYuHwol1pv977anJpBw8kX4BWuPbuA_uKp22I71z5TykDQVKiOqxMd5aFt_UYNO6xq7p05EyxPw5vA1MvcPHT4i8HKGj0p5f1C5HIby2UsvCbTafwGXJF2TIUGkOkIEbk.CCqaOqfJosw65dVUDi7jCjaeBs0BVLdrdptThkKtE6s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265921&amp;sr=8-50</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_47?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-47</t>
         </is>
       </c>
     </row>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>399</v>
+        <v>158</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2626,17 +2626,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:53:53</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVKGLF/ref=sr_1_51?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-51</t>
+          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_48?dib=eyJ2IjoiMSJ9.Dzk6obARr8h2PcsZqXySRqSvHPK2ndidaFZGdNDxUHZmlI9tzMiY4y2qJtLz-QRWmIIBPYWOyR1dcnEfT-eXnsZHDl9KHOT9lpis4QJnmYQ59D2q1m-xsGXpB_49VrvMA_GJm1erFCsl83lH0gJ9k1x7k8f-CfMpE4BbUsYhWdwTTsV0AqEGlrj4Ro61JHj4heeA5fr5mEc8LKirdgUYVs5ds_u7M4iK5ZnaBKG8Ddk.yWxY95ajcooDnLUF1yA-27lP_DASVBByqCQiYcL0pYI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035823&amp;sr=8-48</t>
         </is>
       </c>
     </row>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TheGiftKart</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2671,17 +2671,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_52?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-52</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5VWRS/ref=sr_1_49?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-49</t>
         </is>
       </c>
     </row>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_53?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-53</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFL1HYY/ref=sr_1_50?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-50</t>
         </is>
       </c>
     </row>
@@ -2748,11 +2748,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2761,17 +2761,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_54?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-54</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFNC4WS/ref=sr_1_51?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-51</t>
         </is>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>159</v>
+        <v>69900</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2806,17 +2806,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9QY41V/ref=sr_1_55?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-55</t>
+          <t>https://www.amazon.in/Apple-iPhone-Plus-128GB-Midnight/dp/B0BDJKL7KM/ref=sr_1_52?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-52</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Designer-Apple-iPhone-17/dp/B0FR9M2KXV/ref=sr_1_56?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-56</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KHPMR/ref=sr_1_53?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-53</t>
         </is>
       </c>
     </row>
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rts</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>194</v>
+        <v>499</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_57?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-57</t>
+          <t>https://www.amazon.in/Kapa-Fabric-Protective-iPhone-Shockproof/dp/B0FJJZR1KC/ref=sr_1_54?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-54</t>
         </is>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kratos</t>
+          <t>TheGiftKart</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>599</v>
+        <v>283</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_58?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-58</t>
+          <t>https://www.amazon.in/TheGiftKart-iPhone-17-Micro-Fibre-Black/dp/B0FN88BHH4/ref=sr_1_55?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-55</t>
         </is>
       </c>
     </row>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9V2NTW/ref=sr_1_59?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-59</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFJHZBR/ref=sr_1_56?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-56</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_60?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-60</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFN1PBX/ref=sr_1_57?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-57</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year) (Email Delivery, No Physical Kit)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8499</v>
+        <v>395</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNT1PVP/ref=sr_1_61?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-61</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Professional/dp/B0G437LQJM/ref=sr_1_58?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-58</t>
         </is>
       </c>
     </row>
@@ -3108,11 +3108,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBR2SS1/ref=sr_1_62?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-62</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFP53CH/ref=sr_1_59?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-59</t>
         </is>
       </c>
     </row>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 Pro (1 Year) (Email Delivery, No Physical Kit)</t>
+          <t>Transparent TPU Back Cover Case for Apple iPhone 17 with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible, Enhanced Grip for iPhone 17 (Clear)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>16999</v>
+        <v>149</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNQPM9L/ref=sr_1_63?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-63</t>
+          <t>https://www.amazon.in/SBMS-Transparent-17-Anti-Yellowing-Scratch-Resistant/dp/B0FQ64KQBN/ref=sr_1_60?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-60</t>
         </is>
       </c>
     </row>
@@ -3198,11 +3198,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20W Type C Adapter [MFi Certified, 1 Yrs Warranty] Compatible for iPhone 17 Air/17 Pro &amp; Pro Max/iPhone 16/16e/16 Plus/16 Pro &amp; Pro Max,15/14/13/12/11 Series with PD Fast Charging Adaptor by AILKIN</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>579</v>
+        <v>299</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Certified-Warranty-Compatible-Charging-AILKIN/dp/B0FQCQWJ3N/ref=sr_1_64?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-64</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFJL9XV/ref=sr_1_61?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-61</t>
         </is>
       </c>
     </row>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>rts</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>599</v>
+        <v>194</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Excelsior-Compatible-Premium-Leather-Protection/dp/B0FTBLG2HL/ref=sr_1_65?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-65</t>
+          <t>https://www.amazon.in/rts-Adapter-Charging-Converter-compatible/dp/B097C564GC/ref=sr_1_62?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-62</t>
         </is>
       </c>
     </row>
@@ -3288,11 +3288,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>USB C Cable for Carplay iPhone 17 Pro Max Air 16 15,18W 3A USB A to C Cable for Apple CarPlay &amp; Android Auto, 1M Length Type C Charging Cord for iPad Pro, iPad A16/Mini 6, Galaxy S25 S24 S23, Black</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>649</v>
+        <v>299</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:16</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Carplay-iPhone-CarPlay-Android-Length/dp/B0F13JSYFZ/ref=sr_1_66?dib=eyJ2IjoiMSJ9.5xrturrVllfS62sAEnOj2BsdPWd6HOer9K-7I-hcjVLOOgDIJ5uKsTBA29ZP2SEblD3Bhf5D0jQqyvFAo4VcNY4NFuduh8xB0YiODMHYBy6byR312trUWCSMHZPvWEtsTpwe4M0rVpONzi8Zb26Wke7PiwScwKrOBFBHX1Pm0-f3xrGPDuFgS9uW3SdSnaDW0LZ1i8LN6h2gnr6L3KGqOOCNqypaEIPw6ckVjrejJWc.h32rK0LmQ665ySAZ3WiuWHvBH8TpbqI8kjTK0S8BRaM&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265929&amp;sr=8-66</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFL8N6C/ref=sr_1_63?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-63</t>
         </is>
       </c>
     </row>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Ray-Ban | Meta Wayfarer (Gen 1) - Matte Black, Polarised Gradient Graphite Lenses</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>599</v>
+        <v>32100</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3346,17 +3346,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:04</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXKWMPR/ref=sr_1_67?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-67</t>
+          <t>https://www.amazon.in/Ray-Ban-Meta-Wayfarer-Gen-Polarised/dp/B0G24TJ9FQ/ref=sr_1_64?dib=eyJ2IjoiMSJ9.07KtYBOs-3hxJj9OuZkG7teBjTO1Wne4Ex_jC3jpVsUfnsdh9-g78M5y3ae0WcI5nv_6FOrvDWiikNjUzDbNRKMlFlsO2vhn13EfZHb5OZQg8dOBwMe9TS7Fgm9oSN0pwvlVbjmaHZW9a4jqEiJbn00MKYIQ2Ir2DCxkLOpsAqHjxdektL4BNZFK5MK6kog3-MVBzFobHV9gt_kQzROycyjoIa6ky1vghK0Ahtq5gb4.6rXohSsU_v-LzdxuVzOcSyANyFcO28X-3D6fP6TP5fo&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035832&amp;sr=8-64</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_68?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-68</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Shockproof-inbuilt-Cushioned/dp/B0FC2C7DHQ/ref=sr_1_65?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-65</t>
         </is>
       </c>
     </row>
@@ -3423,11 +3423,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Fabric-Protective-iPhone-Shockproof/dp/B0FJKKSKX4/ref=sr_1_69?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-69</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFN1BR3/ref=sr_1_66?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-66</t>
         </is>
       </c>
     </row>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FR9KHPMR/ref=sr_1_70?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-70</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFNKH9J/ref=sr_1_67?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-67</t>
         </is>
       </c>
     </row>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Verilux</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>299</v>
+        <v>1547</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD2RP9/ref=sr_1_71?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-71</t>
+          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_68?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-68</t>
         </is>
       </c>
     </row>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>iPhone Charger Cable(MFi Certified) Type C to Type C Cable for iPhone 17/17 Air/17 Pro/17 Pro Max, 16/16 Plus/16 Pro/16 Pro Max, iPhone 15, Samsung Galaxy S24/S23/S22/S21 FE Laptop &amp; Other Devices</t>
+          <t>Transparent TPU Back Case Cover for Apple iPhone 17 Pro with Camera Protection, Ultra Slim, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for iPhone 17 Pro (Clear)</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>373</v>
+        <v>159</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/DR-VAKU-Braided-Type-Cable/dp/B0D1R85RMR/ref=sr_1_72?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-72</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Pro-Anti-Yellowing-Scratch-Resistant/dp/B0FQCQJRBC/ref=sr_1_69?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-69</t>
         </is>
       </c>
     </row>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LIRAMARK</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Anti-Smudge-protector-compatible-Installation/dp/B0FPCHMGHH/ref=sr_1_73?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-73</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFL4LBT/ref=sr_1_70?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-70</t>
         </is>
       </c>
     </row>
@@ -3648,11 +3648,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_74?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-74</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2CN31Z/ref=sr_1_71?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-71</t>
         </is>
       </c>
     </row>
@@ -3693,11 +3693,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3706,17 +3706,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_75?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-75</t>
+          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9M3798/ref=sr_1_72?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-72</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3738,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9M3798/ref=sr_1_76?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-76</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQL1B9ZV/ref=sr_1_73?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-73</t>
         </is>
       </c>
     </row>
@@ -3783,11 +3783,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Kratos</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1104.95</v>
+        <v>599</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Apple-Certified-Braided-USB-C/dp/B0DZ281V8K/ref=sr_1_77?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-77</t>
+          <t>https://www.amazon.in/Kratos%C2%AE-Original-Compatible-Certified-Warranty/dp/B0FDKFQVSK/ref=sr_1_74?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-74</t>
         </is>
       </c>
     </row>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TheGiftKart</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-Translucent-iPhone-17-Shockproof/dp/B0FN8866YH/ref=sr_1_78?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-78</t>
+          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Compatible-Apple-iPhone/dp/B0G6TMJ9PR/ref=sr_1_75?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-75</t>
         </is>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Verilux</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1548</v>
+        <v>299</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Verilux%C2%AE-Charging-Ethernet-MacBook-Enabled/dp/B09TDYMKJJ/ref=sr_1_79?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-79</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFQGQ1L/ref=sr_1_76?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-76</t>
         </is>
       </c>
     </row>
@@ -3918,11 +3918,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wayona</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3931,17 +3931,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Wayona-Charging-Braided-Compatible-Samsung/dp/B08WKFSN84/ref=sr_1_80?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-80</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFQY832/ref=sr_1_77?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-77</t>
         </is>
       </c>
     </row>
@@ -3963,11 +3963,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Belkin</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>399</v>
+        <v>898</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PQXRBC/ref=sr_1_81?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-81</t>
+          <t>https://www.amazon.in/Belkin-Apple-Certified-USB-C-Cable/dp/B0F836XTHJ/ref=sr_1_78?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-78</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4008,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>3 in 1 MagSafe compatible Magnetic Foldable Wireless Charger for iPhone 17 to 12 Series | Compatible with AirPods 2/3, Pro2, Pro3 | Compatible with only Apple Watch Series | 23W Charging - Pearl White</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>599</v>
+        <v>2649</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4021,17 +4021,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:24</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXV5LGM/ref=sr_1_82?dib=eyJ2IjoiMSJ9.KPl69w6N46_HL922cDCW1lbP-c-7tvs80U2yx5mN5ELq2X4iZ4O6HhFEXxGCipzHtuexfAxe0mlUspzCqDCV1Owf5KaHLr7mHkhoSKvN-ZSpJ36-VMe2uMKJeqJcSKQG9ptUGa_bX5la0vAmOR20FD9jmlZ5bM37Kxb7lv2oy85TH78IR547rFLhLz2UZ4T3v4w_U4DM2RmxWsgvB_2lklHXcbB63vF8bkq-cIBsU-Y.vjmuDEesF5G7vEGUhJ62YFHmkAXDCWudKXuXm2GIYsE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265936&amp;sr=8-82</t>
+          <t>https://www.amazon.in/Magnetic-Foldable-Compatible-Wireless-Charging/dp/B0C3R8MMJD/ref=sr_1_79?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-79</t>
         </is>
       </c>
     </row>
@@ -4053,11 +4053,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2278</v>
+        <v>299</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:14</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UGREEN-Splitter-Multiport-Extender-Compatible/dp/B0D9Q9WCLX/ref=sr_1_83?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-83</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFL5T6P/ref=sr_1_80?dib=eyJ2IjoiMSJ9._JfzjkZXwnp1bKd-e51waqt3wd3_RSKKMUmID5vZw3--MVRrqdhvREikLGA-CBXSF8hDG6TYE968kcWjRgFbbMMFv4-j0ucAdHPnkCAkf5OABw4_2p_sO9EMOK7NjtRylazhuSFiRjYCPvZXpJ7jmPuTtcT88xXWNeB7YADz17txk8P9ybgRlfqNaAQ-zty2uRvF3tDwiRHtRyWAgBtIGHiA3xd3a2nf4VleXmvArCY.nySLQvasmdBSF-wtfDP3gUYhoPzbaR3Azn4anMuTfg8&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035843&amp;sr=8-80</t>
         </is>
       </c>
     </row>
@@ -4098,11 +4098,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 Pro (1 Year) (Email Delivery, No Physical Kit)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2499</v>
+        <v>16999</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-PE2007-iPhone-Charger-Devices/dp/B09BYT72ZF/ref=sr_1_84?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-84</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNQPM9L/ref=sr_1_81?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-81</t>
         </is>
       </c>
     </row>
@@ -4143,11 +4143,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>899</v>
+        <v>399</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Braided-USB-C-Cable-Meter/dp/B0F8349N8V/ref=sr_1_85?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-85</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Embossed/dp/B0G3PRY69H/ref=sr_1_82?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-82</t>
         </is>
       </c>
     </row>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TheGiftKart</t>
+          <t>LIRAMARK</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TheGiftKart-Ultra-Hybrid-iPhone-17-Transparent/dp/B0FN89KT94/ref=sr_1_86?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-86</t>
+          <t>https://www.amazon.in/LIRAMARK-Anti-Smudge-protector-compatible-Installation/dp/B0FPCHMGHH/ref=sr_1_83?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-83</t>
         </is>
       </c>
     </row>
@@ -4233,11 +4233,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>eller santé</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2797</v>
+        <v>399</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4246,17 +4246,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Magnetic-Wireless-Charger-Dock-Compatible/dp/B09PBYS1TB/ref=sr_1_87?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-87</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G3PQXRBC/ref=sr_1_84?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-84</t>
         </is>
       </c>
     </row>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Original Apple-Certified 20W USB-C Charger with Type C Cable | Fast iPhone Charger for iPhone 17, 16, 15 Plus/PRO/MAX/MINI &amp; iPad | MFi Certified Adapter and Charging Cable Combo (White)</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>295</v>
+        <v>449</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_88?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-88</t>
+          <t>https://www.amazon.in/Apple-Certified-20W-Charger-iPhone-Certified/dp/B0GHSZ457H/ref=sr_1_85?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-85</t>
         </is>
       </c>
     </row>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>499</v>
+        <v>399</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX83N95/ref=sr_1_89?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-89</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBNMB8W/ref=sr_1_86?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-86</t>
         </is>
       </c>
     </row>
@@ -4368,11 +4368,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>TheGiftKart</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4381,17 +4381,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Shockproof/dp/B0FRB25PDD/ref=sr_1_90?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-90</t>
+          <t>https://www.amazon.in/TheGiftKart-Translucent-iPhone-17-Shockproof/dp/B0FN8866YH/ref=sr_1_87?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-87</t>
         </is>
       </c>
     </row>
@@ -4413,11 +4413,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Honeywell</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Honeywell-Certified-Ultra-Fast-Compatible-Smartphones/dp/B098XKR233/ref=sr_1_91?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-91</t>
+          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXV5LGM/ref=sr_1_88?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-88</t>
         </is>
       </c>
     </row>
@@ -4458,11 +4458,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4476,12 +4476,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0G1LN8JWT/ref=sr_1_92?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-92</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFNVPKW/ref=sr_1_89?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-89</t>
         </is>
       </c>
     </row>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>AIBEX</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year) (Email Delivery, No Physical Kit)</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>281</v>
+        <v>8499</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/iPhone-Air-Anti-Fingerprint-Bubble-Free-Installation/dp/B0FJ5PNSCD/ref=sr_1_93?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-93</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-Delivery-Physical/dp/B0FQNT1PVP/ref=sr_1_90?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-90</t>
         </is>
       </c>
     </row>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>598</v>
+        <v>299</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4566,12 +4566,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Magnetic-Leather-iPhone-Holder/dp/B0FMXQYPKZ/ref=sr_1_94?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-94</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKT7CJ/ref=sr_1_91?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-91</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4606,17 +4606,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_95?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-95</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-17-Silicone-Stylish/dp/B0FR9ZMMFC/ref=sr_1_92?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-92</t>
         </is>
       </c>
     </row>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Ofuca</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3199</v>
+        <v>569</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4651,17 +4651,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-Aramid-MagFit-Compatible-iPhone/dp/B0FD2BYBFJ/ref=sr_1_96?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-96</t>
+          <t>https://www.amazon.in/Ofuca-Charging-Compatible-MacBook-AirPods/dp/B0GHR23P2T/ref=sr_1_93?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-93</t>
         </is>
       </c>
     </row>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Basesailor</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>699</v>
+        <v>249</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4696,17 +4696,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Basesailor-Certified-Charging-Devices-Durable-High-Speed/dp/B0DCC3MKCK/ref=sr_1_97?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-97</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G2GZSY9C/ref=sr_1_94?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-94</t>
         </is>
       </c>
     </row>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>930</v>
+        <v>599</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:34</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-Liquid-Cover-Compatible-iPhone/dp/B0FD2JMYY8/ref=sr_1_98?dib=eyJ2IjoiMSJ9.oupmmxBhxJ8vSlBbiXHyXCuWhHzevOn2TL3Gv1qxQjYqCM-u1j8kVbMMYeAsqkcdzNxlyCrdtQ8kNfUhn1CFn3mEv_XkjCTSw_uDp58uyxW1hfC4paiKcGZw9zhZn99LasS6wsCy3DUPWmFDqIZHrKz7Rwm3vPQv9BjtT1THXep4ibVYw8jveAA5HmyzSH7iivv0mZdnHypzEeh6s7YxxdiA7--h-YC__YOE6LoSBZk.DutJiI9oOWb22lR9FgGsxsC3exRwHC6FjjLeqOQhP_s&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265944&amp;sr=8-98</t>
+          <t>https://www.amazon.in/Excelsior-Compatible-Premium-Leather-Protection/dp/B0FTBLG2HL/ref=sr_1_95?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-95</t>
         </is>
       </c>
     </row>
@@ -4773,11 +4773,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4791,12 +4791,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:21</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FFZ45/ref=sr_1_99?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-99</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Professional/dp/B0G4933FVZ/ref=sr_1_96?dib=eyJ2IjoiMSJ9.J7GiEVrYb-oAukIb0sB0ra575spGv1KsUAZzOljTnQbJHNeaWD420WsgYvIDGgL4v2QWXPmJp57g9_xXDTMEYmFVQhU_lX0e74s3XdBY3sabHIvwOuOdqgrj0rNiNcGLWWBMbHHbrUidY6fESmA9zHmzDgqdgNGlrm6g4rQ2wSixuuEB9yhKZo4NqwCIq7Ubwm5Oe04ZJ7Zpj0sjysSbvn95FtvmC1fxH-52tco_i3w.LJYm8RimE9IZqgkTe0JKgFIOnDNRP2JUaZcrocndx0M&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035853&amp;sr=8-96</t>
         </is>
       </c>
     </row>
@@ -4818,11 +4818,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ambrane</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>599</v>
+        <v>299</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4831,17 +4831,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ambrane-Charger-Adapter-Devices-Lightning/dp/B0FB94J9CF/ref=sr_1_100?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-100</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Soft-Touch/dp/B0FVFL5QPB/ref=sr_1_97?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-97</t>
         </is>
       </c>
     </row>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D1157</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4881,12 +4881,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9TYXBV/ref=sr_1_101?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-101</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicon_Clear/dp/B0FC2FG2PQ/ref=sr_1_98?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-98</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4921,17 +4921,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Anti-Yellow-Apple-iPhone-Air/dp/B0G6TQNNWT/ref=sr_1_102?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-102</t>
+          <t>https://www.amazon.in/Jkobi-Ultra-Hybrid-Apple-iPhone-17/dp/B0G4WP2G7R/ref=sr_1_99?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-99</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4971,12 +4971,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_103?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-103</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_100?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-100</t>
         </is>
       </c>
     </row>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SwanScout</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4139</v>
+        <v>848</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5011,17 +5011,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SwanScout-Wireless-Charging-Foldable-Magnetic/dp/B0DFBSKGMN/ref=sr_1_104?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-104</t>
+          <t>https://www.amazon.in/Nillkin-iPhone-Frosted-Protect-Without/dp/B0FKH7RW37/ref=sr_1_101?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-101</t>
         </is>
       </c>
     </row>
@@ -5043,11 +5043,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>OpenTech</t>
+          <t>iPhone 17 Air Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Red</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/OpenTech%C2%AE-Compatible-iPhone-17-Transparent/dp/B0FP533C23/ref=sr_1_105?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-105</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSP5VWYJ/ref=sr_1_102?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-102</t>
         </is>
       </c>
     </row>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Spigen</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5101,17 +5101,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Spigen-Charger-Adapter-Budget-Friendly-Earbuds/dp/B0G2LCL12G/ref=sr_1_106?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-106</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Transparent/dp/B0FT8RZZQH/ref=sr_1_103?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-103</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5151,12 +5151,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0GC5SP927/ref=sr_1_107?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-107</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G1LNB96C/ref=sr_1_104?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-104</t>
         </is>
       </c>
     </row>
@@ -5178,11 +5178,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5191,17 +5191,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GCSKWN74/ref=sr_1_108?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-108</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCG79VN/ref=sr_1_105?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-105</t>
         </is>
       </c>
     </row>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Designer Printed Soft Silicone Back Case Cover for iPhone 17, Back Cover for Apple iPhone 17 -D0157</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5236,17 +5236,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-iPhone-17-Apple/dp/B0FR9S283X/ref=sr_1_109?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-109</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF78D3/ref=sr_1_106?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-106</t>
         </is>
       </c>
     </row>
@@ -5268,11 +5268,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SwanScout</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4139</v>
+        <v>299</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SwanScout-Wireless-Charger-Charging-Foldable/dp/B0DGCKNYSD/ref=sr_1_110?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-110</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFMRKMF/ref=sr_1_107?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-107</t>
         </is>
       </c>
     </row>
@@ -5313,11 +5313,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5331,12 +5331,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_111?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-111</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFQC28N/ref=sr_1_108?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-108</t>
         </is>
       </c>
     </row>
@@ -5358,11 +5358,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5371,17 +5371,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Polycarbonate/dp/B0FTFJZL7T/ref=sr_1_112?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-112</t>
+          <t>https://www.amazon.in/Kapa-Hawkeye-iPhone-Protector-Shockproof/dp/B0FGP9ZHJQ/ref=sr_1_109?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-109</t>
         </is>
       </c>
     </row>
@@ -5403,11 +5403,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_113?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-113</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSCZMJ1J/ref=sr_1_110?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-110</t>
         </is>
       </c>
     </row>
@@ -5448,11 +5448,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>eller santé</t>
+          <t>Designer Case for Apple iPhone 17 Air, Back Cover for iPhone 17air Printed Back Cover -D3234</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2648</v>
+        <v>159</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5461,17 +5461,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:43</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/eller-Magnetic-Mag-Safe-Wireless-Grey/dp/B0CW6CKFG4/ref=sr_1_114?dib=eyJ2IjoiMSJ9.HXesyLPANVuujQntaxQRyHQJ_xMMXPjySFZUWRT591JLj1KHWbA_QwBW54KskLSU3ETPwW9bLTAecSU9XcexEG5Z2_hGe4vzlcv58aZOeX1WrSjcG00n97VjLfC73ncf33jpfxS16RGZIIdDIGmWZSvybji3koL0pDwQOr6Yz8Eu9EmUKpONKNXHMyq7QGANIE4W8p_QdXSC8TQ3RVUf-n_D7KpkPDSlB4ok1N_CLiY.JQfYf-I7SdOUJijEwUTc97XaLNE4-_G96HzuKYoQYfs&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265954&amp;sr=8-114</t>
+          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Air/dp/B0FRGJL9V7/ref=sr_1_111?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-111</t>
         </is>
       </c>
     </row>
@@ -5493,11 +5493,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5511,12 +5511,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:29</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMX9HYRN/ref=sr_1_115?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-115</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBWZN2H/ref=sr_1_112?dib=eyJ2IjoiMSJ9.3k0hVreAofi2PRv_h8CfXBoarheYizEKjybwtX3y8Dsu7OjfbiBozN1X8_HYEduR6Kr0zNcfor38b8SunSDrbubgshykaEoT-Nk_JkTJm6qkbTTSmh152GA5t7RzRTK0UfM1htRZvOhpAIYrS6xz8YAsgZfgh6G4SWK-5PkQegxzCEYgmnfnO9alX_DC8JRgG_gS9Ag_jEp5wGqiRVMsXtkmIvq-bb4q1RU3oO8TUgE.1EMpe6FPbUddkYCxqkaLekzAJOK9Lc9kzZKYOLvlaCc&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035859&amp;sr=8-112</t>
         </is>
       </c>
     </row>
@@ -5538,11 +5538,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Compatible with iPhone 17 Camera Lens Protector Lavender (2-Pack) – 9H Tempered Glass, Military-Grade Anti-Scratch, Case-Friendly, Easy Install Frame</t>
+          <t>iPhone 17 Pro Silicone Back Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Dark Blue</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>922</v>
+        <v>269</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5551,17 +5551,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Lensarmor-Compatible-17-Protector-Lavender/dp/B0FQKHJZV4/ref=sr_1_116?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-116</t>
+          <t>https://www.amazon.in/SNAPWAVE-Silicone-Protection-Rubberised-Microfiber/dp/B0FSB6M53B/ref=sr_1_113?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-113</t>
         </is>
       </c>
     </row>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D2232</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CF1WB/ref=sr_1_117?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-117</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0FT36XFPQ/ref=sr_1_114?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-114</t>
         </is>
       </c>
     </row>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Zapcase</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5641,17 +5641,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0F94685RN/ref=sr_1_118?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-118</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Soft-Touch-Shockproof/dp/B0FVFLX4Z9/ref=sr_1_115?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-115</t>
         </is>
       </c>
     </row>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5691,12 +5691,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2G4SZ1/ref=sr_1_119?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-119</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G42ZJ34K/ref=sr_1_116?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-116</t>
         </is>
       </c>
     </row>
@@ -5718,11 +5718,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>498</v>
+        <v>399</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5731,17 +5731,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXLTGR4/ref=sr_1_120?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-120</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G3PR9MJP/ref=sr_1_117?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-117</t>
         </is>
       </c>
     </row>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CYTRON</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3490</v>
+        <v>399</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5776,17 +5776,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/MagSafe-Wireless-Charging-Mag-Safe-Magnetic/dp/B0DPJ274KH/ref=sr_1_121?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-121</t>
+          <t>https://www.amazon.in/Spigen-Charger-Adapter-Budget-Friendly-Earbuds/dp/B0G2LCL12G/ref=sr_1_118?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-118</t>
         </is>
       </c>
     </row>
@@ -5808,11 +5808,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D3246</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5821,17 +5821,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9CDKR7/ref=sr_1_122?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-122</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC29SLRM/ref=sr_1_119?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-119</t>
         </is>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1599</v>
+        <v>999</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5866,17 +5866,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-Frosted-Magnetic-Protect-Transparent/dp/B0FKH9QX37/ref=sr_1_123?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-123</t>
+          <t>https://www.amazon.in/Dux-Ducis-Case-iPhone-Built/dp/B0FRB57HGY/ref=sr_1_120?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-120</t>
         </is>
       </c>
     </row>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year)_Welcome Letter</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8499</v>
+        <v>239</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5916,12 +5916,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Protect-AppleCare-Services-iPhone-_Welcome/dp/B0G1C6NCQW/ref=sr_1_124?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-124</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DHJHL/ref=sr_1_121?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-121</t>
         </is>
       </c>
     </row>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5961,12 +5961,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W64BSK/ref=sr_1_125?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-125</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DRX59/ref=sr_1_122?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-122</t>
         </is>
       </c>
     </row>
@@ -5988,11 +5988,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G3PQR3Y1/ref=sr_1_126?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-126</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Pro-Max/dp/B0FVFM13FS/ref=sr_1_123?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-123</t>
         </is>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Flip Cover Back Case for iPhone 17 | Premium Leather Finish | Inbuilt Pockets &amp; Stand | Flip Cover Back Case for iPhone 17 (Coffee)</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6046,17 +6046,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Premium-Leather-Inbuilt-Pockets/dp/B0FQNJ9W9C/ref=sr_1_127?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-127</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLQWTC/ref=sr_1_124?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-124</t>
         </is>
       </c>
     </row>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Kratos</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>199</v>
+        <v>599</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJCHYF/ref=sr_1_128?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-128</t>
+          <t>https://www.amazon.in/Kratos-25W-Adapter-Cable-Pink/dp/B0G1MVZ5C4/ref=sr_1_125?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-125</t>
         </is>
       </c>
     </row>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ACAGET</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>975</v>
+        <v>299</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6141,12 +6141,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ACAGET-iPhone-Dustproof-Protective-Shockproof/dp/B0G1SCQW7L/ref=sr_1_129?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-129</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKJ35T/ref=sr_1_126?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-126</t>
         </is>
       </c>
     </row>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>iPhone 17 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>SwanScout</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>399</v>
+        <v>4139</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6181,17 +6181,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:50</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBWZN2H/ref=sr_1_130?dib=eyJ2IjoiMSJ9.CjD6_cNzodO6EjHmjlQLNNR31AkMvUAEwkov9x8ZdwL8Vw3P4GRDDx1vImndv5xat7y5yvifnfjJT7pxSsfjreKfzW7ldXit5eSoNW3QTsN1DRE5d8fexy5QKlxPoBNO5HUbdOrD7W0kuNp0MTgbHBeYUWCh53HfvnvyS8ykvZyLlaf4kxyUVf8XVcb3SfewEctXYemJRoAc6s2d2sQ5ju1TwRIv8miyyaC72EkRS-Y.eWEpkucWBSt6ISB32j9MEcThujsfSEmGMH5xiIbziuE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265963&amp;sr=8-130</t>
+          <t>https://www.amazon.in/SwanScout-Wireless-Charging-Foldable-Magnetic/dp/B0DFBSKGMN/ref=sr_1_127?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-127</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6231,12 +6231,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:39</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12YJPK7/ref=sr_1_131?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-131</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0G1M2359G/ref=sr_1_128?dib=eyJ2IjoiMSJ9.lKfWFsRAgdJEnpOZEdv_a8Xqw0rzibeK6RqHj6-eNQtUm3jD2PnQ6B9k2w-UjAt-JRbw2NCY-5JgvmeVlAAyIkjJaSFXjMe2Fa-sIFioM1F19Y2mNZKwCpbFGRR7TJFkRrAI75f0JEIase-mZKKb0ySJ86E6DVK-mBHHyOWxaIfO-MPMhNaQhUGjzhVBEgFHh1UJgMw11z2GTP4I9c7O8teUAtsxBg6Roook7GE91t0.I3AY6StO33qF51-k0k7-I5EHBXf-PChrpUUtvHYtDk0&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035868&amp;sr=8-128</t>
         </is>
       </c>
     </row>
@@ -6258,11 +6258,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6271,17 +6271,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_132?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-132</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXHYG89/ref=sr_1_129?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-129</t>
         </is>
       </c>
     </row>
@@ -6303,11 +6303,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>TOUCCH</t>
+          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Pro Max - Clear</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>222.45</v>
+        <v>242</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6321,12 +6321,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_133?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-133</t>
+          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTF5Y3B/ref=sr_1_130?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-130</t>
         </is>
       </c>
     </row>
@@ -6348,11 +6348,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6361,17 +6361,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Transparent/dp/B0FR9M4NRK/ref=sr_1_134?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-134</t>
+          <t>https://www.amazon.in/Jkobi-Crystal-Clear-Apple-iPhone-Polycarbonate/dp/B0FTFJZL7T/ref=sr_1_131?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-131</t>
         </is>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Zapcase</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6406,17 +6406,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJ9HVZ/ref=sr_1_135?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-135</t>
+          <t>https://www.amazon.in/Zapcase-Compatible-Silicon-Protection-Sapphire/dp/B0FHBDSN2Y/ref=sr_1_132?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-132</t>
         </is>
       </c>
     </row>
@@ -6438,11 +6438,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Black</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>999</v>
+        <v>236</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6451,17 +6451,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRS5X8DX/ref=sr_1_136?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-136</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2F4FF4/ref=sr_1_133?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-133</t>
         </is>
       </c>
     </row>
@@ -6483,11 +6483,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>999</v>
+        <v>222</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6501,12 +6501,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-Frosted-Magnetic-Protect-Without/dp/B0FKH8V4TS/ref=sr_1_137?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-137</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Mobile-Flexible-iPhone/dp/B0FC2CF2GP/ref=sr_1_134?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-134</t>
         </is>
       </c>
     </row>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>POPIO</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6541,17 +6541,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/POPIO-iPhone-Pro-Max-Installation/dp/B0FPMK2QHX/ref=sr_1_138?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-138</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0FZBGLB94/ref=sr_1_135?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-135</t>
         </is>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Zapcase</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6586,17 +6586,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Compatible-Silicon-Protection/dp/B0F9497X2J/ref=sr_1_139?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-139</t>
+          <t>https://www.amazon.in/Zapcase-Compatible-Silicon-Protection-Sapphire/dp/B0FHB9JNNG/ref=sr_1_136?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-136</t>
         </is>
       </c>
     </row>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Belkin</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>849</v>
+        <v>295</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Belkin-Charging-iPhone-Galaxy-Carplay/dp/B08558HKB1/ref=sr_1_140?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-140</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0FYY4LWKJ/ref=sr_1_137?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-137</t>
         </is>
       </c>
     </row>
@@ -6663,11 +6663,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>379</v>
+        <v>999</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6676,17 +6676,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GGH1YB96/ref=sr_1_141?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-141</t>
+          <t>https://www.amazon.in/Dux-Ducis-Hivo-Case-iPhone/dp/B0FRB4M5X3/ref=sr_1_138?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-138</t>
         </is>
       </c>
     </row>
@@ -6708,11 +6708,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6726,12 +6726,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Professional/dp/B0G42ZJ34K/ref=sr_1_142?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-142</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FFZ45/ref=sr_1_139?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-139</t>
         </is>
       </c>
     </row>
@@ -6753,11 +6753,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>Ringke</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>181</v>
+        <v>2199</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6766,17 +6766,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DK84N/ref=sr_1_143?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-143</t>
+          <t>https://www.amazon.in/Ringke-UX-Magnetic-Compatible-Protective/dp/B0FL8C8QNB/ref=sr_1_140?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-140</t>
         </is>
       </c>
     </row>
@@ -6798,11 +6798,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>VNJ Protective Charger Case for iPhone 18W 20W iPhone 17 16 15 14 13 12 11 Pro Max Charging Cable Charger Protective Cover Data Cable Protective Sleeve(Star Black Astronaut)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6811,17 +6811,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/VNJ-ACCESSORIES-Protective-Charging-Astronaut/dp/B0CZHXSCCT/ref=sr_1_144?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-144</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Polycarbonate/dp/B0G12XWVKQ/ref=sr_1_141?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-141</t>
         </is>
       </c>
     </row>
@@ -6843,11 +6843,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>499</v>
+        <v>399</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6861,12 +6861,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_145?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-145</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBZVVNP/ref=sr_1_142?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-142</t>
         </is>
       </c>
     </row>
@@ -6888,11 +6888,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>UNIGEN</t>
+          <t>Poohan FLIP Case for iPhone 17 Pro Max – Compatible with Magsafe Premium Flip PU Leather Case with Built-in Kickstand &amp; Card Holder, Magnetic Closure, PC + TPU Back, Lightweight Phone Case (Black)</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>838</v>
+        <v>2699</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6901,17 +6901,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2026-02-05 10:02:58</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UNIGEN%C2%AE-Charger-Adapter-Compatible-Devices/dp/B0C5R5JQK7/ref=sr_1_146?dib=eyJ2IjoiMSJ9.98-aU77tFZsxGXn545w-kX7pta-YJ9HOMBrXUBp77rTbQvSHuL75HIpL3Zl3ITYegZk7lPM7ZR4bukSV6jILfB5mX3vST3AdxXH4qfClJO4-zYxDSKkVFjk-Z5DyxwTUsYZDYT_4iOeYABpn6C5hpJDrHWnFPe-DJgAdvoo8kgYQT789Fja_3sse_VxDnk05vMT8MOp6D84lu_hu8KW4QKIx32v_zjuKfcXDsZkZQ3k.P303w39ClYya7F6bQ9T8UCoTY-dIThqgqcVaOgZk1-U&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265970&amp;sr=8-146</t>
+          <t>https://www.amazon.in/Poohan-FLIP-iPhone-Pro-Built/dp/B0FTSJQD4H/ref=sr_1_143?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-143</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>499</v>
+        <v>269</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6946,17 +6946,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:48</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_147?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-147</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCDFB8C/ref=sr_1_144?dib=eyJ2IjoiMSJ9.N6H6T4faWTOgUA2sLBl3qxCci6ik-bOVm0Wy1jB75NtLN-FCm8HeCZkTaoouzJdmEKCzEnZ7EdfbGrJ6nVvjpf2J2CpmY1GHScJJfFLAvlppZsHcsULOWu4T_PjDpFi4nmJQSdCC-3djWNEzrZrnwRZfVADmF3sWNxW8wxl7IavpJwpdmK61QVDdrKcj1o201SotWSH5uKX_nin7ua1s5nvfRyl5NnoAGuXEdKBjhdQ.7to8eBNMpSMSCjxi-UThcqqx9vsuACOJ1KkHzFpdUdY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035878&amp;sr=8-144</t>
         </is>
       </c>
     </row>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>iPhone 17 Pro Case | Frosted Silicone with Metal Ring Camera &amp; Button Protection | Slim &amp; Shockproof | Matte Grip Apple iPhone 17 Pro Cover - Black</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>379</v>
+        <v>179</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6991,17 +6991,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FSKK6ZZP/ref=sr_1_148?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-148</t>
+          <t>https://www.amazon.in/Snapwave-Frosted-Silicone-Protection-Shockproof/dp/B0FT1SXPB4/ref=sr_1_145?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-145</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -7036,17 +7036,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0G93C9CWH/ref=sr_1_149?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-149</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Protection-Sapphire/dp/B0F948FZW8/ref=sr_1_146?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-146</t>
         </is>
       </c>
     </row>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Qin Pro Leather Case with Slide Camera Cover for iPhone 17 Pro 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection – Brown</t>
+          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>999</v>
+        <v>399</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Leather-Slide-Camera-Cover-iPhone/dp/B0FRRD1BW1/ref=sr_1_150?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-150</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBQ9K1R/ref=sr_1_147?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-147</t>
         </is>
       </c>
     </row>
@@ -7113,11 +7113,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>GADGETS WRAP</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>199</v>
+        <v>499</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7126,17 +7126,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/GADGETS-WRAP-Printed-Sticker-iPhone/dp/B0FSDDQPQH/ref=sr_1_151?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-151</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXCSZBB/ref=sr_1_148?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-148</t>
         </is>
       </c>
     </row>
@@ -7176,12 +7176,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXJ8XK2/ref=sr_1_152?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-152</t>
+          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXQ6GRS/ref=sr_1_149?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-149</t>
         </is>
       </c>
     </row>
@@ -7203,11 +7203,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Pelican</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1804.05</v>
+        <v>159</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7216,17 +7216,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Pelican-Compatible-Magnetic-Military-Grade-Protection/dp/B0FVF1HC25/ref=sr_1_153?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-153</t>
+          <t>https://www.amazon.in/Fashionury-iPhone-Transparent-Apple-Air/dp/B0FRGH36WM/ref=sr_1_150?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-150</t>
         </is>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>PRITO</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>848</v>
+        <v>899</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7261,17 +7261,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-iPhone-Frosted-Protect-Without/dp/B0FKH85NS9/ref=sr_1_154?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-154</t>
+          <t>https://www.amazon.in/PRITO-iPhone-17-Scratch-Resistant-Lightweight/dp/B0GDQ6ZMC4/ref=sr_1_151?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-151</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Designer Case for Apple iPhone 17, Back Cover for iPhone 17 Printed Back Cover -D1216</t>
+          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 -D0153</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9M49WS/ref=sr_1_155?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-155</t>
+          <t>https://www.amazon.in/Nainz-Designer-Apple-iPhone-17/dp/B0FR9GZ5R2/ref=sr_1_152?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-152</t>
         </is>
       </c>
     </row>
@@ -7338,11 +7338,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Poohan Qin Pro Leather Case with Slide Camera Cover for iPhone 17 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection (Black)</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2999</v>
+        <v>299</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7351,17 +7351,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Poohan-Leather-Slide-Camera-iPhone/dp/B0FTRZZDJ5/ref=sr_1_156?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-156</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLKTVP/ref=sr_1_153?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-153</t>
         </is>
       </c>
     </row>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>AIBEX</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>950</v>
+        <v>299</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7396,17 +7396,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-Camshield-Genuine-Classic-Leather/dp/B0FKH65KCW/ref=sr_1_157?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-157</t>
+          <t>https://www.amazon.in/AIBEX-iPhone-17-AIR-Compatible/dp/B0FTZBS5Q8/ref=sr_1_154?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-154</t>
         </is>
       </c>
     </row>
@@ -7428,11 +7428,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>COVERBLACK</t>
+          <t>Poohan FLIP Case for iPhone 17 Pro Compatible with Magsafe Premium Flip PU Leather Case with Built-in Kickstand &amp; Card Holder Magnetic Charging Support PC + TPU Back Lightweight Phone Case (Black)</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>219</v>
+        <v>2699</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7446,12 +7446,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/COVERBLACK-Shockproof-Polycarbonate-Compatible-A_pple/dp/B0GDH44TLS/ref=sr_1_158?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-158</t>
+          <t>https://www.amazon.in/Pro-Compatible-Kickstand-Magnetic-Lightweight/dp/B0FTSFYCS3/ref=sr_1_155?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-155</t>
         </is>
       </c>
     </row>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>iPhone 16 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>999</v>
+        <v>399</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-Camshield-Genuine-Classic-Leather/dp/B0FKH6XXST/ref=sr_1_159?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-159</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5KH1L/ref=sr_1_156?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-156</t>
         </is>
       </c>
     </row>
@@ -7518,11 +7518,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -7536,12 +7536,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Apple-17-Compatible-Protective/dp/B0G3Q7ZK75/ref=sr_1_160?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-160</t>
+          <t>https://www.amazon.in/Kapa-Leather-iPhone-Shockproof-Protection/dp/B0FMXJ9HVZ/ref=sr_1_157?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-157</t>
         </is>
       </c>
     </row>
@@ -7563,11 +7563,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Zapcase</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>599</v>
+        <v>298</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7576,17 +7576,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_161?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-161</t>
+          <t>https://www.amazon.in/Zapcase-iPhone-Compatible-Silicon-Protection/dp/B0F946ZS29/ref=sr_1_158?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-158</t>
         </is>
       </c>
     </row>
@@ -7608,11 +7608,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Hagibis</t>
+          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 - Clear</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1199</v>
+        <v>241</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:05</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Hagibis-Transfer-Charging-Thunderbolt-Straight/dp/B0G4D8WMLC/ref=sr_1_162?dib=eyJ2IjoiMSJ9.lutj32I0_YB8oS8yHs_6JGZzC4DFDz80Go8AvPzZuo6zv_jJaB9bVB-geBDG6JYRjpifG-QcjNv0H36u8tOht3ACf4cQFMDBn85tuNOlvB82QJurqq8A6T1u0L4ljIv2YJEm8IsTDWBhNScLCv_n55UNSVXOIRcNqlUyrKzCWGEwYYHrqWMD_DQyPSEoI23l08sYg4BW4BaEJO9Z79wFwQ0t_kWiTu1tpvP4p_OsDWg.GaJF1M60uejjRDUK4RTvjyqK-EEWWpToCB9vXpsoucE&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265978&amp;sr=8-162</t>
+          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCSZ76/ref=sr_1_159?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-159</t>
         </is>
       </c>
     </row>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DUX DUCIS</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>999</v>
+        <v>599</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7671,12 +7671,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:54:57</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Dux-Ducis-Case-iPhone-Built/dp/B0FRB57HGY/ref=sr_1_163?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-163</t>
+          <t>https://www.amazon.in/Excelsior-Compatible-Premium-Leather-Protection/dp/B0FWMDFGW2/ref=sr_1_160?dib=eyJ2IjoiMSJ9.LrHmvJKcPORSpqYxkJIMOOkq5YS4U15jA7fZRh_PqJFwb_DHCav571jtzYu8-VDg9KA8o3FRjGn5ZIHN9dz70jlq4ZjCrYVLSYfHs8Z-0mesyov87ZWm247vLYjuIyAu8p2GyMpmgonqiaDYGxA77ZmcdCtN598nHRIyQdAvNHlbs96422zdh6t9sg-9rKmjt76lcAgihvz_3dJ-IreefZM-xSiD766nJVMOCFqdxVc.wyHucfK7wdELaKixxTnAtw7m-H9zvrFHSK61reGdu-Y&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035886&amp;sr=8-160</t>
         </is>
       </c>
     </row>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hagibis</t>
+          <t>TOUCCH</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1199</v>
+        <v>211.07</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Hagibis-Transfer-Charging-Thunderbolt-Straight/dp/B0G4D8WMLC/ref=sr_1_164?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-164</t>
+          <t>https://www.amazon.in/TOUCCH-Transparent-Protection-Wireless-Charging/dp/B0FQLMMZ1J/ref=sr_1_161?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-161</t>
         </is>
       </c>
     </row>
@@ -7743,11 +7743,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
+          <t>AIBEX</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7756,17 +7756,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_165?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-165</t>
+          <t>https://www.amazon.in/iPhone-Air-Anti-Fingerprint-Bubble-Free-Installation/dp/B0FJ5PNSCD/ref=sr_1_162?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-162</t>
         </is>
       </c>
     </row>
@@ -7788,11 +7788,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7806,12 +7806,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Compatible-iPhone-Transparent-Apple/dp/B0FR9SQND2/ref=sr_1_166?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-166</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2D3QZW/ref=sr_1_163?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-163</t>
         </is>
       </c>
     </row>
@@ -7833,11 +7833,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro Max – Brown</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>219</v>
+        <v>548</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7846,17 +7846,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0G117D5B4/ref=sr_1_167?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-167</t>
+          <t>https://www.amazon.in/TDG-Executive-Leather-Magnetic-Compatible/dp/B0FRZKLS7S/ref=sr_1_164?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-164</t>
         </is>
       </c>
     </row>
@@ -7878,11 +7878,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Back Cover Case for Apple iPhone 17 Air Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 AIR Transparent)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7896,12 +7896,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV8HYZ1/ref=sr_1_168?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-168</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Protection/dp/B0G93C9CWH/ref=sr_1_165?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-165</t>
         </is>
       </c>
     </row>
@@ -7923,11 +7923,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Golden Sand</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>799</v>
+        <v>299</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7936,17 +7936,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Golden-Sand-Crystal-Cover-iPhone/dp/B0FQNPGKNZ/ref=sr_1_169?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-169</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCB1LRH/ref=sr_1_166?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-166</t>
         </is>
       </c>
     </row>
@@ -7968,11 +7968,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SwanScout</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>5995</v>
+        <v>149</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7981,17 +7981,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SwanScout-Charger-Wireless-AirPods-Included/dp/B0DR5QN2D9/ref=sr_1_170?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-170</t>
+          <t>https://www.amazon.in/Jkobi-Compatible-Apple-iPhone-17/dp/B0G3W94PDF/ref=sr_1_167?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-167</t>
         </is>
       </c>
     </row>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>ExpressB</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>898.99</v>
+        <v>310</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8031,12 +8031,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-iPhone-Nature-Border-Flexible/dp/B0FKH6MTLC/ref=sr_1_171?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-171</t>
+          <t>https://www.amazon.in/ExpressB%C2%AE-Transparent-Shockproof-ThinProtect-Cover-Deep/dp/B0FPD3NJZ3/ref=sr_1_168?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-168</t>
         </is>
       </c>
     </row>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8076,12 +8076,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_172?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-172</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFKLTZS/ref=sr_1_169?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-169</t>
         </is>
       </c>
     </row>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>QsmQam</t>
+          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8116,17 +8116,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/QsmQam-Advanced-Tempered-Compatible-Anti-Explosion/dp/B0FNLVSMHR/ref=sr_1_173?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-173</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC51CQX/ref=sr_1_170?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-170</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -8161,17 +8161,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX9HHPD/ref=sr_1_174?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-174</t>
+          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8KP478/ref=sr_1_171?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-171</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8206,17 +8206,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCWV3Y/ref=sr_1_175?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-175</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD89DD/ref=sr_1_172?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-172</t>
         </is>
       </c>
     </row>
@@ -8238,11 +8238,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>Case Cover for Apple iPhone 17 Pro | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Pro (Black)</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>999</v>
+        <v>309</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8251,17 +8251,17 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-CamShield-Layered-Protection-Transparent/dp/B0FKH71JST/ref=sr_1_176?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-176</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ87N5/ref=sr_1_173?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-173</t>
         </is>
       </c>
     </row>
@@ -8283,11 +8283,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Gray]</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNTCG5/ref=sr_1_177?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-177</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FL5XT/ref=sr_1_174?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-174</t>
         </is>
       </c>
     </row>
@@ -8328,11 +8328,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ESR</t>
+          <t>Case Cover for Apple iPhone 17 Pro Max | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 Pro Max (Black)</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3569</v>
+        <v>349</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8341,17 +8341,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:12</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/ESR-Functionality-Blocking-Adjustable-Magnetic/dp/B0FVFGPP7N/ref=sr_1_178?dib=eyJ2IjoiMSJ9.jbwyqH5hlh3XtheMxDsirTAQnw_HtxcQTSIkReM5FmftyDHrJiaxyerTeeAaP76m0fvcvF0sDtKeJQPaBan8Fa21R-zxtOtTUx9rmeyZNqGBJVyt8oePbSElwP9n2YzU2cdImzzu1FaqGMHk2oamFZ2vqsVFWkBO3-5NTakRDoLZoRYxOvPLsputknTCI53wddCfzRP6m7u5_8eKZyuQEjoeNuhhJlb7sXBdc3Lp4TU.L9cDp7wlicK5wP30WvuNkJcLI0DUiBjsOcVEiAY30AQ&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265985&amp;sr=8-178</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNR1FR1T/ref=sr_1_175?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-175</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>iPhone 17 Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Cover [Sky Blue]</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -8386,17 +8386,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:07</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FN4KMV7Y/ref=sr_1_179?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-179</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYNPK1B/ref=sr_1_176?dib=eyJ2IjoiMSJ9.6GOxgRQsLSrhBCtMuVZDEnzYMTxMKWfbv5B49xcTt2oQ9fyUpYAxsEKf4IONEF9llHlTV5ayrx6HQbf5NIYmQUSycIEPAWeqYE-xboS1kaFDYnHjeDWJi_977RQxupMzpAQEsDhlgXEnN6dILcaCyF6t0AqI79K9KyWKrIPO0WdncLC5f5eyhClLEE1pdDF2XSE1vWP8m79TLjL7F1Dfmdbdfofy_9kRFUVzTM4pPl0.zauX7Em7KjTGz3TpmYJyEMK1qkthb1O-lZ5XMRue1nI&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035896&amp;sr=8-176</t>
         </is>
       </c>
     </row>
@@ -8418,11 +8418,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>67W Charger for Apple iPhone 17 Original QC Adapter Type C 3.0A High Speed Fast Turbo Charge QC 3.0 Smart SinglePort with 1m Type-C Charging &amp; Sync Cable (White, 67W,SP-60)</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8436,12 +8436,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Apple-iPhone-17-Original-SinglePort/dp/B0GJ64FPMZ/ref=sr_1_180?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-180</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Defender-Kickstand-Protection/dp/B0FC2FL5XT/ref=sr_1_177?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-177</t>
         </is>
       </c>
     </row>
@@ -8463,11 +8463,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>UNIGEN</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1999</v>
+        <v>299</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8476,17 +8476,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/UNIGEN-Magtec-330-Qi-Enabled-White/dp/B0FQCH1PDX/ref=sr_1_181?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-181</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD2RP9/ref=sr_1_178?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-178</t>
         </is>
       </c>
     </row>
@@ -8508,11 +8508,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>DUX DUCIS</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8521,17 +8521,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC11VZ2/ref=sr_1_182?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-182</t>
+          <t>https://www.amazon.in/Ducis-Skin-Flip-Case-iPhone/dp/B0FRB1G3NR/ref=sr_1_179?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-179</t>
         </is>
       </c>
     </row>
@@ -8553,11 +8553,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Self-Healing Screen Protector for Apple iPhone 17 Pro, Invisible Bubble-Free Protection - With Easy Installation kit (Clear Total Body)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>649</v>
+        <v>399</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -8571,12 +8571,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Gadgets-Protector-Apple-iPhone-Pro/dp/B0FR9L839L/ref=sr_1_183?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-183</t>
+          <t>https://www.amazon.in/Translucent-Shockproof-Magnetic-Adsorption-Compatible/dp/B0FPCDP83W/ref=sr_1_180?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-180</t>
         </is>
       </c>
     </row>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Three Color Stripes Printed Silicon Soft TPU Back Case Cover for iPhone 17 Pro Max</t>
+          <t>eller santé</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>199</v>
+        <v>2499</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8611,17 +8611,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Stripes-Printed-Silicon-iPhone/dp/B0FQWDS4DH/ref=sr_1_184?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-184</t>
+          <t>https://www.amazon.in/eller-Wireless-Magnetic-Mag-Safe-SE-Black/dp/B0DM8KTT7J/ref=sr_1_181?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-181</t>
         </is>
       </c>
     </row>
@@ -8643,11 +8643,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Air - Clear</t>
+          <t>Protect+ with AppleCare Services for iPhone 17 (1 Year)_Welcome Letter</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>196</v>
+        <v>8499</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -8661,12 +8661,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCVR6M/ref=sr_1_185?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-185</t>
+          <t>https://www.amazon.in/Protect-AppleCare-Services-iPhone-_Welcome/dp/B0G1C6NCQW/ref=sr_1_182?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-182</t>
         </is>
       </c>
     </row>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8706,12 +8706,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_186?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-186</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCJRLX/ref=sr_1_183?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-183</t>
         </is>
       </c>
     </row>
@@ -8733,11 +8733,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>V-TAN</t>
+          <t>Amazon Brand - Solimo Flip Leather Mobile Cover (Soft &amp; Flexible Back case) for iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>474</v>
+        <v>229</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -8746,17 +8746,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/V-TAN-Cover-Apple-Pro-Back/dp/B0FTM1KQP6/ref=sr_1_187?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-187</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Leather-Flexible/dp/B0FR4M3BK8/ref=sr_1_184?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-184</t>
         </is>
       </c>
     </row>
@@ -8778,11 +8778,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 16 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8796,12 +8796,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCFWLBR/ref=sr_1_188?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-188</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9TKD7/ref=sr_1_185?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-185</t>
         </is>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Designer Soft Back Cover Case Compatible for iPhone 17, Printed,Transparent,Flexible, Silicon for Apple iPhone 17 -D2257</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LoudCase-Compatible-iPhone-Transparent-Apple/dp/B0FVFNZ772/ref=sr_1_189?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-189</t>
+          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMXG31VJ/ref=sr_1_186?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-186</t>
         </is>
       </c>
     </row>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Back Cover Case for Apple iPhone 17 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 17 Transparent)</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8881,17 +8881,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Smoked-Hawkeye-Protector-Shockproof/dp/B0G1L754DY/ref=sr_1_190?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-190</t>
+          <t>https://www.amazon.in/SBMS-17-Transparent-Anti-Yellowing-Scratch-Resistant/dp/B0FQV96BLB/ref=sr_1_187?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-187</t>
         </is>
       </c>
     </row>
@@ -8913,11 +8913,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Poohan Qin Pro Leather Case with Slide Camera Cover for iPhone 17 Pro 6.3" (2025) – Premium PU Leather Flip Wallet Case with Card Slot, Shockproof TPU Bumper, Soft Lining, Full Body Protection (Black)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2999</v>
+        <v>239</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8931,12 +8931,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Poohan-Leather-Slide-Camera-iPhone/dp/B0FTS7KJ3X/ref=sr_1_191?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-191</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCD1M1W/ref=sr_1_188?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-188</t>
         </is>
       </c>
     </row>
@@ -8958,11 +8958,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>iPhone 17 Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 – White</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8971,17 +8971,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSVZJB4/ref=sr_1_192?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-192</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCFDRXW/ref=sr_1_189?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-189</t>
         </is>
       </c>
     </row>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Air – Grey</t>
+          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -9021,12 +9021,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSXS8C6/ref=sr_1_193?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-193</t>
+          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_190?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-190</t>
         </is>
       </c>
     </row>
@@ -9048,11 +9048,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2499</v>
+        <v>199</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -9066,12 +9066,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:19</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_194?dib=eyJ2IjoiMSJ9.08NmLZZNMS9ipqZuBc6ZDCFT4y7kCwkGTSLEcCEA3egBdB3ACs4so85IOSqEvKBAIfJ2jHhCRtFkvmesj4lITvKi4em8PkruVKeJ7JRQ0Idbdf-383Pn9deQ3DCdFr87dhCHLKBNtaUIZ-9VT30yvQH7R3v7i2GNyH3oRGVhKgvZ7GJJ5Sw6mN_0A0C7eqEUCBLLzfurF691VM0_iBmrTbJIWeveKexYJi2j1Xnkh0o.OwOZGbxS1-j_UvTqS7V_U7VaxW9r5V8a5hq6o2IQ8FA&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265992&amp;sr=8-194</t>
+          <t>https://www.amazon.in/Kapa-Protective-Flexible-Silicone-Shockproof/dp/B0FMXLQF23/ref=sr_1_191?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-191</t>
         </is>
       </c>
     </row>
@@ -9093,11 +9093,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9111,12 +9111,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:16</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC1TTF8/ref=sr_1_195?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-195</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Air/dp/B0FRGM1RVR/ref=sr_1_192?dib=eyJ2IjoiMSJ9.GAXIlNxtNlptsVk_8-AM_0wxVT6J9zaoXd4F5xD55u7_dlle1GTpewS9V0uvL8N3grSH6YUOaZ41YnDGbCQ56F9EWnpWbDbMVXG-A5nyMinP6iO1DaQrL594D80DmJX6Z6Tvn65jTMB5qxho_Qc7MyPhjQyXYQsMZ7FBYy5z0-Mary4oMgPugUqDthsHoWnvSZIZGriOxmhpCroiEnHpubW8GrGfKw4SucCNGR1Av6A.22KQrmvj6NRB0J4F_rzChCcH-Kw60WcRsSP4iBuQGnU&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035906&amp;sr=8-192</t>
         </is>
       </c>
     </row>
@@ -9138,11 +9138,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Nillkin</t>
+          <t>iPhone 16 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>999</v>
+        <v>399</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nillkin-Camshield-Genuine-Classic-Leather/dp/B0FKH8L2Z5/ref=sr_1_196?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-196</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYNF48/ref=sr_1_193?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-193</t>
         </is>
       </c>
     </row>
@@ -9183,11 +9183,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>iPhone 14 pro max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro max Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -9201,12 +9201,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBVD3N8/ref=sr_1_197?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-197</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLNSQV/ref=sr_1_194?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-194</t>
         </is>
       </c>
     </row>
@@ -9228,11 +9228,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Case Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9246,12 +9246,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Translucent-Shockproof-Adsorption-Compatible/dp/B0FNQZ18LY/ref=sr_1_198?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-198</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Air-Polycarbonate/dp/B0FZBKNP5L/ref=sr_1_195?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-195</t>
         </is>
       </c>
     </row>
@@ -9273,11 +9273,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Shockproof Hard PC Back + TPU Frame with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch Case – Black</t>
+          <t>iPhone 17 Pro Max Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Pro Max Cover [Off-White]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2599</v>
+        <v>379</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -9286,17 +9286,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRN1CFY/ref=sr_1_199?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-199</t>
+          <t>https://www.amazon.in/SNAPWAVE-Shockproof-Protection-Compatible-Off-White/dp/B0FSYLZ6GQ/ref=sr_1_196?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-196</t>
         </is>
       </c>
     </row>
@@ -9318,11 +9318,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Pelican</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1713.85</v>
+        <v>474</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -9331,17 +9331,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Pelican-Compatible-Magnetic-Military-Grade-Protection/dp/B0FVDPTSQC/ref=sr_1_200?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-200</t>
+          <t>https://www.amazon.in/V-TAN-Apple-17-Compatible-Protective/dp/B0G3QCLHCX/ref=sr_1_197?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-197</t>
         </is>
       </c>
     </row>
@@ -9363,11 +9363,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -9376,17 +9376,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGCJDWX6/ref=sr_1_201?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-201</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0FSX38KQX/ref=sr_1_198?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-198</t>
         </is>
       </c>
     </row>
@@ -9408,11 +9408,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Ringke</t>
+          <t>iPhone 14 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1956</v>
+        <v>399</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -9421,17 +9421,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Ringke-Fusion-Magnetic-Compatible-Shockproof/dp/B0FL8SCV1P/ref=sr_1_202?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-202</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBSH12B/ref=sr_1_199?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-199</t>
         </is>
       </c>
     </row>
@@ -9453,11 +9453,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Amazon Brand - Solimo Back Cover for Apple iPhone 17 | Hybrid Matte Translucent Back Cover Shockproof Hard PC + TPU | Strong Magnetic Adsorption | Compatible with MagSafe for Apple iPhone 17 (Black)</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -9466,17 +9466,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Translucent-Shockproof-Adsorption/dp/B0FNWS9MTH/ref=sr_1_203?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-203</t>
+          <t>https://www.amazon.in/amazon-basics-Defender-Kickstand-Protection/dp/B0FPCDRQD8/ref=sr_1_200?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-200</t>
         </is>
       </c>
     </row>
@@ -9498,11 +9498,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>258</v>
+        <v>379</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -9516,12 +9516,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_204?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-204</t>
+          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_201?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-201</t>
         </is>
       </c>
     </row>
@@ -9543,11 +9543,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Clear Shockproof Hard PC Back with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch TPU Frame – Transparent</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>259</v>
+        <v>2599</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -9556,17 +9556,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DW2V1/ref=sr_1_205?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-205</t>
+          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRD4G4B/ref=sr_1_202?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-202</t>
         </is>
       </c>
     </row>
@@ -9588,11 +9588,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Purple</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>399</v>
+        <v>242</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9606,12 +9606,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC8L7BM/ref=sr_1_206?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-206</t>
+          <t>https://www.amazon.in/amazon-basics-Silicon-Shockproof-Magnetic/dp/B0FPCCNPLK/ref=sr_1_203?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-203</t>
         </is>
       </c>
     </row>
@@ -9633,11 +9633,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Case | Magnetic Matte Design | Shockproof Slim Fit | Ring Camera Protection | MagSafe Compatible | Premium Crystal Hard iPhone 17 Air Cover [Brown]</t>
+          <t>iPhone 13 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9646,17 +9646,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Magnetic-Shockproof-Protection-Compatible/dp/B0FSYPJ6CB/ref=sr_1_207?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-207</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBPLS8M/ref=sr_1_204?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-204</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>iPhone 14 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -9696,12 +9696,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC6XSYL/ref=sr_1_208?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-208</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT2ZN4LV/ref=sr_1_205?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-205</t>
         </is>
       </c>
     </row>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -9741,12 +9741,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Air/dp/B0FT337S2R/ref=sr_1_209?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-209</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Polycarbonate/dp/B0G12SNRBD/ref=sr_1_206?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-206</t>
         </is>
       </c>
     </row>
@@ -9768,11 +9768,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>LIRAMARK</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>399</v>
+        <v>231</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -9781,17 +9781,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:26</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LIRAMARK-Liquid-Silicone-Cover-iPhone/dp/B0FQP97T1G/ref=sr_1_210?dib=eyJ2IjoiMSJ9.pFCxpZaiEXd3oq-frXosRB4ZRgaQr58dZgO0QbQsovJurGvSEJlkdQsKfTyg_84CK7q8vJr1l8c4RXA2LEOtfYa6CZCfdYa6XWXvx6LW_RSfCnrfDIcEpTm-IvU7IB5pPp75JPkySlMEJxwStIFmULz2ZFOP2gqA7tGNmaInhRm3Psfp5BysNmogqKCTipM3a3iO4Ug5ORE8PchpEj_BQSLNtKrDlX-PSo5LyDzRX60.w_Fc6aR4EwS7Kc1XoU3hwloO84lxPDERSsvgjpGvx2w&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770265999&amp;sr=8-210</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_207?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-207</t>
         </is>
       </c>
     </row>
@@ -9813,11 +9813,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Slim Soft Silicon *Anti Dust Plug* Shockproof Transparent TPU Back Case Cover for iPhone 17 Air - Clear</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -9831,12 +9831,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:26</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Casotec-Silicon-Shockproof-Transparent-iPhone/dp/B0FQW3V5Z3/ref=sr_1_211?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-211</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG61R3J/ref=sr_1_208?dib=eyJ2IjoiMSJ9.pLZxPyQXUX1n5M7S5slgrnBtS_AIPGveCpn-upGxAfN5eIevbiwG2wLNVz-A0GEw8M4E_qBFrD5wPOAm2IcsfbGKAPWwt3rjamLO0OmayKQ13-oQjBMsAucG_qw8JJbeGwPocJVcVZEKOYZDyGSM33myhTj6HWEdCPJZrEKVJL9HhlNbNm6Li18GfdTzr1cOwklMkgRTU1O1d5YZAJ9t_x8g1qTomazFEeOT4byYCbI.5l79uivRHfefHSqH3NXlfBaWJjqpRAYEbV6P_G8P7to&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035915&amp;sr=8-208</t>
         </is>
       </c>
     </row>
@@ -9858,11 +9858,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>iPhone 15 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 15 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>QsmQam</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9876,12 +9876,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBXHVN7/ref=sr_1_212?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-212</t>
+          <t>https://www.amazon.in/QsmQam-Advanced-Tempered-Compatible-Anti-Explosion/dp/B0FNLVSMHR/ref=sr_1_209?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-209</t>
         </is>
       </c>
     </row>
@@ -9903,11 +9903,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 13 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>Kapa</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9916,17 +9916,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC9WCSX/ref=sr_1_213?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-213</t>
+          <t>https://www.amazon.in/Kapa-iPhone-Inbuilt-Shockproof-Protection/dp/B0FT8MVXYT/ref=sr_1_210?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-210</t>
         </is>
       </c>
     </row>
@@ -9948,11 +9948,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Kapa</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>499</v>
+        <v>231</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9961,17 +9961,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Kapa-Slider-Inbuilt-Shockproof-Protection/dp/B0FMX9J4L1/ref=sr_1_214?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-214</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2C7HS9/ref=sr_1_211?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-211</t>
         </is>
       </c>
     </row>
@@ -9993,11 +9993,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Amazon Brand-Solimo</t>
+          <t>ESR</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>171</v>
+        <v>3569</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10006,17 +10006,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Amazon-Brand-Solimo-Basic-iPhone-Silicon_Clear/dp/B0FC2FG2PQ/ref=sr_1_215?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-215</t>
+          <t>https://www.amazon.in/ESR-Functionality-Blocking-Adjustable-Magnetic/dp/B0FVFGPP7N/ref=sr_1_212?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-212</t>
         </is>
       </c>
     </row>
@@ -10038,11 +10038,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
+          <t>YATWIN</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10051,17 +10051,17 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBY8GXN/ref=sr_1_216?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-216</t>
+          <t>https://www.amazon.in/YATWIN-iPhone-17-Air-Soft-Touch/dp/B0FVFLLYZY/ref=sr_1_213?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-213</t>
         </is>
       </c>
     </row>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>CarboProp Magnetic Case for iPhone 17 Pro Max 6.9" (2025) – Aramid Fiber Protective Cover with Shockproof TPU Bumper, Transparent Camera Cover, Kickstand, Works with Magsafe, Armor Case - Black</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>239</v>
+        <v>3499</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10096,17 +10096,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4C2L/ref=sr_1_217?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-217</t>
+          <t>https://www.amazon.in/CarboProp-Magnetic-Case-iPhone-Pro/dp/B0FRR9Q46Q/ref=sr_1_214?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-214</t>
         </is>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Soft Silicon Printed Designer Mobile Back Cover for Apple iPhone 17 Pro -D3205</t>
+          <t>iPhone 12/12 pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 12/12 pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Pink</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -10141,17 +10141,17 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Apple-iPhone-17-Pro/dp/B0FRGLS8ZH/ref=sr_1_218?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-218</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBTN1D9/ref=sr_1_215?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-215</t>
         </is>
       </c>
     </row>
@@ -10173,11 +10173,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -10191,12 +10191,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBQ9K1R/ref=sr_1_219?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-219</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G436VN2L/ref=sr_1_216?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-216</t>
         </is>
       </c>
     </row>
@@ -10218,11 +10218,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Mag-Safe Clear Case for iPhone 17 Pro Max | Shockproof Transparent Cover with Camera Lens Protection | Metal Ring Stand &amp; Wireless Charging Support – Blue</t>
+          <t>iPhone 17 Pro Max Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro Max – Brown</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>499</v>
+        <v>219</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -10231,17 +10231,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/LuxuryKase-Mag-Safe-Shockproof-Transparent-Protection/dp/B0GDTF9R36/ref=sr_1_220?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-220</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0G117D5B4/ref=sr_1_217?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-217</t>
         </is>
       </c>
     </row>
@@ -10281,12 +10281,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGNSNV2/ref=sr_1_221?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-221</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRG61J3B/ref=sr_1_218?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-218</t>
         </is>
       </c>
     </row>
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10321,17 +10321,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Translucent-Shockproof-Adsorption/dp/B0FPCGFWNN/ref=sr_1_222?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-222</t>
+          <t>https://www.amazon.in/amazon-basics-Compatible-Silicon-Protection/dp/B0F946877P/ref=sr_1_219?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-219</t>
         </is>
       </c>
     </row>
@@ -10353,11 +10353,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro 6.3" (2025) – Shockproof Hard PC Back + TPU Frame with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch Case – Black</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2599</v>
+        <v>270</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10366,17 +10366,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRRYH297/ref=sr_1_223?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-223</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCM7HC/ref=sr_1_220?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-220</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Max Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Max Cover (Microfiber Lining) | Ultra Smooth Silicone - Off-White</t>
+          <t>iPhone 11 Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 11 Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -10411,17 +10411,17 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC51CQX/ref=sr_1_224?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-224</t>
+          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5TPCV/ref=sr_1_221?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-221</t>
         </is>
       </c>
     </row>
@@ -10443,11 +10443,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>iPhone 14 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>Back Cover Case for Apple iPhone 16 Transparent TPU with Camera Protection, Shockproof, Anti-Yellowing, Scratch-Resistant, Wireless Charging Compatible for (iPhone 16 Transparent)</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>399</v>
+        <v>179</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -10456,17 +10456,17 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC5MWP3/ref=sr_1_225?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-225</t>
+          <t>https://www.amazon.in/SBMS-Transparent-Protection-Anti-Yellowing-Scratch-Resistant/dp/B0FR1QLSHG/ref=sr_1_222?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-222</t>
         </is>
       </c>
     </row>
@@ -10488,11 +10488,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -10506,12 +10506,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:36</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCC8TJ5/ref=sr_1_226?dib=eyJ2IjoiMSJ9.4B7mOKo3XzRQUgXtoawJ-eE4oCc8CHrUmXE5t8Q_OOlQjt6KaOn3lcJbfnf6QX8wgtWGlp-mOzf1YN1xjU93_u1HBVLTEf0-U87kur9ZrXUJRnq7AdtKx7tHz3ubw2Eh3u5p1B44baWcHfg-8NpyZvUJOGggujd7zCu2-l2xiWufWfKeXO8wdWZyoJxYBaIFJdASYELKb9dJJ2CERtQB353pv2wYD6ehC5wL6hbylwU.ahCPqc-Wm0aejmyEVvudP6bVmf-NbNCcCefq6G3jnik&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266007&amp;sr=8-226</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Silicon-Shockproof-Magnetic/dp/B0FC2DW2V1/ref=sr_1_223?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-223</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>amazon basics</t>
+          <t>Amazon Brand-Solimo</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:34</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCF4SCN/ref=sr_1_227?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-227</t>
+          <t>https://www.amazon.in/Amazon-Brand-Solimo-Protection-Silicon-Flexible/dp/B0FC2DHVFX/ref=sr_1_224?dib=eyJ2IjoiMSJ9.5TyrpeSa1VH9X-r12m8j9EZwpUn2EjBGXJprn_5cOj3y8dFLO1xUE88qoF5uuHxitJApLiFlE_uYqLjSY-Ys6dHxhJHzv__G9oZSHBjQzm3JGZxMySK8UKHpjZ65GmXKvTOJOVFD6cYQ0GzRnvyaPMFseBUd4w-lFBAe9OO3ur9RRj9A_OE69Lqhwcj00fZSQd8NFLLjZZ7-GbuAEcwQDG0a9RHIFN_m2lPghFFSbSc.ZSFeZrECDV_507btaE3hHQDMfTZEsIY6-Ln1I6Z4RGw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035925&amp;sr=8-224</t>
         </is>
       </c>
     </row>
@@ -10578,11 +10578,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Printed Back Cover Case Compatible for Apple iPhone 17 Back Cover for Apple iPhone 17| Shockproof TPU Soft Flexible with Camera Protection -D1138</t>
+          <t>Iceblade Prop Magnetic Case for iPhone 17 Pro Max – Shockproof Transparent Back Works with MagSafe, Built-in Kickstand, Slim Matte Bumper, Anti-Yellowing Hard PC &amp; Soft TPU Hybrid – Transparent Grey</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>159</v>
+        <v>2499</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -10596,12 +10596,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-Compatible-Apple-iPhone-17/dp/B0FR9V9W88/ref=sr_1_228?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-228</t>
+          <t>https://www.amazon.in/Iceblade-Prop-Magnetic-iPhone-Built/dp/B0FRR1HDMG/ref=sr_1_225?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-225</t>
         </is>
       </c>
     </row>
@@ -10623,11 +10623,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Protection-Apple-iPhone-Pro/dp/B0FRGN9SC8/ref=sr_1_229?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-229</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Max/dp/B0G12XV9RV/ref=sr_1_226?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-226</t>
         </is>
       </c>
     </row>
@@ -10668,11 +10668,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>iPhone 16 Plus Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 16 Plus Cover (Microfiber Lining) | Ultra Smooth Silicone - Gray</t>
+          <t>Fashionury</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -10686,12 +10686,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGC67Q49/ref=sr_1_230?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-230</t>
+          <t>https://www.amazon.in/Fashionury-Apple-iPhone-17-Pro/dp/B0FRGGNTQ6/ref=sr_1_227?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-227</t>
         </is>
       </c>
     </row>
@@ -10713,11 +10713,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>SPRIG</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1187</v>
+        <v>295</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10726,17 +10726,17 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SPRIG-Compatible-PureCrystal-Protection-Transparent/dp/B0G2L9BVJQ/ref=sr_1_231?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-231</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSL76135/ref=sr_1_228?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-228</t>
         </is>
       </c>
     </row>
@@ -10758,11 +10758,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -10776,12 +10776,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBZVVNP/ref=sr_1_232?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-232</t>
+          <t>https://www.amazon.in/V-TAN-Transparent-Magnetic-Shockproof-Compatible/dp/B0GD7H19JT/ref=sr_1_229?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-229</t>
         </is>
       </c>
     </row>
@@ -10803,11 +10803,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>Amazon Brand - Solimo Premium Shockproof Transparent TPU Back Case Cover with Built-in Slim Card Holder Wallet for Apple iPhone 17 Air - Clear</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -10821,12 +10821,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Pro-Transparent/dp/B0FRGMBKRD/ref=sr_1_233?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-233</t>
+          <t>https://www.amazon.in/Amazon-Brand-Shockproof-Transparent-Built/dp/B0FKTCVR6M/ref=sr_1_230?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-230</t>
         </is>
       </c>
     </row>
@@ -10848,11 +10848,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Fashionury</t>
+          <t>iPhone 17 Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 – Pink</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -10861,17 +10861,17 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Fashionury-Apple-iPhone-Air-Transparent/dp/B0FRGM7W6Y/ref=sr_1_234?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-234</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSWJ5PQ/ref=sr_1_231?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-231</t>
         </is>
       </c>
     </row>
@@ -10893,11 +10893,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>iPhone 14 pro Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 14 pro Cover (Microfiber Lining) | Ultra Smooth Silicone - Navy Blue</t>
+          <t>iPhone 17 Air Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Air – Dark Blue</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>399</v>
+        <v>219</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -10906,17 +10906,17 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBSH141/ref=sr_1_235?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-235</t>
+          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXST44QB/ref=sr_1_232?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-232</t>
         </is>
       </c>
     </row>
@@ -10938,11 +10938,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>iPhone 17 Pro Transparent Case | Shockproof Bumper &amp; Camera Protection | Magsafe Compatible | Sleek Hard Crystal Back Cover for iPhone 17 Pro – Clear</t>
+          <t>Jkobi</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -10951,17 +10951,17 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/SNAPWAVE-Transparent-Shockproof-Protection-Compatible/dp/B0FXSY9QSB/ref=sr_1_236?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-236</t>
+          <t>https://www.amazon.in/Jkobi-Apple-iPhone-Pro-Polycarbonate/dp/B0G1HL9J76/ref=sr_1_233?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-233</t>
         </is>
       </c>
     </row>
@@ -10983,11 +10983,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>iPhone 17 Air Silicone Magsafe Case | Shock Proof Design &amp; Camera Protection | Premium Rubberised Apple iPhone 17 Air Cover (Microfiber Lining) | Ultra Smooth Silicone - Sky Blue</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10996,17 +10996,17 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Silicone-Magsafe-Protection-Rubberised-Microfiber/dp/B0GGBYC676/ref=sr_1_237?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-237</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCWV3Y/ref=sr_1_234?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-234</t>
         </is>
       </c>
     </row>
@@ -11028,11 +11028,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Soft Silicon Slimfit Back Cover for iPhone 17pro, Stylish Printed Back Cover for Apple iPhone 17 Pro -D1219</t>
+          <t>V-TAN</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11046,12 +11046,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Nainz-iPhone-Apple-17-Pro/dp/B0FRGMRHPH/ref=sr_1_238?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-238</t>
+          <t>https://www.amazon.in/V-TAN-iPhone-Transparent-Shockproof-Compatible/dp/B0FN4KSJPY/ref=sr_1_235?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-235</t>
         </is>
       </c>
     </row>
@@ -11073,11 +11073,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Bumper Corner Back Cover for Apple iPhone 17 Series (i-Phone 17 Pro (6.3))</t>
+          <t>amazon basics</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11091,12 +11091,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/YOFO-Bumper-Corner-iPhone-i-Phone/dp/B0FQPB7LQW/ref=sr_1_239?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-239</t>
+          <t>https://www.amazon.in/amazon-basics-Protection-Silicon-Flexible/dp/B0FPCCZTTC/ref=sr_1_236?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-236</t>
         </is>
       </c>
     </row>
@@ -11118,11 +11118,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Jkobi</t>
+          <t>CamShield Prop Lens Guard Magnetic Case for iPhone 17 Pro 6.3" (2025) – Clear Shockproof Hard PC Back with Camera Cover, Kickstand, Compatible with Magsafe, Anti-Scratch TPU Frame – Transparent</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>289</v>
+        <v>2599</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11131,17 +11131,17 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2026-02-05 10:03:44</t>
+          <t>2026-02-14 07:55:43</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://www.amazon.in/Jkobi-Apple-iPhone-17-Pro/dp/B0FSCWRSG8/ref=sr_1_240?dib=eyJ2IjoiMSJ9.uEaQJq4TEm1sy6ZmSb7oErpTqR43neQTNGO-0M27IRm852_O_hzzT1rpZIpuusE5AFuKBlkRd6xQpLJ3ZHVqtibtasweoaxfm6xJBslVvSr6P6UP_1e5hvfofCqAurwH2m7yYBvk7V5UQyaHphcnTQwFdAuIE5Z-3K7f3AdASVuZjKivT2YpyOfFSRmgKUTpKC-3JEhHJz0mMEFfPqUuJzaypvqGR4EG5ujEBw_hSAU.o9iqdbimNwFfsOTYx1tHAI2FD4wIYeRDODljaYyTnJw&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1770266016&amp;sr=8-240</t>
+          <t>https://www.amazon.in/CamShield-Prop-Guard-Magnetic-iPhone/dp/B0FRS5X8DW/ref=sr_1_237?dib=eyJ2IjoiMSJ9.iZMh-ZQaBakXgkXlgJEmXTY8KrdCEV70GRZgQu2dF53_BXKUhKTVJ7M0GFqobYBK2AWu_D0Ucwmu3MuO3BgEKJfAoJvOpiipai0CzdmX6W5TkBdUZhCHdEuK_G2sVva4Eh0-crEnVV48b0VUyLRlEI7s3Mo8VDJW0INOeOd3P_nHmClpSwoF8fa7Ziggt1-EoydK1asrMCYz8VsvtXlqeNS1lolT5a1xNmhnxDJzmFg.qZpIzw38B0GX9z00ojCWuZsSU4EEKIic4GwFOOPLFbY&amp;dib_tag=se&amp;keywords=apple+iphone+17&amp;qid=1771035933&amp;sr=8-237</t>
         </is>
       </c>
     </row>
@@ -11163,11 +11163,11 @